--- a/routers/upload/派单模板.xlsx
+++ b/routers/upload/派单模板.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koori/Workspace/product/ntocc/public/file/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-1240" yWindow="-18860" windowWidth="28620" windowHeight="15780" tabRatio="500"/>
+    <workbookView windowWidth="18525" windowHeight="7860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="运单导入-标准版" sheetId="1" r:id="rId1"/>
@@ -21,11 +16,6 @@
     <definedName name="省份">[1]Sheet2!$F$3208:$F$3238</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -167,13 +157,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -181,7 +176,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -189,33 +196,161 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="3"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="3"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,30 +359,216 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79989013336588644"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79992065187536243"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39991454817346722"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399914548173467"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -255,11 +576,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -268,37 +831,78 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -309,7 +913,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -573,125 +1177,125 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="16.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.8333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6666666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="18" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.3333333333333" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.66666666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.8333333333333" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14" style="3" customWidth="1"/>
     <col min="10" max="10" width="10" style="2" customWidth="1"/>
     <col min="11" max="11" width="16.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" style="2" customWidth="1"/>
-    <col min="13" max="14" width="9.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="21.1640625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="22.33203125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="14.1640625" style="5" customWidth="1"/>
-    <col min="18" max="18" width="22.5" style="5" customWidth="1"/>
-    <col min="19" max="19" width="14.1640625" style="5" customWidth="1"/>
-    <col min="20" max="20" width="22.5" style="5" customWidth="1"/>
-    <col min="21" max="21" width="14.1640625" style="5" customWidth="1"/>
-    <col min="22" max="22" width="21.83203125" style="5" customWidth="1"/>
-    <col min="23" max="23" width="14.1640625" style="5" customWidth="1"/>
-    <col min="24" max="24" width="10" style="5" customWidth="1"/>
-    <col min="25" max="16384" width="9.1640625" style="5"/>
+    <col min="12" max="12" width="11.8333333333333" style="2" customWidth="1"/>
+    <col min="13" max="14" width="9.33333333333333" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.1666666666667" style="2" customWidth="1"/>
+    <col min="16" max="16" width="22.3333333333333" style="2" customWidth="1"/>
+    <col min="17" max="17" width="14.1666666666667" style="4" customWidth="1"/>
+    <col min="18" max="18" width="22.5" style="4" customWidth="1"/>
+    <col min="19" max="19" width="14.1666666666667" style="4" customWidth="1"/>
+    <col min="20" max="20" width="22.5" style="4" customWidth="1"/>
+    <col min="21" max="21" width="14.1666666666667" style="4" customWidth="1"/>
+    <col min="22" max="22" width="21.8333333333333" style="4" customWidth="1"/>
+    <col min="23" max="23" width="14.1666666666667" style="4" customWidth="1"/>
+    <col min="24" max="24" width="10" style="4" customWidth="1"/>
+    <col min="25" max="16384" width="9.16666666666667" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:24">
+      <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -715,7 +1319,7 @@
       <c r="H2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -739,38 +1343,38 @@
       <c r="P2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="4" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
       <formula1>"煤炭及制品,石油、天然气及制品,金属矿石,钢铁,矿建材料,水泥,木材,非金属矿石,化肥及农药,盐,粮食,机械、设备、电器,轻工原料及制品,有色金属,轻工医药产品,鲜活农产品,冷藏冷冻货物,商品汽车,其他"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/routers/upload/派单模板.xlsx
+++ b/routers/upload/派单模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7685AF-5901-4F02-98E6-A26F6648D59C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A159845E-3440-475F-96A4-83594903D277}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1365" yWindow="1410" windowWidth="27435" windowHeight="14790" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="运单导入-标准版" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
   <definedNames>
     <definedName name="省份">[1]Sheet2!$F$3208:$F$3238</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>项目</t>
   </si>
@@ -46,6 +46,9 @@
     <t>发货人</t>
   </si>
   <si>
+    <t>发货人电话</t>
+  </si>
+  <si>
     <t>收货人</t>
   </si>
   <si>
@@ -73,33 +76,6 @@
     <t>司机身份证</t>
   </si>
   <si>
-    <t>现金1收款人账号</t>
-  </si>
-  <si>
-    <t>现金1支付金额</t>
-  </si>
-  <si>
-    <t>现金2收款人账号</t>
-  </si>
-  <si>
-    <t>现金2支付金额</t>
-  </si>
-  <si>
-    <t>到付收款账号</t>
-  </si>
-  <si>
-    <t>到付支付金额</t>
-  </si>
-  <si>
-    <t>尾款收款账号</t>
-  </si>
-  <si>
-    <t>尾款支付金额</t>
-  </si>
-  <si>
-    <t>已付油费</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
@@ -112,7 +88,7 @@
     <t>辽宁省沈阳市大东区</t>
   </si>
   <si>
-    <t>2018-10-29</t>
+    <t>2020-02-13</t>
   </si>
   <si>
     <t>河北省石家庄市和平区创新路25号平航大厦B座1603</t>
@@ -121,6 +97,9 @@
     <t>梅香如故</t>
   </si>
   <si>
+    <t>15288877732</t>
+  </si>
+  <si>
     <t>李然</t>
   </si>
   <si>
@@ -148,16 +127,7 @@
     <t>410881198804264015</t>
   </si>
   <si>
-    <t>6212264100011335373</t>
-  </si>
-  <si>
-    <t>100.01</t>
-  </si>
-  <si>
-    <t>100.02</t>
-  </si>
-  <si>
-    <t>100</t>
+    <t>导入测试</t>
   </si>
 </sst>
 </file>
@@ -176,6 +146,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -183,29 +169,16 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,12 +203,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39988402966399123"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -249,8 +216,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -258,24 +226,20 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -566,41 +530,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.125" style="4"/>
+    <col min="1" max="1" width="16.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="3" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16.5" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.875" style="3" customWidth="1"/>
+    <col min="14" max="15" width="9.375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="21.125" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75">
+    <row r="1" spans="1:17" ht="15.75">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -622,13 +575,13 @@
       <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="7" t="s">
@@ -646,118 +599,127 @@
       <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="G2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="H2" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="I2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="O3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="P3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="Q3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3 J1:J2 J4:J1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"煤炭及制品,石油、天然气及制品,金属矿石,钢铁,矿建材料,水泥,木材,非金属矿石,化肥及农药,盐,粮食,机械、设备、电器,轻工原料及制品,有色金属,轻工医药产品,鲜活农产品,冷藏冷冻货物,商品汽车,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/routers/upload/派单模板.xlsx
+++ b/routers/upload/派单模板.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A159845E-3440-475F-96A4-83594903D277}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="1410" windowWidth="27435" windowHeight="14790" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="运单导入-标准版" sheetId="1" r:id="rId1"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>项目</t>
   </si>
@@ -74,6 +68,12 @@
   </si>
   <si>
     <t>司机身份证</t>
+  </si>
+  <si>
+    <t>装车时间</t>
+  </si>
+  <si>
+    <t>卸车时间</t>
   </si>
   <si>
     <t>备注</t>
@@ -133,8 +133,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -146,7 +152,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -154,14 +159,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -169,16 +172,161 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,24 +335,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79992065187536243"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79985961485641044"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79989013336588644"/>
+        <fgColor theme="4" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79985961485641"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799890133365886"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -212,13 +546,254 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -226,6 +801,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -243,24 +819,68 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -524,36 +1144,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.08888888888889" defaultRowHeight="16.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="3" customWidth="1"/>
-    <col min="6" max="7" width="10.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10" style="3" customWidth="1"/>
-    <col min="12" max="12" width="16.5" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.875" style="3" customWidth="1"/>
-    <col min="14" max="15" width="9.375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="21.125" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="16.9037037037037" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6296296296296" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.4518518518519" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.362962962963" style="2" customWidth="1"/>
+    <col min="6" max="7" width="10.4518518518519" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.62962962962963" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.9037037037037" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.4518518518519" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.9037037037037" style="2" customWidth="1"/>
+    <col min="14" max="15" width="9.36296296296296" style="2" customWidth="1"/>
+    <col min="16" max="18" width="21.0888888888889" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9.08888888888889" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75">
+    <row r="1" ht="15" spans="1:19">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -605,121 +1227,128 @@
       <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:19">
+      <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="P2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="S2" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="1:19">
+      <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3 J1:J2 J4:J1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
       <formula1>"煤炭及制品,石油、天然气及制品,金属矿石,钢铁,矿建材料,水泥,木材,非金属矿石,化肥及农药,盐,粮食,机械、设备、电器,轻工原料及制品,有色金属,轻工医药产品,鲜活农产品,冷藏冷冻货物,商品汽车,其他"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/routers/upload/派单模板.xlsx
+++ b/routers/upload/派单模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9486AB39-ED5E-4F1B-96D7-A63B562A4C8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E926022-7373-4B5D-AF0D-1C2169F1BF37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1365" yWindow="810" windowWidth="27435" windowHeight="14790" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="运单导入-标准版" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>项目</t>
   </si>
@@ -76,15 +76,24 @@
     <t>司机身份证</t>
   </si>
   <si>
+    <t>装车日期</t>
+  </si>
+  <si>
     <t>装车时间</t>
   </si>
   <si>
+    <t>卸车日期</t>
+  </si>
+  <si>
     <t>卸车时间</t>
   </si>
   <si>
     <t>备注</t>
   </si>
   <si>
+    <t>仓库周转</t>
+  </si>
+  <si>
     <t>A00001</t>
   </si>
   <si>
@@ -130,26 +139,23 @@
     <t>410881198804264015</t>
   </si>
   <si>
+    <t>8:32</t>
+  </si>
+  <si>
+    <t>2020-03-14</t>
+  </si>
+  <si>
+    <t>15:21</t>
+  </si>
+  <si>
     <t>导入测试</t>
-  </si>
-  <si>
-    <t>仓库周转</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-02-13</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-03-13</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -161,7 +167,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -169,14 +174,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -184,18 +187,12 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="DengXian"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -208,19 +205,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79989013336588644"/>
+        <fgColor theme="4" tint="0.79985961485641044"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79979857783745845"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79982909634693444"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -262,10 +259,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -576,11 +569,13 @@
     <col min="13" max="13" width="11.875" style="2" customWidth="1"/>
     <col min="14" max="15" width="9.375" style="2" customWidth="1"/>
     <col min="16" max="16" width="21.125" style="2" customWidth="1"/>
-    <col min="17" max="18" width="13.75" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9.125" style="4"/>
+    <col min="17" max="17" width="16.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.875" style="2" customWidth="1"/>
+    <col min="19" max="20" width="16" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75">
+    <row r="1" spans="1:21" ht="15.75">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -623,144 +618,162 @@
       <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:21">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="Q3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>34</v>
+      <c r="S3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J3 J4:J1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"煤炭及制品,石油、天然气及制品,金属矿石,钢铁,矿建材料,水泥,木材,非金属矿石,化肥及农药,盐,粮食,机械、设备、电器,轻工原料及制品,有色金属,轻工医药产品,鲜活农产品,冷藏冷冻货物,商品汽车,其他"</formula1>
     </dataValidation>
   </dataValidations>

--- a/routers/upload/派单模板.xlsx
+++ b/routers/upload/派单模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E926022-7373-4B5D-AF0D-1C2169F1BF37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4965FE05-059E-4454-AC5C-D716A96CB348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="810" windowWidth="27435" windowHeight="14790" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="运单导入-标准版" sheetId="1" r:id="rId1"/>
@@ -76,12 +76,6 @@
     <t>司机身份证</t>
   </si>
   <si>
-    <t>装车日期</t>
-  </si>
-  <si>
-    <t>装车时间</t>
-  </si>
-  <si>
     <t>卸车日期</t>
   </si>
   <si>
@@ -149,13 +143,21 @@
   </si>
   <si>
     <t>导入测试</t>
+  </si>
+  <si>
+    <t>发车日期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发车时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,6 +169,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -174,12 +177,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -187,13 +192,21 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="DengXian"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -234,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -244,7 +257,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -258,6 +270,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -576,198 +592,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="T1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="U1" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="S2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="U2" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="S3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="U3" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -778,6 +794,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/routers/upload/派单模板.xlsx
+++ b/routers/upload/派单模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4965FE05-059E-4454-AC5C-D716A96CB348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95446CB9-600E-4018-BE2F-F36D7CA27E9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>项目</t>
   </si>
@@ -124,12 +124,6 @@
     <t>5000</t>
   </si>
   <si>
-    <t>鲁J12345</t>
-  </si>
-  <si>
-    <t>李四</t>
-  </si>
-  <si>
     <t>410881198804264015</t>
   </si>
   <si>
@@ -150,6 +144,46 @@
   </si>
   <si>
     <t>发车时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">何瑞晓	</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁H233V挂</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行卡号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款人姓名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款人联系电话</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国民生银行</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>18516411000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000000000000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -198,6 +232,7 @@
     <font>
       <sz val="9"/>
       <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -564,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,15 +618,20 @@
     <col min="11" max="11" width="10" style="2" customWidth="1"/>
     <col min="12" max="12" width="16.5" style="2" customWidth="1"/>
     <col min="13" max="13" width="11.875" style="2" customWidth="1"/>
-    <col min="14" max="15" width="9.375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.375" style="2" customWidth="1"/>
     <col min="16" max="16" width="21.125" style="2" customWidth="1"/>
     <col min="17" max="17" width="16.25" style="2" customWidth="1"/>
     <col min="18" max="18" width="9.875" style="2" customWidth="1"/>
     <col min="19" max="20" width="16" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9.125" style="4"/>
+    <col min="21" max="21" width="11.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.75" style="4" customWidth="1"/>
+    <col min="23" max="23" width="14.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75">
+    <row r="1" spans="1:25" ht="15.75">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -641,10 +681,10 @@
         <v>15</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>16</v>
@@ -652,11 +692,23 @@
       <c r="T1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:25">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -697,31 +749,43 @@
         <v>31</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="R2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="U2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:25">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -762,34 +826,46 @@
         <v>31</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="R3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="U3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y3" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J3 J4:J1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"煤炭及制品,石油、天然气及制品,金属矿石,钢铁,矿建材料,水泥,木材,非金属矿石,化肥及农药,盐,粮食,机械、设备、电器,轻工原料及制品,有色金属,轻工医药产品,鲜活农产品,冷藏冷冻货物,商品汽车,其他"</formula1>
     </dataValidation>
   </dataValidations>

--- a/routers/upload/派单模板.xlsx
+++ b/routers/upload/派单模板.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95446CB9-600E-4018-BE2F-F36D7CA27E9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EB5EFC-7EC1-4B33-AB40-6BBDAD694099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="运单导入-标准版" sheetId="1" r:id="rId1"/>
+    <sheet name="bank" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="省份">[1]Sheet2!$F$3208:$F$3238</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="264">
   <si>
     <t>项目</t>
   </si>
@@ -171,10 +172,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>中国民生银行</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>张三</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -185,6 +182,654 @@
   <si>
     <t>6000000000000</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国工商银行(工行)</t>
+  </si>
+  <si>
+    <t>中国农业银行(农行)</t>
+  </si>
+  <si>
+    <t>中国银行(中行)</t>
+  </si>
+  <si>
+    <t>中国建设银行(建行)</t>
+  </si>
+  <si>
+    <t>国家开发银行</t>
+  </si>
+  <si>
+    <t>中国进出口银行</t>
+  </si>
+  <si>
+    <t>中国农业发展银行</t>
+  </si>
+  <si>
+    <t>交通银行(交行)</t>
+  </si>
+  <si>
+    <t>中信银行</t>
+  </si>
+  <si>
+    <t>中国光大银行</t>
+  </si>
+  <si>
+    <t>华夏银行</t>
+  </si>
+  <si>
+    <t>中国民生银行</t>
+  </si>
+  <si>
+    <t>广发银行(广东发展银行)</t>
+  </si>
+  <si>
+    <t>平安银行</t>
+  </si>
+  <si>
+    <t>招商银行</t>
+  </si>
+  <si>
+    <t>兴业银行</t>
+  </si>
+  <si>
+    <t>上海浦东发展银行(浦发银行)</t>
+  </si>
+  <si>
+    <t>北京银行</t>
+  </si>
+  <si>
+    <t>天津银行</t>
+  </si>
+  <si>
+    <t>河北银行股份有限公司</t>
+  </si>
+  <si>
+    <t>唐山银行股份有限公司</t>
+  </si>
+  <si>
+    <t>秦皇岛银行股份有限公司</t>
+  </si>
+  <si>
+    <t>邯郸银行股份有限公司</t>
+  </si>
+  <si>
+    <t>邢台银行股份有限公司</t>
+  </si>
+  <si>
+    <t>保定银行股份有限公司</t>
+  </si>
+  <si>
+    <t>张家口银行股份有限公司</t>
+  </si>
+  <si>
+    <t>承德银行股份有限公司</t>
+  </si>
+  <si>
+    <t>沧州银行股份有限公司</t>
+  </si>
+  <si>
+    <t>廊坊银行股份有限公司</t>
+  </si>
+  <si>
+    <t>衡水银行股份有限公司</t>
+  </si>
+  <si>
+    <t>晋商银行股份有限公司</t>
+  </si>
+  <si>
+    <t>大同银行股份有限公司</t>
+  </si>
+  <si>
+    <t>阳泉市商业银行股份有限公司</t>
+  </si>
+  <si>
+    <t>长治银行</t>
+  </si>
+  <si>
+    <t>晋城银行</t>
+  </si>
+  <si>
+    <t>晋中银行</t>
+  </si>
+  <si>
+    <t>内蒙古银行股份有限公司</t>
+  </si>
+  <si>
+    <t>包商银行股份有限公司</t>
+  </si>
+  <si>
+    <t>乌海银行股份有限公司</t>
+  </si>
+  <si>
+    <t>鄂尔多斯银行股份有限公司</t>
+  </si>
+  <si>
+    <t>盛京银行清算中心</t>
+  </si>
+  <si>
+    <t>大连银行股份有限公司(不对外办理业务）</t>
+  </si>
+  <si>
+    <t>鞍山银行股份有限公司</t>
+  </si>
+  <si>
+    <t>抚顺银行股份有限公司清算中心</t>
+  </si>
+  <si>
+    <t>本溪市商业银行股份有限公司</t>
+  </si>
+  <si>
+    <t>丹东银行清算中心</t>
+  </si>
+  <si>
+    <t>锦州银行（不对外办理业务）</t>
+  </si>
+  <si>
+    <t>葫芦岛银行股份有限公司</t>
+  </si>
+  <si>
+    <t>营口银行股份有限公司资金清算中心</t>
+  </si>
+  <si>
+    <t>营口沿海银行股份有限公司</t>
+  </si>
+  <si>
+    <t>阜新银行结算中心</t>
+  </si>
+  <si>
+    <t>辽阳银行</t>
+  </si>
+  <si>
+    <t>盘锦银行股份有限公司</t>
+  </si>
+  <si>
+    <t>铁岭银行股份有限公司</t>
+  </si>
+  <si>
+    <t>朝阳银行</t>
+  </si>
+  <si>
+    <t>吉林银行</t>
+  </si>
+  <si>
+    <t>哈尔滨银行股份有限公司结算中心</t>
+  </si>
+  <si>
+    <t>龙江银行股份有限公司</t>
+  </si>
+  <si>
+    <t>上海银行</t>
+  </si>
+  <si>
+    <t>南京银行股份有限公司</t>
+  </si>
+  <si>
+    <t>江苏银行股份有限公司</t>
+  </si>
+  <si>
+    <t>苏州银行股份有限公司</t>
+  </si>
+  <si>
+    <t>江苏长江商业银行</t>
+  </si>
+  <si>
+    <t>杭州银行股份有限公司</t>
+  </si>
+  <si>
+    <t>宁波东海银行</t>
+  </si>
+  <si>
+    <t>宁波银行股份有限公司</t>
+  </si>
+  <si>
+    <t>宁波通商银行股份有限公司</t>
+  </si>
+  <si>
+    <t>温州银行股份有限公司营业部</t>
+  </si>
+  <si>
+    <t>嘉兴银行股份有限公司清算中心</t>
+  </si>
+  <si>
+    <t>湖州银行股份有限公司清算中心</t>
+  </si>
+  <si>
+    <t>绍兴银行股份有限公司营业部</t>
+  </si>
+  <si>
+    <t>金华银行股份有限公司</t>
+  </si>
+  <si>
+    <t>浙江稠州商业银行</t>
+  </si>
+  <si>
+    <t>台州银行股份有限公司</t>
+  </si>
+  <si>
+    <t>浙江泰隆商业银行清算中心</t>
+  </si>
+  <si>
+    <t>浙江民泰商业银行股份有限公司</t>
+  </si>
+  <si>
+    <t>福建海峡银行股份有限公司</t>
+  </si>
+  <si>
+    <t>厦门银行股份有限公司</t>
+  </si>
+  <si>
+    <t>泉州银行股份有限公司</t>
+  </si>
+  <si>
+    <t>江西银行股份有限公司</t>
+  </si>
+  <si>
+    <t>九江银行股份有限公司</t>
+  </si>
+  <si>
+    <t>赣州银行股份有限公司</t>
+  </si>
+  <si>
+    <t>上饶银行清算中心</t>
+  </si>
+  <si>
+    <t>齐鲁银行</t>
+  </si>
+  <si>
+    <t>青岛银行</t>
+  </si>
+  <si>
+    <t>齐商银行</t>
+  </si>
+  <si>
+    <t>枣庄银行股份有限公司</t>
+  </si>
+  <si>
+    <t>东营银行股份有限公司</t>
+  </si>
+  <si>
+    <t>烟台银行股份有限公司</t>
+  </si>
+  <si>
+    <t>潍坊银行</t>
+  </si>
+  <si>
+    <t>济宁银行股份有限公司</t>
+  </si>
+  <si>
+    <t>泰安银行股份有限公司</t>
+  </si>
+  <si>
+    <t>莱商银行</t>
+  </si>
+  <si>
+    <t>威海市商业银行</t>
+  </si>
+  <si>
+    <t>德州银行股份有限公司</t>
+  </si>
+  <si>
+    <t>临商银行股份有限公司</t>
+  </si>
+  <si>
+    <t>日照银行股份有限公司</t>
+  </si>
+  <si>
+    <t>郑州银行</t>
+  </si>
+  <si>
+    <t>中原银行股份有限公司</t>
+  </si>
+  <si>
+    <t>洛阳银行</t>
+  </si>
+  <si>
+    <t>平顶山银行股份有限公司</t>
+  </si>
+  <si>
+    <t>焦作中旅银行股份有限公司</t>
+  </si>
+  <si>
+    <t>汉口银行资金清算中心</t>
+  </si>
+  <si>
+    <t>湖北银行股份有限公司</t>
+  </si>
+  <si>
+    <t>华融湘江银行股份有限公司</t>
+  </si>
+  <si>
+    <t>长沙银行股份有限公司</t>
+  </si>
+  <si>
+    <t>广州银行股份有限公司清算中心</t>
+  </si>
+  <si>
+    <t>珠海华润银行股份有限公司清算中心</t>
+  </si>
+  <si>
+    <t>广东华兴银行股份有限公司</t>
+  </si>
+  <si>
+    <t>广东南粤银行股份有限公司</t>
+  </si>
+  <si>
+    <t>东莞银行股份有限公司</t>
+  </si>
+  <si>
+    <t>广西北部湾银行股份有限公司</t>
+  </si>
+  <si>
+    <t>柳州银行股份有限公司清算中心</t>
+  </si>
+  <si>
+    <t>桂林银行股份有限公司</t>
+  </si>
+  <si>
+    <t>海南银行股份有限公司</t>
+  </si>
+  <si>
+    <t>成都银行</t>
+  </si>
+  <si>
+    <t>重庆银行</t>
+  </si>
+  <si>
+    <t>自贡银行股份有限公司</t>
+  </si>
+  <si>
+    <t>攀枝花市商业银行</t>
+  </si>
+  <si>
+    <t>泸州市商业银行</t>
+  </si>
+  <si>
+    <t>长城华西银行股份有限公司</t>
+  </si>
+  <si>
+    <t>绵阳市商业银行</t>
+  </si>
+  <si>
+    <t>遂宁银行</t>
+  </si>
+  <si>
+    <t>乐山市商业银行</t>
+  </si>
+  <si>
+    <t>宜宾市商业银行</t>
+  </si>
+  <si>
+    <t>四川天府银行股份有限公司</t>
+  </si>
+  <si>
+    <t>达州银行股份有限公司</t>
+  </si>
+  <si>
+    <t>雅安市商业银行股份有限公司</t>
+  </si>
+  <si>
+    <t>凉山州商业银行</t>
+  </si>
+  <si>
+    <t>贵阳银行股份有限公司</t>
+  </si>
+  <si>
+    <t>贵州银行股份有限公司</t>
+  </si>
+  <si>
+    <t>富滇银行股份有限公司运营管理部</t>
+  </si>
+  <si>
+    <t>曲靖市商业银行</t>
+  </si>
+  <si>
+    <t>云南红塔银行股份有限公司</t>
+  </si>
+  <si>
+    <t>西藏银行股份有限公司</t>
+  </si>
+  <si>
+    <t>西安银行股份有限公司</t>
+  </si>
+  <si>
+    <t>长安银行股份有限公司</t>
+  </si>
+  <si>
+    <t>兰州银行股份有限公司</t>
+  </si>
+  <si>
+    <t>甘肃银行股份有限公司</t>
+  </si>
+  <si>
+    <t>青海银行股份有限公司</t>
+  </si>
+  <si>
+    <t>宁夏银行总行清算中心</t>
+  </si>
+  <si>
+    <t>石嘴山银行股份有限公司</t>
+  </si>
+  <si>
+    <t>乌鲁木齐银行清算中心</t>
+  </si>
+  <si>
+    <t>昆仑银行股份有限公司</t>
+  </si>
+  <si>
+    <t>哈密市商业银行股份有限公司</t>
+  </si>
+  <si>
+    <t>库尔勒银行股份有限公司</t>
+  </si>
+  <si>
+    <t>新疆汇和银行股份有限公司（清算行）</t>
+  </si>
+  <si>
+    <t>天津滨海农村商业银行股份有限公司</t>
+  </si>
+  <si>
+    <t>大连农村商业银行</t>
+  </si>
+  <si>
+    <t>无锡农村商业银行股份有限公司（不对外）</t>
+  </si>
+  <si>
+    <t>江苏江阴农村商业银行股份有限公司</t>
+  </si>
+  <si>
+    <t>江苏江南农村商业银行股份有限公司(不对外)</t>
+  </si>
+  <si>
+    <t>太仓农村商业银行</t>
+  </si>
+  <si>
+    <t>昆山农村商业银行</t>
+  </si>
+  <si>
+    <t>吴江农村商业银行清算中心</t>
+  </si>
+  <si>
+    <t>江苏常熟农村商业银行股份有限公司清算中心</t>
+  </si>
+  <si>
+    <t>张家港农村商业银行</t>
+  </si>
+  <si>
+    <t>广州农村商业银行股份有限公司</t>
+  </si>
+  <si>
+    <t>广东顺德农村商业银行股份有限公司</t>
+  </si>
+  <si>
+    <t>海口联合农村商业银行股份有限公司</t>
+  </si>
+  <si>
+    <t>成都农商银行</t>
+  </si>
+  <si>
+    <t>重庆农村商业银行股份有限公司(不对外办理业务)</t>
+  </si>
+  <si>
+    <t>恒丰银行</t>
+  </si>
+  <si>
+    <t>浙商银行</t>
+  </si>
+  <si>
+    <t>天津农村商业银行股份有限公司</t>
+  </si>
+  <si>
+    <t>渤海银行股份有限公司</t>
+  </si>
+  <si>
+    <t>徽商银行股份有限公司</t>
+  </si>
+  <si>
+    <t>重庆三峡银行股份有限公司</t>
+  </si>
+  <si>
+    <t>上海农商银行</t>
+  </si>
+  <si>
+    <t>天津金城银行股份有限公司</t>
+  </si>
+  <si>
+    <t>上海华瑞银行</t>
+  </si>
+  <si>
+    <t>浙江网商银行股份有限公司</t>
+  </si>
+  <si>
+    <t>温州民商银行股份有限公司</t>
+  </si>
+  <si>
+    <t>深圳前海微众银行股份有限公司</t>
+  </si>
+  <si>
+    <t>四川新网银行股份有限公司</t>
+  </si>
+  <si>
+    <t>重庆富民银行股份有限公司</t>
+  </si>
+  <si>
+    <t>上海银行股份有限公司</t>
+  </si>
+  <si>
+    <t>哈密市城市信用社股份有限公司业务处理中心</t>
+  </si>
+  <si>
+    <t>北京农村商业银行股份有限公司</t>
+  </si>
+  <si>
+    <t>河北省农村信用社联合社(不办理转汇）</t>
+  </si>
+  <si>
+    <t>山西省农村信用社联合社(不对外办理业务)</t>
+  </si>
+  <si>
+    <t>内蒙古自治区农村信用社联合社</t>
+  </si>
+  <si>
+    <t>辽宁省农村信用社联合社运营管理部</t>
+  </si>
+  <si>
+    <t>吉林省农村信用社联合社（不办理转汇业务）</t>
+  </si>
+  <si>
+    <t>黑龙江省农村信用社清算中心(不对外办理业务)</t>
+  </si>
+  <si>
+    <t>江苏省农村信用社联合社(不对外)</t>
+  </si>
+  <si>
+    <t>浙江省农村信用社联合社</t>
+  </si>
+  <si>
+    <t>宁波鄞州农村商业银行股份有限公司(鄞州银行)</t>
+  </si>
+  <si>
+    <t>安徽省农村信用社联合社资金清算中心（不转汇）</t>
+  </si>
+  <si>
+    <t>福建省农村信用社联合社（不办转汇业务）</t>
+  </si>
+  <si>
+    <t>江西省农村信用社联合社</t>
+  </si>
+  <si>
+    <t>山东省农村信用社联合社</t>
+  </si>
+  <si>
+    <t>河南省农村信用社联合社资金清算中心(不转汇)</t>
+  </si>
+  <si>
+    <t>湖北省农村信用社联合社结算中心(不对外办理业务）</t>
+  </si>
+  <si>
+    <t>武汉农村商业银行股份有限公司</t>
+  </si>
+  <si>
+    <t>湖南省农村信用社联合社</t>
+  </si>
+  <si>
+    <t>广东省农村信用社联合社</t>
+  </si>
+  <si>
+    <t>深圳农村商业银行股份有限公司</t>
+  </si>
+  <si>
+    <t>东莞农村商业银行股份有限公司</t>
+  </si>
+  <si>
+    <t>广西壮族自治区农村信用社联合社</t>
+  </si>
+  <si>
+    <t>海南省农村信用社联合社资金清算中心</t>
+  </si>
+  <si>
+    <t>四川省农村信用社联合社</t>
+  </si>
+  <si>
+    <t>贵州省农村信用社联合社</t>
+  </si>
+  <si>
+    <t>云南省农村信用社联合社</t>
+  </si>
+  <si>
+    <t>陕西省农村信用社联合社资金清算中心</t>
+  </si>
+  <si>
+    <t>甘肃省农村合作金融结算服务中心</t>
+  </si>
+  <si>
+    <t>青海省农村信用社资金清算中心</t>
+  </si>
+  <si>
+    <t>宁夏黄河农村商业银行股份有限公司</t>
+  </si>
+  <si>
+    <t>新疆维吾尔自治区农村信用社联合社</t>
+  </si>
+  <si>
+    <t>中国邮政储蓄银行总行</t>
+  </si>
+  <si>
+    <t>汇丰银行(中国)有限公司上海分行</t>
+  </si>
+  <si>
+    <t>东亚银行（中国）有限公司</t>
+  </si>
+  <si>
+    <t>南洋商业银行（中国）有限公司</t>
+  </si>
+  <si>
+    <t>恒生银行(中国)有限公司上海分行</t>
+  </si>
+  <si>
+    <t>集友银行有限公司福州分行</t>
+  </si>
+  <si>
+    <t>创兴银行有限公司汕头分行</t>
   </si>
 </sst>
 </file>
@@ -282,7 +927,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -309,6 +954,9 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -599,7 +1247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -770,16 +1418,16 @@
         <v>35</v>
       </c>
       <c r="U2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="Y2" s="4" t="s">
         <v>36</v>
@@ -847,20 +1495,1511 @@
         <v>35</v>
       </c>
       <c r="U3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="Y3" s="4" t="s">
         <v>36</v>
       </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="W10" s="2"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="W11" s="2"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="W12" s="2"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="W13" s="2"/>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="W14" s="2"/>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="W15" s="2"/>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="W16" s="2"/>
+    </row>
+    <row r="17" spans="23:23">
+      <c r="W17" s="2"/>
+    </row>
+    <row r="18" spans="23:23">
+      <c r="W18" s="2"/>
+    </row>
+    <row r="19" spans="23:23">
+      <c r="W19" s="2"/>
+    </row>
+    <row r="20" spans="23:23">
+      <c r="W20" s="2"/>
+    </row>
+    <row r="21" spans="23:23">
+      <c r="W21" s="2"/>
+    </row>
+    <row r="22" spans="23:23">
+      <c r="W22" s="2"/>
+    </row>
+    <row r="23" spans="23:23">
+      <c r="W23" s="2"/>
+    </row>
+    <row r="24" spans="23:23">
+      <c r="W24" s="2"/>
+    </row>
+    <row r="25" spans="23:23">
+      <c r="W25" s="2"/>
+    </row>
+    <row r="26" spans="23:23">
+      <c r="W26" s="2"/>
+    </row>
+    <row r="27" spans="23:23">
+      <c r="W27" s="2"/>
+    </row>
+    <row r="28" spans="23:23">
+      <c r="W28" s="2"/>
+    </row>
+    <row r="29" spans="23:23">
+      <c r="W29" s="2"/>
+    </row>
+    <row r="30" spans="23:23">
+      <c r="W30" s="2"/>
+    </row>
+    <row r="31" spans="23:23">
+      <c r="W31" s="2"/>
+    </row>
+    <row r="32" spans="23:23">
+      <c r="W32" s="2"/>
+    </row>
+    <row r="33" spans="23:23">
+      <c r="W33" s="2"/>
+    </row>
+    <row r="34" spans="23:23">
+      <c r="W34" s="2"/>
+    </row>
+    <row r="35" spans="23:23">
+      <c r="W35" s="2"/>
+    </row>
+    <row r="36" spans="23:23">
+      <c r="W36" s="2"/>
+    </row>
+    <row r="37" spans="23:23">
+      <c r="W37" s="2"/>
+    </row>
+    <row r="38" spans="23:23">
+      <c r="W38" s="2"/>
+    </row>
+    <row r="39" spans="23:23">
+      <c r="W39" s="2"/>
+    </row>
+    <row r="40" spans="23:23">
+      <c r="W40" s="2"/>
+    </row>
+    <row r="41" spans="23:23">
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="23:23">
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="23:23">
+      <c r="W43" s="2"/>
+    </row>
+    <row r="44" spans="23:23">
+      <c r="W44" s="2"/>
+    </row>
+    <row r="45" spans="23:23">
+      <c r="W45" s="2"/>
+    </row>
+    <row r="46" spans="23:23">
+      <c r="W46" s="2"/>
+    </row>
+    <row r="47" spans="23:23">
+      <c r="W47" s="2"/>
+    </row>
+    <row r="48" spans="23:23">
+      <c r="W48" s="2"/>
+    </row>
+    <row r="49" spans="23:23">
+      <c r="W49" s="2"/>
+    </row>
+    <row r="50" spans="23:23">
+      <c r="W50" s="2"/>
+    </row>
+    <row r="51" spans="23:23">
+      <c r="W51" s="2"/>
+    </row>
+    <row r="52" spans="23:23">
+      <c r="W52" s="2"/>
+    </row>
+    <row r="53" spans="23:23">
+      <c r="W53" s="2"/>
+    </row>
+    <row r="54" spans="23:23">
+      <c r="W54" s="2"/>
+    </row>
+    <row r="55" spans="23:23">
+      <c r="W55" s="2"/>
+    </row>
+    <row r="56" spans="23:23">
+      <c r="W56" s="2"/>
+    </row>
+    <row r="57" spans="23:23">
+      <c r="W57" s="2"/>
+    </row>
+    <row r="58" spans="23:23">
+      <c r="W58" s="2"/>
+    </row>
+    <row r="59" spans="23:23">
+      <c r="W59" s="2"/>
+    </row>
+    <row r="60" spans="23:23">
+      <c r="W60" s="2"/>
+    </row>
+    <row r="61" spans="23:23">
+      <c r="W61" s="2"/>
+    </row>
+    <row r="62" spans="23:23">
+      <c r="W62" s="2"/>
+    </row>
+    <row r="63" spans="23:23">
+      <c r="W63" s="2"/>
+    </row>
+    <row r="64" spans="23:23">
+      <c r="W64" s="2"/>
+    </row>
+    <row r="65" spans="23:23">
+      <c r="W65" s="2"/>
+    </row>
+    <row r="66" spans="23:23">
+      <c r="W66" s="2"/>
+    </row>
+    <row r="67" spans="23:23">
+      <c r="W67" s="2"/>
+    </row>
+    <row r="68" spans="23:23">
+      <c r="W68" s="2"/>
+    </row>
+    <row r="69" spans="23:23">
+      <c r="W69" s="2"/>
+    </row>
+    <row r="70" spans="23:23">
+      <c r="W70" s="2"/>
+    </row>
+    <row r="71" spans="23:23">
+      <c r="W71" s="2"/>
+    </row>
+    <row r="72" spans="23:23">
+      <c r="W72" s="2"/>
+    </row>
+    <row r="73" spans="23:23">
+      <c r="W73" s="2"/>
+    </row>
+    <row r="74" spans="23:23">
+      <c r="W74" s="2"/>
+    </row>
+    <row r="75" spans="23:23">
+      <c r="W75" s="2"/>
+    </row>
+    <row r="76" spans="23:23">
+      <c r="W76" s="2"/>
+    </row>
+    <row r="77" spans="23:23">
+      <c r="W77" s="2"/>
+    </row>
+    <row r="78" spans="23:23">
+      <c r="W78" s="2"/>
+    </row>
+    <row r="79" spans="23:23">
+      <c r="W79" s="2"/>
+    </row>
+    <row r="80" spans="23:23">
+      <c r="W80" s="2"/>
+    </row>
+    <row r="81" spans="23:23">
+      <c r="W81" s="2"/>
+    </row>
+    <row r="82" spans="23:23">
+      <c r="W82" s="2"/>
+    </row>
+    <row r="83" spans="23:23">
+      <c r="W83" s="2"/>
+    </row>
+    <row r="84" spans="23:23">
+      <c r="W84" s="2"/>
+    </row>
+    <row r="85" spans="23:23">
+      <c r="W85" s="2"/>
+    </row>
+    <row r="86" spans="23:23">
+      <c r="W86" s="2"/>
+    </row>
+    <row r="87" spans="23:23">
+      <c r="W87" s="2"/>
+    </row>
+    <row r="88" spans="23:23">
+      <c r="W88" s="2"/>
+    </row>
+    <row r="89" spans="23:23">
+      <c r="W89" s="2"/>
+    </row>
+    <row r="90" spans="23:23">
+      <c r="W90" s="2"/>
+    </row>
+    <row r="91" spans="23:23">
+      <c r="W91" s="2"/>
+    </row>
+    <row r="92" spans="23:23">
+      <c r="W92" s="2"/>
+    </row>
+    <row r="93" spans="23:23">
+      <c r="W93" s="2"/>
+    </row>
+    <row r="94" spans="23:23">
+      <c r="W94" s="2"/>
+    </row>
+    <row r="95" spans="23:23">
+      <c r="W95" s="2"/>
+    </row>
+    <row r="96" spans="23:23">
+      <c r="W96" s="2"/>
+    </row>
+    <row r="97" spans="23:23">
+      <c r="W97" s="2"/>
+    </row>
+    <row r="98" spans="23:23">
+      <c r="W98" s="2"/>
+    </row>
+    <row r="99" spans="23:23">
+      <c r="W99" s="2"/>
+    </row>
+    <row r="100" spans="23:23">
+      <c r="W100" s="2"/>
+    </row>
+    <row r="101" spans="23:23">
+      <c r="W101" s="2"/>
+    </row>
+    <row r="102" spans="23:23">
+      <c r="W102" s="2"/>
+    </row>
+    <row r="103" spans="23:23">
+      <c r="W103" s="2"/>
+    </row>
+    <row r="104" spans="23:23">
+      <c r="W104" s="2"/>
+    </row>
+    <row r="105" spans="23:23">
+      <c r="W105" s="2"/>
+    </row>
+    <row r="106" spans="23:23">
+      <c r="W106" s="2"/>
+    </row>
+    <row r="107" spans="23:23">
+      <c r="W107" s="2"/>
+    </row>
+    <row r="108" spans="23:23">
+      <c r="W108" s="2"/>
+    </row>
+    <row r="109" spans="23:23">
+      <c r="W109" s="2"/>
+    </row>
+    <row r="110" spans="23:23">
+      <c r="W110" s="2"/>
+    </row>
+    <row r="111" spans="23:23">
+      <c r="W111" s="2"/>
+    </row>
+    <row r="112" spans="23:23">
+      <c r="W112" s="2"/>
+    </row>
+    <row r="113" spans="23:23">
+      <c r="W113" s="2"/>
+    </row>
+    <row r="114" spans="23:23">
+      <c r="W114" s="2"/>
+    </row>
+    <row r="115" spans="23:23">
+      <c r="W115" s="2"/>
+    </row>
+    <row r="116" spans="23:23">
+      <c r="W116" s="2"/>
+    </row>
+    <row r="117" spans="23:23">
+      <c r="W117" s="2"/>
+    </row>
+    <row r="118" spans="23:23">
+      <c r="W118" s="2"/>
+    </row>
+    <row r="119" spans="23:23">
+      <c r="W119" s="2"/>
+    </row>
+    <row r="120" spans="23:23">
+      <c r="W120" s="2"/>
+    </row>
+    <row r="121" spans="23:23">
+      <c r="W121" s="2"/>
+    </row>
+    <row r="122" spans="23:23">
+      <c r="W122" s="2"/>
+    </row>
+    <row r="123" spans="23:23">
+      <c r="W123" s="2"/>
+    </row>
+    <row r="124" spans="23:23">
+      <c r="W124" s="2"/>
+    </row>
+    <row r="125" spans="23:23">
+      <c r="W125" s="2"/>
+    </row>
+    <row r="126" spans="23:23">
+      <c r="W126" s="2"/>
+    </row>
+    <row r="127" spans="23:23">
+      <c r="W127" s="2"/>
+    </row>
+    <row r="128" spans="23:23">
+      <c r="W128" s="2"/>
+    </row>
+    <row r="129" spans="23:23">
+      <c r="W129" s="2"/>
+    </row>
+    <row r="130" spans="23:23">
+      <c r="W130" s="2"/>
+    </row>
+    <row r="131" spans="23:23">
+      <c r="W131" s="2"/>
+    </row>
+    <row r="132" spans="23:23">
+      <c r="W132" s="2"/>
+    </row>
+    <row r="133" spans="23:23">
+      <c r="W133" s="2"/>
+    </row>
+    <row r="134" spans="23:23">
+      <c r="W134" s="2"/>
+    </row>
+    <row r="135" spans="23:23">
+      <c r="W135" s="2"/>
+    </row>
+    <row r="136" spans="23:23">
+      <c r="W136" s="2"/>
+    </row>
+    <row r="137" spans="23:23">
+      <c r="W137" s="2"/>
+    </row>
+    <row r="138" spans="23:23">
+      <c r="W138" s="2"/>
+    </row>
+    <row r="139" spans="23:23">
+      <c r="W139" s="2"/>
+    </row>
+    <row r="140" spans="23:23">
+      <c r="W140" s="2"/>
+    </row>
+    <row r="141" spans="23:23">
+      <c r="W141" s="2"/>
+    </row>
+    <row r="142" spans="23:23">
+      <c r="W142" s="2"/>
+    </row>
+    <row r="143" spans="23:23">
+      <c r="W143" s="2"/>
+    </row>
+    <row r="144" spans="23:23">
+      <c r="W144" s="2"/>
+    </row>
+    <row r="145" spans="23:23">
+      <c r="W145" s="2"/>
+    </row>
+    <row r="146" spans="23:23">
+      <c r="W146" s="2"/>
+    </row>
+    <row r="147" spans="23:23">
+      <c r="W147" s="2"/>
+    </row>
+    <row r="148" spans="23:23">
+      <c r="W148" s="2"/>
+    </row>
+    <row r="149" spans="23:23">
+      <c r="W149" s="2"/>
+    </row>
+    <row r="150" spans="23:23">
+      <c r="W150" s="2"/>
+    </row>
+    <row r="151" spans="23:23">
+      <c r="W151" s="2"/>
+    </row>
+    <row r="152" spans="23:23">
+      <c r="W152" s="2"/>
+    </row>
+    <row r="153" spans="23:23">
+      <c r="W153" s="2"/>
+    </row>
+    <row r="154" spans="23:23">
+      <c r="W154" s="2"/>
+    </row>
+    <row r="155" spans="23:23">
+      <c r="W155" s="2"/>
+    </row>
+    <row r="156" spans="23:23">
+      <c r="W156" s="2"/>
+    </row>
+    <row r="157" spans="23:23">
+      <c r="W157" s="2"/>
+    </row>
+    <row r="158" spans="23:23">
+      <c r="W158" s="2"/>
+    </row>
+    <row r="159" spans="23:23">
+      <c r="W159" s="2"/>
+    </row>
+    <row r="160" spans="23:23">
+      <c r="W160" s="2"/>
+    </row>
+    <row r="161" spans="23:23">
+      <c r="W161" s="2"/>
+    </row>
+    <row r="162" spans="23:23">
+      <c r="W162" s="2"/>
+    </row>
+    <row r="163" spans="23:23">
+      <c r="W163" s="2"/>
+    </row>
+    <row r="164" spans="23:23">
+      <c r="W164" s="2"/>
+    </row>
+    <row r="165" spans="23:23">
+      <c r="W165" s="2"/>
+    </row>
+    <row r="166" spans="23:23">
+      <c r="W166" s="2"/>
+    </row>
+    <row r="167" spans="23:23">
+      <c r="W167" s="2"/>
+    </row>
+    <row r="168" spans="23:23">
+      <c r="W168" s="2"/>
+    </row>
+    <row r="169" spans="23:23">
+      <c r="W169" s="2"/>
+    </row>
+    <row r="170" spans="23:23">
+      <c r="W170" s="2"/>
+    </row>
+    <row r="171" spans="23:23">
+      <c r="W171" s="2"/>
+    </row>
+    <row r="172" spans="23:23">
+      <c r="W172" s="2"/>
+    </row>
+    <row r="173" spans="23:23">
+      <c r="W173" s="2"/>
+    </row>
+    <row r="174" spans="23:23">
+      <c r="W174" s="2"/>
+    </row>
+    <row r="175" spans="23:23">
+      <c r="W175" s="2"/>
+    </row>
+    <row r="176" spans="23:23">
+      <c r="W176" s="2"/>
+    </row>
+    <row r="177" spans="23:23">
+      <c r="W177" s="2"/>
+    </row>
+    <row r="178" spans="23:23">
+      <c r="W178" s="2"/>
+    </row>
+    <row r="179" spans="23:23">
+      <c r="W179" s="2"/>
+    </row>
+    <row r="180" spans="23:23">
+      <c r="W180" s="2"/>
+    </row>
+    <row r="181" spans="23:23">
+      <c r="W181" s="2"/>
+    </row>
+    <row r="182" spans="23:23">
+      <c r="W182" s="2"/>
+    </row>
+    <row r="183" spans="23:23">
+      <c r="W183" s="2"/>
+    </row>
+    <row r="184" spans="23:23">
+      <c r="W184" s="2"/>
+    </row>
+    <row r="185" spans="23:23">
+      <c r="W185" s="2"/>
+    </row>
+    <row r="186" spans="23:23">
+      <c r="W186" s="2"/>
+    </row>
+    <row r="187" spans="23:23">
+      <c r="W187" s="2"/>
+    </row>
+    <row r="188" spans="23:23">
+      <c r="W188" s="2"/>
+    </row>
+    <row r="189" spans="23:23">
+      <c r="W189" s="2"/>
+    </row>
+    <row r="190" spans="23:23">
+      <c r="W190" s="2"/>
+    </row>
+    <row r="191" spans="23:23">
+      <c r="W191" s="2"/>
+    </row>
+    <row r="192" spans="23:23">
+      <c r="W192" s="2"/>
+    </row>
+    <row r="193" spans="23:23">
+      <c r="W193" s="2"/>
+    </row>
+    <row r="194" spans="23:23">
+      <c r="W194" s="2"/>
+    </row>
+    <row r="195" spans="23:23">
+      <c r="W195" s="2"/>
+    </row>
+    <row r="196" spans="23:23">
+      <c r="W196" s="2"/>
+    </row>
+    <row r="197" spans="23:23">
+      <c r="W197" s="2"/>
+    </row>
+    <row r="198" spans="23:23">
+      <c r="W198" s="2"/>
+    </row>
+    <row r="199" spans="23:23">
+      <c r="W199" s="2"/>
+    </row>
+    <row r="200" spans="23:23">
+      <c r="W200" s="2"/>
+    </row>
+    <row r="201" spans="23:23">
+      <c r="W201" s="2"/>
+    </row>
+    <row r="202" spans="23:23">
+      <c r="W202" s="2"/>
+    </row>
+    <row r="203" spans="23:23">
+      <c r="W203" s="2"/>
+    </row>
+    <row r="204" spans="23:23">
+      <c r="W204" s="2"/>
+    </row>
+    <row r="205" spans="23:23">
+      <c r="W205" s="2"/>
+    </row>
+    <row r="206" spans="23:23">
+      <c r="W206" s="2"/>
+    </row>
+    <row r="207" spans="23:23">
+      <c r="W207" s="2"/>
+    </row>
+    <row r="208" spans="23:23">
+      <c r="W208" s="2"/>
+    </row>
+    <row r="209" spans="23:23">
+      <c r="W209" s="2"/>
+    </row>
+    <row r="210" spans="23:23">
+      <c r="W210" s="2"/>
+    </row>
+    <row r="211" spans="23:23">
+      <c r="W211" s="2"/>
+    </row>
+    <row r="212" spans="23:23">
+      <c r="W212" s="2"/>
+    </row>
+    <row r="213" spans="23:23">
+      <c r="W213" s="2"/>
+    </row>
+    <row r="214" spans="23:23">
+      <c r="W214" s="2"/>
+    </row>
+    <row r="215" spans="23:23">
+      <c r="W215" s="2"/>
+    </row>
+    <row r="216" spans="23:23">
+      <c r="W216" s="2"/>
+    </row>
+    <row r="217" spans="23:23">
+      <c r="W217" s="2"/>
+    </row>
+    <row r="218" spans="23:23">
+      <c r="W218" s="2"/>
+    </row>
+    <row r="219" spans="23:23">
+      <c r="W219" s="2"/>
+    </row>
+    <row r="220" spans="23:23">
+      <c r="W220" s="2"/>
+    </row>
+    <row r="221" spans="23:23">
+      <c r="W221" s="2"/>
+    </row>
+    <row r="222" spans="23:23">
+      <c r="W222" s="2"/>
+    </row>
+    <row r="223" spans="23:23">
+      <c r="W223" s="2"/>
+    </row>
+    <row r="224" spans="23:23">
+      <c r="W224" s="2"/>
+    </row>
+    <row r="225" spans="23:23">
+      <c r="W225" s="2"/>
+    </row>
+    <row r="226" spans="23:23">
+      <c r="W226" s="2"/>
+    </row>
+    <row r="227" spans="23:23">
+      <c r="W227" s="2"/>
+    </row>
+    <row r="228" spans="23:23">
+      <c r="W228" s="2"/>
+    </row>
+    <row r="229" spans="23:23">
+      <c r="W229" s="2"/>
+    </row>
+    <row r="230" spans="23:23">
+      <c r="W230" s="2"/>
+    </row>
+    <row r="231" spans="23:23">
+      <c r="W231" s="2"/>
+    </row>
+    <row r="232" spans="23:23">
+      <c r="W232" s="2"/>
+    </row>
+    <row r="233" spans="23:23">
+      <c r="W233" s="2"/>
+    </row>
+    <row r="234" spans="23:23">
+      <c r="W234" s="2"/>
+    </row>
+    <row r="235" spans="23:23">
+      <c r="W235" s="2"/>
+    </row>
+    <row r="236" spans="23:23">
+      <c r="W236" s="2"/>
+    </row>
+    <row r="237" spans="23:23">
+      <c r="W237" s="2"/>
+    </row>
+    <row r="238" spans="23:23">
+      <c r="W238" s="2"/>
+    </row>
+    <row r="239" spans="23:23">
+      <c r="W239" s="2"/>
+    </row>
+    <row r="240" spans="23:23">
+      <c r="W240" s="2"/>
+    </row>
+    <row r="241" spans="23:23">
+      <c r="W241" s="2"/>
+    </row>
+    <row r="242" spans="23:23">
+      <c r="W242" s="2"/>
+    </row>
+    <row r="243" spans="23:23">
+      <c r="W243" s="2"/>
+    </row>
+    <row r="244" spans="23:23">
+      <c r="W244" s="2"/>
+    </row>
+    <row r="245" spans="23:23">
+      <c r="W245" s="2"/>
+    </row>
+    <row r="246" spans="23:23">
+      <c r="W246" s="2"/>
+    </row>
+    <row r="247" spans="23:23">
+      <c r="W247" s="2"/>
+    </row>
+    <row r="248" spans="23:23">
+      <c r="W248" s="2"/>
+    </row>
+    <row r="249" spans="23:23">
+      <c r="W249" s="2"/>
+    </row>
+    <row r="250" spans="23:23">
+      <c r="W250" s="2"/>
+    </row>
+    <row r="251" spans="23:23">
+      <c r="W251" s="2"/>
+    </row>
+    <row r="252" spans="23:23">
+      <c r="W252" s="2"/>
+    </row>
+    <row r="253" spans="23:23">
+      <c r="W253" s="2"/>
+    </row>
+    <row r="254" spans="23:23">
+      <c r="W254" s="2"/>
+    </row>
+    <row r="255" spans="23:23">
+      <c r="W255" s="2"/>
+    </row>
+    <row r="256" spans="23:23">
+      <c r="W256" s="2"/>
+    </row>
+    <row r="257" spans="23:23">
+      <c r="W257" s="2"/>
+    </row>
+    <row r="258" spans="23:23">
+      <c r="W258" s="2"/>
+    </row>
+    <row r="259" spans="23:23">
+      <c r="W259" s="2"/>
+    </row>
+    <row r="260" spans="23:23">
+      <c r="W260" s="2"/>
+    </row>
+    <row r="261" spans="23:23">
+      <c r="W261" s="2"/>
+    </row>
+    <row r="262" spans="23:23">
+      <c r="W262" s="2"/>
+    </row>
+    <row r="263" spans="23:23">
+      <c r="W263" s="2"/>
+    </row>
+    <row r="264" spans="23:23">
+      <c r="W264" s="2"/>
+    </row>
+    <row r="265" spans="23:23">
+      <c r="W265" s="2"/>
+    </row>
+    <row r="266" spans="23:23">
+      <c r="W266" s="2"/>
+    </row>
+    <row r="267" spans="23:23">
+      <c r="W267" s="2"/>
+    </row>
+    <row r="268" spans="23:23">
+      <c r="W268" s="2"/>
+    </row>
+    <row r="269" spans="23:23">
+      <c r="W269" s="2"/>
+    </row>
+    <row r="270" spans="23:23">
+      <c r="W270" s="2"/>
+    </row>
+    <row r="271" spans="23:23">
+      <c r="W271" s="2"/>
+    </row>
+    <row r="272" spans="23:23">
+      <c r="W272" s="2"/>
+    </row>
+    <row r="273" spans="23:23">
+      <c r="W273" s="2"/>
+    </row>
+    <row r="274" spans="23:23">
+      <c r="W274" s="2"/>
+    </row>
+    <row r="275" spans="23:23">
+      <c r="W275" s="2"/>
+    </row>
+    <row r="276" spans="23:23">
+      <c r="W276" s="2"/>
+    </row>
+    <row r="277" spans="23:23">
+      <c r="W277" s="2"/>
+    </row>
+    <row r="278" spans="23:23">
+      <c r="W278" s="2"/>
+    </row>
+    <row r="279" spans="23:23">
+      <c r="W279" s="2"/>
+    </row>
+    <row r="280" spans="23:23">
+      <c r="W280" s="2"/>
+    </row>
+    <row r="281" spans="23:23">
+      <c r="W281" s="2"/>
+    </row>
+    <row r="282" spans="23:23">
+      <c r="W282" s="2"/>
+    </row>
+    <row r="283" spans="23:23">
+      <c r="W283" s="2"/>
+    </row>
+    <row r="284" spans="23:23">
+      <c r="W284" s="2"/>
+    </row>
+    <row r="285" spans="23:23">
+      <c r="W285" s="2"/>
+    </row>
+    <row r="286" spans="23:23">
+      <c r="W286" s="2"/>
+    </row>
+    <row r="287" spans="23:23">
+      <c r="W287" s="2"/>
+    </row>
+    <row r="288" spans="23:23">
+      <c r="W288" s="2"/>
+    </row>
+    <row r="289" spans="23:23">
+      <c r="W289" s="2"/>
+    </row>
+    <row r="290" spans="23:23">
+      <c r="W290" s="2"/>
+    </row>
+    <row r="291" spans="23:23">
+      <c r="W291" s="2"/>
+    </row>
+    <row r="292" spans="23:23">
+      <c r="W292" s="2"/>
+    </row>
+    <row r="293" spans="23:23">
+      <c r="W293" s="2"/>
+    </row>
+    <row r="294" spans="23:23">
+      <c r="W294" s="2"/>
+    </row>
+    <row r="295" spans="23:23">
+      <c r="W295" s="2"/>
+    </row>
+    <row r="296" spans="23:23">
+      <c r="W296" s="2"/>
+    </row>
+    <row r="297" spans="23:23">
+      <c r="W297" s="2"/>
+    </row>
+    <row r="298" spans="23:23">
+      <c r="W298" s="2"/>
+    </row>
+    <row r="299" spans="23:23">
+      <c r="W299" s="2"/>
+    </row>
+    <row r="300" spans="23:23">
+      <c r="W300" s="2"/>
+    </row>
+    <row r="301" spans="23:23">
+      <c r="W301" s="2"/>
+    </row>
+    <row r="302" spans="23:23">
+      <c r="W302" s="2"/>
+    </row>
+    <row r="303" spans="23:23">
+      <c r="W303" s="2"/>
+    </row>
+    <row r="304" spans="23:23">
+      <c r="W304" s="2"/>
+    </row>
+    <row r="305" spans="23:23">
+      <c r="W305" s="2"/>
+    </row>
+    <row r="306" spans="23:23">
+      <c r="W306" s="2"/>
+    </row>
+    <row r="307" spans="23:23">
+      <c r="W307" s="2"/>
+    </row>
+    <row r="308" spans="23:23">
+      <c r="W308" s="2"/>
+    </row>
+    <row r="309" spans="23:23">
+      <c r="W309" s="2"/>
+    </row>
+    <row r="310" spans="23:23">
+      <c r="W310" s="2"/>
+    </row>
+    <row r="311" spans="23:23">
+      <c r="W311" s="2"/>
+    </row>
+    <row r="312" spans="23:23">
+      <c r="W312" s="2"/>
+    </row>
+    <row r="313" spans="23:23">
+      <c r="W313" s="2"/>
+    </row>
+    <row r="314" spans="23:23">
+      <c r="W314" s="2"/>
+    </row>
+    <row r="315" spans="23:23">
+      <c r="W315" s="2"/>
+    </row>
+    <row r="316" spans="23:23">
+      <c r="W316" s="2"/>
+    </row>
+    <row r="317" spans="23:23">
+      <c r="W317" s="2"/>
+    </row>
+    <row r="318" spans="23:23">
+      <c r="W318" s="2"/>
+    </row>
+    <row r="319" spans="23:23">
+      <c r="W319" s="2"/>
+    </row>
+    <row r="320" spans="23:23">
+      <c r="W320" s="2"/>
+    </row>
+    <row r="321" spans="23:23">
+      <c r="W321" s="2"/>
+    </row>
+    <row r="322" spans="23:23">
+      <c r="W322" s="2"/>
+    </row>
+    <row r="323" spans="23:23">
+      <c r="W323" s="2"/>
+    </row>
+    <row r="324" spans="23:23">
+      <c r="W324" s="2"/>
+    </row>
+    <row r="325" spans="23:23">
+      <c r="W325" s="2"/>
+    </row>
+    <row r="326" spans="23:23">
+      <c r="W326" s="2"/>
+    </row>
+    <row r="327" spans="23:23">
+      <c r="W327" s="2"/>
+    </row>
+    <row r="328" spans="23:23">
+      <c r="W328" s="2"/>
+    </row>
+    <row r="329" spans="23:23">
+      <c r="W329" s="2"/>
+    </row>
+    <row r="330" spans="23:23">
+      <c r="W330" s="2"/>
+    </row>
+    <row r="331" spans="23:23">
+      <c r="W331" s="2"/>
+    </row>
+    <row r="332" spans="23:23">
+      <c r="W332" s="2"/>
+    </row>
+    <row r="333" spans="23:23">
+      <c r="W333" s="2"/>
+    </row>
+    <row r="334" spans="23:23">
+      <c r="W334" s="2"/>
+    </row>
+    <row r="335" spans="23:23">
+      <c r="W335" s="2"/>
+    </row>
+    <row r="336" spans="23:23">
+      <c r="W336" s="2"/>
+    </row>
+    <row r="337" spans="23:23">
+      <c r="W337" s="2"/>
+    </row>
+    <row r="338" spans="23:23">
+      <c r="W338" s="2"/>
+    </row>
+    <row r="339" spans="23:23">
+      <c r="W339" s="2"/>
+    </row>
+    <row r="340" spans="23:23">
+      <c r="W340" s="2"/>
+    </row>
+    <row r="341" spans="23:23">
+      <c r="W341" s="2"/>
+    </row>
+    <row r="342" spans="23:23">
+      <c r="W342" s="2"/>
+    </row>
+    <row r="343" spans="23:23">
+      <c r="W343" s="2"/>
+    </row>
+    <row r="344" spans="23:23">
+      <c r="W344" s="2"/>
+    </row>
+    <row r="345" spans="23:23">
+      <c r="W345" s="2"/>
+    </row>
+    <row r="346" spans="23:23">
+      <c r="W346" s="2"/>
+    </row>
+    <row r="347" spans="23:23">
+      <c r="W347" s="2"/>
+    </row>
+    <row r="348" spans="23:23">
+      <c r="W348" s="2"/>
+    </row>
+    <row r="349" spans="23:23">
+      <c r="W349" s="2"/>
+    </row>
+    <row r="350" spans="23:23">
+      <c r="W350" s="2"/>
+    </row>
+    <row r="351" spans="23:23">
+      <c r="W351" s="2"/>
+    </row>
+    <row r="352" spans="23:23">
+      <c r="W352" s="2"/>
+    </row>
+    <row r="353" spans="23:23">
+      <c r="W353" s="2"/>
+    </row>
+    <row r="354" spans="23:23">
+      <c r="W354" s="2"/>
+    </row>
+    <row r="355" spans="23:23">
+      <c r="W355" s="2"/>
+    </row>
+    <row r="356" spans="23:23">
+      <c r="W356" s="2"/>
+    </row>
+    <row r="357" spans="23:23">
+      <c r="W357" s="2"/>
+    </row>
+    <row r="358" spans="23:23">
+      <c r="W358" s="2"/>
+    </row>
+    <row r="359" spans="23:23">
+      <c r="W359" s="2"/>
+    </row>
+    <row r="360" spans="23:23">
+      <c r="W360" s="2"/>
+    </row>
+    <row r="361" spans="23:23">
+      <c r="W361" s="2"/>
+    </row>
+    <row r="362" spans="23:23">
+      <c r="W362" s="2"/>
+    </row>
+    <row r="363" spans="23:23">
+      <c r="W363" s="2"/>
+    </row>
+    <row r="364" spans="23:23">
+      <c r="W364" s="2"/>
+    </row>
+    <row r="365" spans="23:23">
+      <c r="W365" s="2"/>
+    </row>
+    <row r="366" spans="23:23">
+      <c r="W366" s="2"/>
+    </row>
+    <row r="367" spans="23:23">
+      <c r="W367" s="2"/>
+    </row>
+    <row r="368" spans="23:23">
+      <c r="W368" s="2"/>
+    </row>
+    <row r="369" spans="23:23">
+      <c r="W369" s="2"/>
+    </row>
+    <row r="370" spans="23:23">
+      <c r="W370" s="2"/>
+    </row>
+    <row r="371" spans="23:23">
+      <c r="W371" s="2"/>
+    </row>
+    <row r="372" spans="23:23">
+      <c r="W372" s="2"/>
+    </row>
+    <row r="373" spans="23:23">
+      <c r="W373" s="2"/>
+    </row>
+    <row r="374" spans="23:23">
+      <c r="W374" s="2"/>
+    </row>
+    <row r="375" spans="23:23">
+      <c r="W375" s="2"/>
+    </row>
+    <row r="376" spans="23:23">
+      <c r="W376" s="2"/>
+    </row>
+    <row r="377" spans="23:23">
+      <c r="W377" s="2"/>
+    </row>
+    <row r="378" spans="23:23">
+      <c r="W378" s="2"/>
+    </row>
+    <row r="379" spans="23:23">
+      <c r="W379" s="2"/>
+    </row>
+    <row r="380" spans="23:23">
+      <c r="W380" s="2"/>
+    </row>
+    <row r="381" spans="23:23">
+      <c r="W381" s="2"/>
+    </row>
+    <row r="382" spans="23:23">
+      <c r="W382" s="2"/>
+    </row>
+    <row r="383" spans="23:23">
+      <c r="W383" s="2"/>
+    </row>
+    <row r="384" spans="23:23">
+      <c r="W384" s="2"/>
+    </row>
+    <row r="385" spans="23:23">
+      <c r="W385" s="2"/>
+    </row>
+    <row r="386" spans="23:23">
+      <c r="W386" s="2"/>
+    </row>
+    <row r="387" spans="23:23">
+      <c r="W387" s="2"/>
+    </row>
+    <row r="388" spans="23:23">
+      <c r="W388" s="2"/>
+    </row>
+    <row r="389" spans="23:23">
+      <c r="W389" s="2"/>
+    </row>
+    <row r="390" spans="23:23">
+      <c r="W390" s="2"/>
+    </row>
+    <row r="391" spans="23:23">
+      <c r="W391" s="2"/>
+    </row>
+    <row r="392" spans="23:23">
+      <c r="W392" s="2"/>
+    </row>
+    <row r="393" spans="23:23">
+      <c r="W393" s="2"/>
+    </row>
+    <row r="394" spans="23:23">
+      <c r="W394" s="2"/>
+    </row>
+    <row r="395" spans="23:23">
+      <c r="W395" s="2"/>
+    </row>
+    <row r="396" spans="23:23">
+      <c r="W396" s="2"/>
+    </row>
+    <row r="397" spans="23:23">
+      <c r="W397" s="2"/>
+    </row>
+    <row r="398" spans="23:23">
+      <c r="W398" s="2"/>
+    </row>
+    <row r="399" spans="23:23">
+      <c r="W399" s="2"/>
+    </row>
+    <row r="400" spans="23:23">
+      <c r="W400" s="2"/>
+    </row>
+    <row r="401" spans="23:23">
+      <c r="W401" s="2"/>
+    </row>
+    <row r="402" spans="23:23">
+      <c r="W402" s="2"/>
+    </row>
+    <row r="403" spans="23:23">
+      <c r="W403" s="2"/>
+    </row>
+    <row r="404" spans="23:23">
+      <c r="W404" s="2"/>
+    </row>
+    <row r="405" spans="23:23">
+      <c r="W405" s="2"/>
+    </row>
+    <row r="406" spans="23:23">
+      <c r="W406" s="2"/>
+    </row>
+    <row r="407" spans="23:23">
+      <c r="W407" s="2"/>
+    </row>
+    <row r="408" spans="23:23">
+      <c r="W408" s="2"/>
+    </row>
+    <row r="409" spans="23:23">
+      <c r="W409" s="2"/>
+    </row>
+    <row r="410" spans="23:23">
+      <c r="W410" s="2"/>
+    </row>
+    <row r="411" spans="23:23">
+      <c r="W411" s="2"/>
+    </row>
+    <row r="412" spans="23:23">
+      <c r="W412" s="2"/>
+    </row>
+    <row r="413" spans="23:23">
+      <c r="W413" s="2"/>
+    </row>
+    <row r="414" spans="23:23">
+      <c r="W414" s="2"/>
+    </row>
+    <row r="415" spans="23:23">
+      <c r="W415" s="2"/>
+    </row>
+    <row r="416" spans="23:23">
+      <c r="W416" s="2"/>
+    </row>
+    <row r="417" spans="23:23">
+      <c r="W417" s="2"/>
+    </row>
+    <row r="418" spans="23:23">
+      <c r="W418" s="2"/>
+    </row>
+    <row r="419" spans="23:23">
+      <c r="W419" s="2"/>
+    </row>
+    <row r="420" spans="23:23">
+      <c r="W420" s="2"/>
+    </row>
+    <row r="421" spans="23:23">
+      <c r="W421" s="2"/>
+    </row>
+    <row r="422" spans="23:23">
+      <c r="W422" s="2"/>
+    </row>
+    <row r="423" spans="23:23">
+      <c r="W423" s="2"/>
+    </row>
+    <row r="424" spans="23:23">
+      <c r="W424" s="2"/>
+    </row>
+    <row r="425" spans="23:23">
+      <c r="W425" s="2"/>
+    </row>
+    <row r="426" spans="23:23">
+      <c r="W426" s="2"/>
+    </row>
+    <row r="427" spans="23:23">
+      <c r="W427" s="2"/>
+    </row>
+    <row r="428" spans="23:23">
+      <c r="W428" s="2"/>
+    </row>
+    <row r="429" spans="23:23">
+      <c r="W429" s="2"/>
+    </row>
+    <row r="430" spans="23:23">
+      <c r="W430" s="2"/>
+    </row>
+    <row r="431" spans="23:23">
+      <c r="W431" s="2"/>
+    </row>
+    <row r="432" spans="23:23">
+      <c r="W432" s="2"/>
+    </row>
+    <row r="433" spans="23:23">
+      <c r="W433" s="2"/>
+    </row>
+    <row r="434" spans="23:23">
+      <c r="W434" s="2"/>
+    </row>
+    <row r="435" spans="23:23">
+      <c r="W435" s="2"/>
+    </row>
+    <row r="436" spans="23:23">
+      <c r="W436" s="2"/>
+    </row>
+    <row r="437" spans="23:23">
+      <c r="W437" s="2"/>
+    </row>
+    <row r="438" spans="23:23">
+      <c r="W438" s="2"/>
+    </row>
+    <row r="439" spans="23:23">
+      <c r="W439" s="2"/>
+    </row>
+    <row r="440" spans="23:23">
+      <c r="W440" s="2"/>
+    </row>
+    <row r="441" spans="23:23">
+      <c r="W441" s="2"/>
+    </row>
+    <row r="442" spans="23:23">
+      <c r="W442" s="2"/>
+    </row>
+    <row r="443" spans="23:23">
+      <c r="W443" s="2"/>
+    </row>
+    <row r="444" spans="23:23">
+      <c r="W444" s="2"/>
+    </row>
+    <row r="445" spans="23:23">
+      <c r="W445" s="2"/>
+    </row>
+    <row r="446" spans="23:23">
+      <c r="W446" s="2"/>
+    </row>
+    <row r="447" spans="23:23">
+      <c r="W447" s="2"/>
+    </row>
+    <row r="448" spans="23:23">
+      <c r="W448" s="2"/>
+    </row>
+    <row r="449" spans="23:23">
+      <c r="W449" s="2"/>
+    </row>
+    <row r="450" spans="23:23">
+      <c r="W450" s="2"/>
+    </row>
+    <row r="451" spans="23:23">
+      <c r="W451" s="2"/>
+    </row>
+    <row r="452" spans="23:23">
+      <c r="W452" s="2"/>
+    </row>
+    <row r="453" spans="23:23">
+      <c r="W453" s="2"/>
+    </row>
+    <row r="454" spans="23:23">
+      <c r="W454" s="2"/>
+    </row>
+    <row r="455" spans="23:23">
+      <c r="W455" s="2"/>
+    </row>
+    <row r="456" spans="23:23">
+      <c r="W456" s="2"/>
+    </row>
+    <row r="457" spans="23:23">
+      <c r="W457" s="2"/>
+    </row>
+    <row r="458" spans="23:23">
+      <c r="W458" s="2"/>
+    </row>
+    <row r="459" spans="23:23">
+      <c r="W459" s="2"/>
+    </row>
+    <row r="460" spans="23:23">
+      <c r="W460" s="2"/>
+    </row>
+    <row r="461" spans="23:23">
+      <c r="W461" s="2"/>
+    </row>
+    <row r="462" spans="23:23">
+      <c r="W462" s="2"/>
+    </row>
+    <row r="463" spans="23:23">
+      <c r="W463" s="2"/>
+    </row>
+    <row r="464" spans="23:23">
+      <c r="W464" s="2"/>
+    </row>
+    <row r="465" spans="23:23">
+      <c r="W465" s="2"/>
+    </row>
+    <row r="466" spans="23:23">
+      <c r="W466" s="2"/>
+    </row>
+    <row r="467" spans="23:23">
+      <c r="W467" s="2"/>
+    </row>
+    <row r="468" spans="23:23">
+      <c r="W468" s="2"/>
+    </row>
+    <row r="469" spans="23:23">
+      <c r="W469" s="2"/>
+    </row>
+    <row r="470" spans="23:23">
+      <c r="W470" s="2"/>
+    </row>
+    <row r="471" spans="23:23">
+      <c r="W471" s="2"/>
+    </row>
+    <row r="472" spans="23:23">
+      <c r="W472" s="2"/>
+    </row>
+    <row r="473" spans="23:23">
+      <c r="W473" s="2"/>
+    </row>
+    <row r="474" spans="23:23">
+      <c r="W474" s="2"/>
+    </row>
+    <row r="475" spans="23:23">
+      <c r="W475" s="2"/>
+    </row>
+    <row r="476" spans="23:23">
+      <c r="W476" s="2"/>
+    </row>
+    <row r="477" spans="23:23">
+      <c r="W477" s="2"/>
+    </row>
+    <row r="478" spans="23:23">
+      <c r="W478" s="2"/>
+    </row>
+    <row r="479" spans="23:23">
+      <c r="W479" s="2"/>
+    </row>
+    <row r="480" spans="23:23">
+      <c r="W480" s="2"/>
+    </row>
+    <row r="481" spans="23:23">
+      <c r="W481" s="2"/>
+    </row>
+    <row r="482" spans="23:23">
+      <c r="W482" s="2"/>
+    </row>
+    <row r="483" spans="23:23">
+      <c r="W483" s="2"/>
+    </row>
+    <row r="484" spans="23:23">
+      <c r="W484" s="2"/>
+    </row>
+    <row r="485" spans="23:23">
+      <c r="W485" s="2"/>
+    </row>
+    <row r="486" spans="23:23">
+      <c r="W486" s="2"/>
+    </row>
+    <row r="487" spans="23:23">
+      <c r="W487" s="2"/>
+    </row>
+    <row r="488" spans="23:23">
+      <c r="W488" s="2"/>
+    </row>
+    <row r="489" spans="23:23">
+      <c r="W489" s="2"/>
+    </row>
+    <row r="490" spans="23:23">
+      <c r="W490" s="2"/>
+    </row>
+    <row r="491" spans="23:23">
+      <c r="W491" s="2"/>
+    </row>
+    <row r="492" spans="23:23">
+      <c r="W492" s="2"/>
+    </row>
+    <row r="493" spans="23:23">
+      <c r="W493" s="2"/>
+    </row>
+    <row r="494" spans="23:23">
+      <c r="W494" s="2"/>
+    </row>
+    <row r="495" spans="23:23">
+      <c r="W495" s="2"/>
+    </row>
+    <row r="496" spans="23:23">
+      <c r="W496" s="2"/>
+    </row>
+    <row r="497" spans="23:23">
+      <c r="W497" s="2"/>
+    </row>
+    <row r="498" spans="23:23">
+      <c r="W498" s="2"/>
+    </row>
+    <row r="499" spans="23:23">
+      <c r="W499" s="2"/>
+    </row>
+    <row r="500" spans="23:23">
+      <c r="W500" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -871,5 +3010,1116 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3A676D6D-D6A0-4827-852B-B038BB3C66C5}">
+          <x14:formula1>
+            <xm:f>bank!$B$1:$B$216</xm:f>
+          </x14:formula1>
+          <xm:sqref>W2:W500</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7ED3945-2314-46B8-8AB3-CDCCCFBAF14C}">
+  <dimension ref="B1:B216"/>
+  <sheetViews>
+    <sheetView topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="58.25" style="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" s="12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" s="12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/routers/upload/派单模板.xlsx
+++ b/routers/upload/派单模板.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EB5EFC-7EC1-4B33-AB40-6BBDAD694099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30B21E0-C7CC-4860-B87D-8FAB10EFDC52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="运单导入-标准版" sheetId="1" r:id="rId1"/>
-    <sheet name="bank" sheetId="2" r:id="rId2"/>
+    <sheet name="bank" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -1274,7 +1274,7 @@
     <col min="19" max="20" width="16" style="2" customWidth="1"/>
     <col min="21" max="21" width="11.25" style="4" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.75" style="4" customWidth="1"/>
-    <col min="23" max="23" width="14.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="35.875" style="4" customWidth="1"/>
     <col min="24" max="24" width="20.75" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="16384" width="9.125" style="4"/>
   </cols>
@@ -3029,9 +3029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7ED3945-2314-46B8-8AB3-CDCCCFBAF14C}">
   <dimension ref="B1:B216"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>

--- a/routers/upload/派单模板.xlsx
+++ b/routers/upload/派单模板.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30B21E0-C7CC-4860-B87D-8FAB10EFDC52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20325" windowHeight="11670" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="运单导入-标准版" sheetId="1" r:id="rId1"/>
@@ -77,12 +71,30 @@
     <t>司机身份证</t>
   </si>
   <si>
+    <t>发车日期</t>
+  </si>
+  <si>
+    <t>发车时间</t>
+  </si>
+  <si>
     <t>卸车日期</t>
   </si>
   <si>
     <t>卸车时间</t>
   </si>
   <si>
+    <t>收款人姓名</t>
+  </si>
+  <si>
+    <t>收款人联系电话</t>
+  </si>
+  <si>
+    <t>开户行</t>
+  </si>
+  <si>
+    <t>银行卡号</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -125,6 +137,12 @@
     <t>5000</t>
   </si>
   <si>
+    <t>鲁H233V挂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">何瑞晓	</t>
+  </si>
+  <si>
     <t>410881198804264015</t>
   </si>
   <si>
@@ -137,53 +155,21 @@
     <t>15:21</t>
   </si>
   <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>18516411000</t>
+  </si>
+  <si>
+    <t>中国民生银行</t>
+  </si>
+  <si>
+    <t>6000000000000</t>
+  </si>
+  <si>
     <t>导入测试</t>
   </si>
   <si>
-    <t>发车日期</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>发车时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">何瑞晓	</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲁H233V挂</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户行</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行卡号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款人姓名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款人联系电话</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>18516411000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6000000000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>中国工商银行(工行)</t>
   </si>
   <si>
@@ -215,9 +201,6 @@
   </si>
   <si>
     <t>华夏银行</t>
-  </si>
-  <si>
-    <t>中国民生银行</t>
   </si>
   <si>
     <t>广发银行(广东发展银行)</t>
@@ -835,8 +818,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -848,7 +837,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -856,26 +857,77 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -883,13 +935,83 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -898,24 +1020,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79985961485641044"/>
+        <fgColor theme="4" tint="0.79985961485641"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79979857783745845"/>
+        <fgColor theme="4" tint="0.799798577837458"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79982909634693444"/>
+        <fgColor theme="4" tint="0.799829096346934"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -923,12 +1231,257 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -937,47 +1490,85 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -1241,2883 +1832,2879 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.12592592592593" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="21.125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="16.25" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9.875" style="2" customWidth="1"/>
-    <col min="19" max="20" width="16" style="2" customWidth="1"/>
-    <col min="21" max="21" width="11.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.75" style="4" customWidth="1"/>
-    <col min="23" max="23" width="35.875" style="4" customWidth="1"/>
-    <col min="24" max="24" width="20.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.125" style="4"/>
+    <col min="1" max="1" width="16.8740740740741" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.6222222222222" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.5037037037037" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.3777777777778" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.5037037037037" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.6222222222222" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.62222222222222" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.8740740740741" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16.5037037037037" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.8740740740741" style="3" customWidth="1"/>
+    <col min="14" max="14" width="14.1259259259259" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9.37777777777778" style="3" customWidth="1"/>
+    <col min="16" max="16" width="21.1259259259259" style="3" customWidth="1"/>
+    <col min="17" max="17" width="16.2518518518519" style="3" customWidth="1"/>
+    <col min="18" max="18" width="9.87407407407407" style="3" customWidth="1"/>
+    <col min="19" max="20" width="16" style="3" customWidth="1"/>
+    <col min="21" max="21" width="11.2518518518519" style="5" customWidth="1"/>
+    <col min="22" max="22" width="15.7481481481481" style="5" customWidth="1"/>
+    <col min="23" max="23" width="35.8740740740741" style="5" customWidth="1"/>
+    <col min="24" max="24" width="20.7481481481481" style="5" customWidth="1"/>
+    <col min="25" max="16384" width="9.12592592592593" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75">
-      <c r="A1" s="10" t="s">
+    <row r="1" ht="15" spans="1:25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="N2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="6" t="s">
+      <c r="O2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="U2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="V2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="S3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" s="2" t="s">
+      <c r="T3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="X2" s="2" t="s">
+      <c r="X3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="W4" s="2"/>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="W5" s="2"/>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="W6" s="2"/>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="W7" s="2"/>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="W8" s="2"/>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="W9" s="2"/>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="W10" s="2"/>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="W11" s="2"/>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="W12" s="2"/>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="W13" s="2"/>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="W14" s="2"/>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="W15" s="2"/>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="W16" s="2"/>
+      <c r="Y3" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="23:23">
+      <c r="W4" s="3"/>
+    </row>
+    <row r="5" spans="23:23">
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="23:23">
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" spans="23:23">
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" spans="23:23">
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" spans="23:23">
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10" spans="23:23">
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" spans="23:23">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="23:23">
+      <c r="W12" s="3"/>
+    </row>
+    <row r="13" spans="23:23">
+      <c r="W13" s="3"/>
+    </row>
+    <row r="14" spans="23:23">
+      <c r="W14" s="3"/>
+    </row>
+    <row r="15" spans="23:23">
+      <c r="W15" s="3"/>
+    </row>
+    <row r="16" spans="23:23">
+      <c r="W16" s="3"/>
     </row>
     <row r="17" spans="23:23">
-      <c r="W17" s="2"/>
+      <c r="W17" s="3"/>
     </row>
     <row r="18" spans="23:23">
-      <c r="W18" s="2"/>
+      <c r="W18" s="3"/>
     </row>
     <row r="19" spans="23:23">
-      <c r="W19" s="2"/>
+      <c r="W19" s="3"/>
     </row>
     <row r="20" spans="23:23">
-      <c r="W20" s="2"/>
+      <c r="W20" s="3"/>
     </row>
     <row r="21" spans="23:23">
-      <c r="W21" s="2"/>
+      <c r="W21" s="3"/>
     </row>
     <row r="22" spans="23:23">
-      <c r="W22" s="2"/>
+      <c r="W22" s="3"/>
     </row>
     <row r="23" spans="23:23">
-      <c r="W23" s="2"/>
+      <c r="W23" s="3"/>
     </row>
     <row r="24" spans="23:23">
-      <c r="W24" s="2"/>
+      <c r="W24" s="3"/>
     </row>
     <row r="25" spans="23:23">
-      <c r="W25" s="2"/>
+      <c r="W25" s="3"/>
     </row>
     <row r="26" spans="23:23">
-      <c r="W26" s="2"/>
+      <c r="W26" s="3"/>
     </row>
     <row r="27" spans="23:23">
-      <c r="W27" s="2"/>
+      <c r="W27" s="3"/>
     </row>
     <row r="28" spans="23:23">
-      <c r="W28" s="2"/>
+      <c r="W28" s="3"/>
     </row>
     <row r="29" spans="23:23">
-      <c r="W29" s="2"/>
+      <c r="W29" s="3"/>
     </row>
     <row r="30" spans="23:23">
-      <c r="W30" s="2"/>
+      <c r="W30" s="3"/>
     </row>
     <row r="31" spans="23:23">
-      <c r="W31" s="2"/>
+      <c r="W31" s="3"/>
     </row>
     <row r="32" spans="23:23">
-      <c r="W32" s="2"/>
+      <c r="W32" s="3"/>
     </row>
     <row r="33" spans="23:23">
-      <c r="W33" s="2"/>
+      <c r="W33" s="3"/>
     </row>
     <row r="34" spans="23:23">
-      <c r="W34" s="2"/>
+      <c r="W34" s="3"/>
     </row>
     <row r="35" spans="23:23">
-      <c r="W35" s="2"/>
+      <c r="W35" s="3"/>
     </row>
     <row r="36" spans="23:23">
-      <c r="W36" s="2"/>
+      <c r="W36" s="3"/>
     </row>
     <row r="37" spans="23:23">
-      <c r="W37" s="2"/>
+      <c r="W37" s="3"/>
     </row>
     <row r="38" spans="23:23">
-      <c r="W38" s="2"/>
+      <c r="W38" s="3"/>
     </row>
     <row r="39" spans="23:23">
-      <c r="W39" s="2"/>
+      <c r="W39" s="3"/>
     </row>
     <row r="40" spans="23:23">
-      <c r="W40" s="2"/>
+      <c r="W40" s="3"/>
     </row>
     <row r="41" spans="23:23">
-      <c r="W41" s="2"/>
+      <c r="W41" s="3"/>
     </row>
     <row r="42" spans="23:23">
-      <c r="W42" s="2"/>
+      <c r="W42" s="3"/>
     </row>
     <row r="43" spans="23:23">
-      <c r="W43" s="2"/>
+      <c r="W43" s="3"/>
     </row>
     <row r="44" spans="23:23">
-      <c r="W44" s="2"/>
+      <c r="W44" s="3"/>
     </row>
     <row r="45" spans="23:23">
-      <c r="W45" s="2"/>
+      <c r="W45" s="3"/>
     </row>
     <row r="46" spans="23:23">
-      <c r="W46" s="2"/>
+      <c r="W46" s="3"/>
     </row>
     <row r="47" spans="23:23">
-      <c r="W47" s="2"/>
+      <c r="W47" s="3"/>
     </row>
     <row r="48" spans="23:23">
-      <c r="W48" s="2"/>
+      <c r="W48" s="3"/>
     </row>
     <row r="49" spans="23:23">
-      <c r="W49" s="2"/>
+      <c r="W49" s="3"/>
     </row>
     <row r="50" spans="23:23">
-      <c r="W50" s="2"/>
+      <c r="W50" s="3"/>
     </row>
     <row r="51" spans="23:23">
-      <c r="W51" s="2"/>
+      <c r="W51" s="3"/>
     </row>
     <row r="52" spans="23:23">
-      <c r="W52" s="2"/>
+      <c r="W52" s="3"/>
     </row>
     <row r="53" spans="23:23">
-      <c r="W53" s="2"/>
+      <c r="W53" s="3"/>
     </row>
     <row r="54" spans="23:23">
-      <c r="W54" s="2"/>
+      <c r="W54" s="3"/>
     </row>
     <row r="55" spans="23:23">
-      <c r="W55" s="2"/>
+      <c r="W55" s="3"/>
     </row>
     <row r="56" spans="23:23">
-      <c r="W56" s="2"/>
+      <c r="W56" s="3"/>
     </row>
     <row r="57" spans="23:23">
-      <c r="W57" s="2"/>
+      <c r="W57" s="3"/>
     </row>
     <row r="58" spans="23:23">
-      <c r="W58" s="2"/>
+      <c r="W58" s="3"/>
     </row>
     <row r="59" spans="23:23">
-      <c r="W59" s="2"/>
+      <c r="W59" s="3"/>
     </row>
     <row r="60" spans="23:23">
-      <c r="W60" s="2"/>
+      <c r="W60" s="3"/>
     </row>
     <row r="61" spans="23:23">
-      <c r="W61" s="2"/>
+      <c r="W61" s="3"/>
     </row>
     <row r="62" spans="23:23">
-      <c r="W62" s="2"/>
+      <c r="W62" s="3"/>
     </row>
     <row r="63" spans="23:23">
-      <c r="W63" s="2"/>
+      <c r="W63" s="3"/>
     </row>
     <row r="64" spans="23:23">
-      <c r="W64" s="2"/>
+      <c r="W64" s="3"/>
     </row>
     <row r="65" spans="23:23">
-      <c r="W65" s="2"/>
+      <c r="W65" s="3"/>
     </row>
     <row r="66" spans="23:23">
-      <c r="W66" s="2"/>
+      <c r="W66" s="3"/>
     </row>
     <row r="67" spans="23:23">
-      <c r="W67" s="2"/>
+      <c r="W67" s="3"/>
     </row>
     <row r="68" spans="23:23">
-      <c r="W68" s="2"/>
+      <c r="W68" s="3"/>
     </row>
     <row r="69" spans="23:23">
-      <c r="W69" s="2"/>
+      <c r="W69" s="3"/>
     </row>
     <row r="70" spans="23:23">
-      <c r="W70" s="2"/>
+      <c r="W70" s="3"/>
     </row>
     <row r="71" spans="23:23">
-      <c r="W71" s="2"/>
+      <c r="W71" s="3"/>
     </row>
     <row r="72" spans="23:23">
-      <c r="W72" s="2"/>
+      <c r="W72" s="3"/>
     </row>
     <row r="73" spans="23:23">
-      <c r="W73" s="2"/>
+      <c r="W73" s="3"/>
     </row>
     <row r="74" spans="23:23">
-      <c r="W74" s="2"/>
+      <c r="W74" s="3"/>
     </row>
     <row r="75" spans="23:23">
-      <c r="W75" s="2"/>
+      <c r="W75" s="3"/>
     </row>
     <row r="76" spans="23:23">
-      <c r="W76" s="2"/>
+      <c r="W76" s="3"/>
     </row>
     <row r="77" spans="23:23">
-      <c r="W77" s="2"/>
+      <c r="W77" s="3"/>
     </row>
     <row r="78" spans="23:23">
-      <c r="W78" s="2"/>
+      <c r="W78" s="3"/>
     </row>
     <row r="79" spans="23:23">
-      <c r="W79" s="2"/>
+      <c r="W79" s="3"/>
     </row>
     <row r="80" spans="23:23">
-      <c r="W80" s="2"/>
+      <c r="W80" s="3"/>
     </row>
     <row r="81" spans="23:23">
-      <c r="W81" s="2"/>
+      <c r="W81" s="3"/>
     </row>
     <row r="82" spans="23:23">
-      <c r="W82" s="2"/>
+      <c r="W82" s="3"/>
     </row>
     <row r="83" spans="23:23">
-      <c r="W83" s="2"/>
+      <c r="W83" s="3"/>
     </row>
     <row r="84" spans="23:23">
-      <c r="W84" s="2"/>
+      <c r="W84" s="3"/>
     </row>
     <row r="85" spans="23:23">
-      <c r="W85" s="2"/>
+      <c r="W85" s="3"/>
     </row>
     <row r="86" spans="23:23">
-      <c r="W86" s="2"/>
+      <c r="W86" s="3"/>
     </row>
     <row r="87" spans="23:23">
-      <c r="W87" s="2"/>
+      <c r="W87" s="3"/>
     </row>
     <row r="88" spans="23:23">
-      <c r="W88" s="2"/>
+      <c r="W88" s="3"/>
     </row>
     <row r="89" spans="23:23">
-      <c r="W89" s="2"/>
+      <c r="W89" s="3"/>
     </row>
     <row r="90" spans="23:23">
-      <c r="W90" s="2"/>
+      <c r="W90" s="3"/>
     </row>
     <row r="91" spans="23:23">
-      <c r="W91" s="2"/>
+      <c r="W91" s="3"/>
     </row>
     <row r="92" spans="23:23">
-      <c r="W92" s="2"/>
+      <c r="W92" s="3"/>
     </row>
     <row r="93" spans="23:23">
-      <c r="W93" s="2"/>
+      <c r="W93" s="3"/>
     </row>
     <row r="94" spans="23:23">
-      <c r="W94" s="2"/>
+      <c r="W94" s="3"/>
     </row>
     <row r="95" spans="23:23">
-      <c r="W95" s="2"/>
+      <c r="W95" s="3"/>
     </row>
     <row r="96" spans="23:23">
-      <c r="W96" s="2"/>
+      <c r="W96" s="3"/>
     </row>
     <row r="97" spans="23:23">
-      <c r="W97" s="2"/>
+      <c r="W97" s="3"/>
     </row>
     <row r="98" spans="23:23">
-      <c r="W98" s="2"/>
+      <c r="W98" s="3"/>
     </row>
     <row r="99" spans="23:23">
-      <c r="W99" s="2"/>
+      <c r="W99" s="3"/>
     </row>
     <row r="100" spans="23:23">
-      <c r="W100" s="2"/>
+      <c r="W100" s="3"/>
     </row>
     <row r="101" spans="23:23">
-      <c r="W101" s="2"/>
+      <c r="W101" s="3"/>
     </row>
     <row r="102" spans="23:23">
-      <c r="W102" s="2"/>
+      <c r="W102" s="3"/>
     </row>
     <row r="103" spans="23:23">
-      <c r="W103" s="2"/>
+      <c r="W103" s="3"/>
     </row>
     <row r="104" spans="23:23">
-      <c r="W104" s="2"/>
+      <c r="W104" s="3"/>
     </row>
     <row r="105" spans="23:23">
-      <c r="W105" s="2"/>
+      <c r="W105" s="3"/>
     </row>
     <row r="106" spans="23:23">
-      <c r="W106" s="2"/>
+      <c r="W106" s="3"/>
     </row>
     <row r="107" spans="23:23">
-      <c r="W107" s="2"/>
+      <c r="W107" s="3"/>
     </row>
     <row r="108" spans="23:23">
-      <c r="W108" s="2"/>
+      <c r="W108" s="3"/>
     </row>
     <row r="109" spans="23:23">
-      <c r="W109" s="2"/>
+      <c r="W109" s="3"/>
     </row>
     <row r="110" spans="23:23">
-      <c r="W110" s="2"/>
+      <c r="W110" s="3"/>
     </row>
     <row r="111" spans="23:23">
-      <c r="W111" s="2"/>
+      <c r="W111" s="3"/>
     </row>
     <row r="112" spans="23:23">
-      <c r="W112" s="2"/>
+      <c r="W112" s="3"/>
     </row>
     <row r="113" spans="23:23">
-      <c r="W113" s="2"/>
+      <c r="W113" s="3"/>
     </row>
     <row r="114" spans="23:23">
-      <c r="W114" s="2"/>
+      <c r="W114" s="3"/>
     </row>
     <row r="115" spans="23:23">
-      <c r="W115" s="2"/>
+      <c r="W115" s="3"/>
     </row>
     <row r="116" spans="23:23">
-      <c r="W116" s="2"/>
+      <c r="W116" s="3"/>
     </row>
     <row r="117" spans="23:23">
-      <c r="W117" s="2"/>
+      <c r="W117" s="3"/>
     </row>
     <row r="118" spans="23:23">
-      <c r="W118" s="2"/>
+      <c r="W118" s="3"/>
     </row>
     <row r="119" spans="23:23">
-      <c r="W119" s="2"/>
+      <c r="W119" s="3"/>
     </row>
     <row r="120" spans="23:23">
-      <c r="W120" s="2"/>
+      <c r="W120" s="3"/>
     </row>
     <row r="121" spans="23:23">
-      <c r="W121" s="2"/>
+      <c r="W121" s="3"/>
     </row>
     <row r="122" spans="23:23">
-      <c r="W122" s="2"/>
+      <c r="W122" s="3"/>
     </row>
     <row r="123" spans="23:23">
-      <c r="W123" s="2"/>
+      <c r="W123" s="3"/>
     </row>
     <row r="124" spans="23:23">
-      <c r="W124" s="2"/>
+      <c r="W124" s="3"/>
     </row>
     <row r="125" spans="23:23">
-      <c r="W125" s="2"/>
+      <c r="W125" s="3"/>
     </row>
     <row r="126" spans="23:23">
-      <c r="W126" s="2"/>
+      <c r="W126" s="3"/>
     </row>
     <row r="127" spans="23:23">
-      <c r="W127" s="2"/>
+      <c r="W127" s="3"/>
     </row>
     <row r="128" spans="23:23">
-      <c r="W128" s="2"/>
+      <c r="W128" s="3"/>
     </row>
     <row r="129" spans="23:23">
-      <c r="W129" s="2"/>
+      <c r="W129" s="3"/>
     </row>
     <row r="130" spans="23:23">
-      <c r="W130" s="2"/>
+      <c r="W130" s="3"/>
     </row>
     <row r="131" spans="23:23">
-      <c r="W131" s="2"/>
+      <c r="W131" s="3"/>
     </row>
     <row r="132" spans="23:23">
-      <c r="W132" s="2"/>
+      <c r="W132" s="3"/>
     </row>
     <row r="133" spans="23:23">
-      <c r="W133" s="2"/>
+      <c r="W133" s="3"/>
     </row>
     <row r="134" spans="23:23">
-      <c r="W134" s="2"/>
+      <c r="W134" s="3"/>
     </row>
     <row r="135" spans="23:23">
-      <c r="W135" s="2"/>
+      <c r="W135" s="3"/>
     </row>
     <row r="136" spans="23:23">
-      <c r="W136" s="2"/>
+      <c r="W136" s="3"/>
     </row>
     <row r="137" spans="23:23">
-      <c r="W137" s="2"/>
+      <c r="W137" s="3"/>
     </row>
     <row r="138" spans="23:23">
-      <c r="W138" s="2"/>
+      <c r="W138" s="3"/>
     </row>
     <row r="139" spans="23:23">
-      <c r="W139" s="2"/>
+      <c r="W139" s="3"/>
     </row>
     <row r="140" spans="23:23">
-      <c r="W140" s="2"/>
+      <c r="W140" s="3"/>
     </row>
     <row r="141" spans="23:23">
-      <c r="W141" s="2"/>
+      <c r="W141" s="3"/>
     </row>
     <row r="142" spans="23:23">
-      <c r="W142" s="2"/>
+      <c r="W142" s="3"/>
     </row>
     <row r="143" spans="23:23">
-      <c r="W143" s="2"/>
+      <c r="W143" s="3"/>
     </row>
     <row r="144" spans="23:23">
-      <c r="W144" s="2"/>
+      <c r="W144" s="3"/>
     </row>
     <row r="145" spans="23:23">
-      <c r="W145" s="2"/>
+      <c r="W145" s="3"/>
     </row>
     <row r="146" spans="23:23">
-      <c r="W146" s="2"/>
+      <c r="W146" s="3"/>
     </row>
     <row r="147" spans="23:23">
-      <c r="W147" s="2"/>
+      <c r="W147" s="3"/>
     </row>
     <row r="148" spans="23:23">
-      <c r="W148" s="2"/>
+      <c r="W148" s="3"/>
     </row>
     <row r="149" spans="23:23">
-      <c r="W149" s="2"/>
+      <c r="W149" s="3"/>
     </row>
     <row r="150" spans="23:23">
-      <c r="W150" s="2"/>
+      <c r="W150" s="3"/>
     </row>
     <row r="151" spans="23:23">
-      <c r="W151" s="2"/>
+      <c r="W151" s="3"/>
     </row>
     <row r="152" spans="23:23">
-      <c r="W152" s="2"/>
+      <c r="W152" s="3"/>
     </row>
     <row r="153" spans="23:23">
-      <c r="W153" s="2"/>
+      <c r="W153" s="3"/>
     </row>
     <row r="154" spans="23:23">
-      <c r="W154" s="2"/>
+      <c r="W154" s="3"/>
     </row>
     <row r="155" spans="23:23">
-      <c r="W155" s="2"/>
+      <c r="W155" s="3"/>
     </row>
     <row r="156" spans="23:23">
-      <c r="W156" s="2"/>
+      <c r="W156" s="3"/>
     </row>
     <row r="157" spans="23:23">
-      <c r="W157" s="2"/>
+      <c r="W157" s="3"/>
     </row>
     <row r="158" spans="23:23">
-      <c r="W158" s="2"/>
+      <c r="W158" s="3"/>
     </row>
     <row r="159" spans="23:23">
-      <c r="W159" s="2"/>
+      <c r="W159" s="3"/>
     </row>
     <row r="160" spans="23:23">
-      <c r="W160" s="2"/>
+      <c r="W160" s="3"/>
     </row>
     <row r="161" spans="23:23">
-      <c r="W161" s="2"/>
+      <c r="W161" s="3"/>
     </row>
     <row r="162" spans="23:23">
-      <c r="W162" s="2"/>
+      <c r="W162" s="3"/>
     </row>
     <row r="163" spans="23:23">
-      <c r="W163" s="2"/>
+      <c r="W163" s="3"/>
     </row>
     <row r="164" spans="23:23">
-      <c r="W164" s="2"/>
+      <c r="W164" s="3"/>
     </row>
     <row r="165" spans="23:23">
-      <c r="W165" s="2"/>
+      <c r="W165" s="3"/>
     </row>
     <row r="166" spans="23:23">
-      <c r="W166" s="2"/>
+      <c r="W166" s="3"/>
     </row>
     <row r="167" spans="23:23">
-      <c r="W167" s="2"/>
+      <c r="W167" s="3"/>
     </row>
     <row r="168" spans="23:23">
-      <c r="W168" s="2"/>
+      <c r="W168" s="3"/>
     </row>
     <row r="169" spans="23:23">
-      <c r="W169" s="2"/>
+      <c r="W169" s="3"/>
     </row>
     <row r="170" spans="23:23">
-      <c r="W170" s="2"/>
+      <c r="W170" s="3"/>
     </row>
     <row r="171" spans="23:23">
-      <c r="W171" s="2"/>
+      <c r="W171" s="3"/>
     </row>
     <row r="172" spans="23:23">
-      <c r="W172" s="2"/>
+      <c r="W172" s="3"/>
     </row>
     <row r="173" spans="23:23">
-      <c r="W173" s="2"/>
+      <c r="W173" s="3"/>
     </row>
     <row r="174" spans="23:23">
-      <c r="W174" s="2"/>
+      <c r="W174" s="3"/>
     </row>
     <row r="175" spans="23:23">
-      <c r="W175" s="2"/>
+      <c r="W175" s="3"/>
     </row>
     <row r="176" spans="23:23">
-      <c r="W176" s="2"/>
+      <c r="W176" s="3"/>
     </row>
     <row r="177" spans="23:23">
-      <c r="W177" s="2"/>
+      <c r="W177" s="3"/>
     </row>
     <row r="178" spans="23:23">
-      <c r="W178" s="2"/>
+      <c r="W178" s="3"/>
     </row>
     <row r="179" spans="23:23">
-      <c r="W179" s="2"/>
+      <c r="W179" s="3"/>
     </row>
     <row r="180" spans="23:23">
-      <c r="W180" s="2"/>
+      <c r="W180" s="3"/>
     </row>
     <row r="181" spans="23:23">
-      <c r="W181" s="2"/>
+      <c r="W181" s="3"/>
     </row>
     <row r="182" spans="23:23">
-      <c r="W182" s="2"/>
+      <c r="W182" s="3"/>
     </row>
     <row r="183" spans="23:23">
-      <c r="W183" s="2"/>
+      <c r="W183" s="3"/>
     </row>
     <row r="184" spans="23:23">
-      <c r="W184" s="2"/>
+      <c r="W184" s="3"/>
     </row>
     <row r="185" spans="23:23">
-      <c r="W185" s="2"/>
+      <c r="W185" s="3"/>
     </row>
     <row r="186" spans="23:23">
-      <c r="W186" s="2"/>
+      <c r="W186" s="3"/>
     </row>
     <row r="187" spans="23:23">
-      <c r="W187" s="2"/>
+      <c r="W187" s="3"/>
     </row>
     <row r="188" spans="23:23">
-      <c r="W188" s="2"/>
+      <c r="W188" s="3"/>
     </row>
     <row r="189" spans="23:23">
-      <c r="W189" s="2"/>
+      <c r="W189" s="3"/>
     </row>
     <row r="190" spans="23:23">
-      <c r="W190" s="2"/>
+      <c r="W190" s="3"/>
     </row>
     <row r="191" spans="23:23">
-      <c r="W191" s="2"/>
+      <c r="W191" s="3"/>
     </row>
     <row r="192" spans="23:23">
-      <c r="W192" s="2"/>
+      <c r="W192" s="3"/>
     </row>
     <row r="193" spans="23:23">
-      <c r="W193" s="2"/>
+      <c r="W193" s="3"/>
     </row>
     <row r="194" spans="23:23">
-      <c r="W194" s="2"/>
+      <c r="W194" s="3"/>
     </row>
     <row r="195" spans="23:23">
-      <c r="W195" s="2"/>
+      <c r="W195" s="3"/>
     </row>
     <row r="196" spans="23:23">
-      <c r="W196" s="2"/>
+      <c r="W196" s="3"/>
     </row>
     <row r="197" spans="23:23">
-      <c r="W197" s="2"/>
+      <c r="W197" s="3"/>
     </row>
     <row r="198" spans="23:23">
-      <c r="W198" s="2"/>
+      <c r="W198" s="3"/>
     </row>
     <row r="199" spans="23:23">
-      <c r="W199" s="2"/>
+      <c r="W199" s="3"/>
     </row>
     <row r="200" spans="23:23">
-      <c r="W200" s="2"/>
+      <c r="W200" s="3"/>
     </row>
     <row r="201" spans="23:23">
-      <c r="W201" s="2"/>
+      <c r="W201" s="3"/>
     </row>
     <row r="202" spans="23:23">
-      <c r="W202" s="2"/>
+      <c r="W202" s="3"/>
     </row>
     <row r="203" spans="23:23">
-      <c r="W203" s="2"/>
+      <c r="W203" s="3"/>
     </row>
     <row r="204" spans="23:23">
-      <c r="W204" s="2"/>
+      <c r="W204" s="3"/>
     </row>
     <row r="205" spans="23:23">
-      <c r="W205" s="2"/>
+      <c r="W205" s="3"/>
     </row>
     <row r="206" spans="23:23">
-      <c r="W206" s="2"/>
+      <c r="W206" s="3"/>
     </row>
     <row r="207" spans="23:23">
-      <c r="W207" s="2"/>
+      <c r="W207" s="3"/>
     </row>
     <row r="208" spans="23:23">
-      <c r="W208" s="2"/>
+      <c r="W208" s="3"/>
     </row>
     <row r="209" spans="23:23">
-      <c r="W209" s="2"/>
+      <c r="W209" s="3"/>
     </row>
     <row r="210" spans="23:23">
-      <c r="W210" s="2"/>
+      <c r="W210" s="3"/>
     </row>
     <row r="211" spans="23:23">
-      <c r="W211" s="2"/>
+      <c r="W211" s="3"/>
     </row>
     <row r="212" spans="23:23">
-      <c r="W212" s="2"/>
+      <c r="W212" s="3"/>
     </row>
     <row r="213" spans="23:23">
-      <c r="W213" s="2"/>
+      <c r="W213" s="3"/>
     </row>
     <row r="214" spans="23:23">
-      <c r="W214" s="2"/>
+      <c r="W214" s="3"/>
     </row>
     <row r="215" spans="23:23">
-      <c r="W215" s="2"/>
+      <c r="W215" s="3"/>
     </row>
     <row r="216" spans="23:23">
-      <c r="W216" s="2"/>
+      <c r="W216" s="3"/>
     </row>
     <row r="217" spans="23:23">
-      <c r="W217" s="2"/>
+      <c r="W217" s="3"/>
     </row>
     <row r="218" spans="23:23">
-      <c r="W218" s="2"/>
+      <c r="W218" s="3"/>
     </row>
     <row r="219" spans="23:23">
-      <c r="W219" s="2"/>
+      <c r="W219" s="3"/>
     </row>
     <row r="220" spans="23:23">
-      <c r="W220" s="2"/>
+      <c r="W220" s="3"/>
     </row>
     <row r="221" spans="23:23">
-      <c r="W221" s="2"/>
+      <c r="W221" s="3"/>
     </row>
     <row r="222" spans="23:23">
-      <c r="W222" s="2"/>
+      <c r="W222" s="3"/>
     </row>
     <row r="223" spans="23:23">
-      <c r="W223" s="2"/>
+      <c r="W223" s="3"/>
     </row>
     <row r="224" spans="23:23">
-      <c r="W224" s="2"/>
+      <c r="W224" s="3"/>
     </row>
     <row r="225" spans="23:23">
-      <c r="W225" s="2"/>
+      <c r="W225" s="3"/>
     </row>
     <row r="226" spans="23:23">
-      <c r="W226" s="2"/>
+      <c r="W226" s="3"/>
     </row>
     <row r="227" spans="23:23">
-      <c r="W227" s="2"/>
+      <c r="W227" s="3"/>
     </row>
     <row r="228" spans="23:23">
-      <c r="W228" s="2"/>
+      <c r="W228" s="3"/>
     </row>
     <row r="229" spans="23:23">
-      <c r="W229" s="2"/>
+      <c r="W229" s="3"/>
     </row>
     <row r="230" spans="23:23">
-      <c r="W230" s="2"/>
+      <c r="W230" s="3"/>
     </row>
     <row r="231" spans="23:23">
-      <c r="W231" s="2"/>
+      <c r="W231" s="3"/>
     </row>
     <row r="232" spans="23:23">
-      <c r="W232" s="2"/>
+      <c r="W232" s="3"/>
     </row>
     <row r="233" spans="23:23">
-      <c r="W233" s="2"/>
+      <c r="W233" s="3"/>
     </row>
     <row r="234" spans="23:23">
-      <c r="W234" s="2"/>
+      <c r="W234" s="3"/>
     </row>
     <row r="235" spans="23:23">
-      <c r="W235" s="2"/>
+      <c r="W235" s="3"/>
     </row>
     <row r="236" spans="23:23">
-      <c r="W236" s="2"/>
+      <c r="W236" s="3"/>
     </row>
     <row r="237" spans="23:23">
-      <c r="W237" s="2"/>
+      <c r="W237" s="3"/>
     </row>
     <row r="238" spans="23:23">
-      <c r="W238" s="2"/>
+      <c r="W238" s="3"/>
     </row>
     <row r="239" spans="23:23">
-      <c r="W239" s="2"/>
+      <c r="W239" s="3"/>
     </row>
     <row r="240" spans="23:23">
-      <c r="W240" s="2"/>
+      <c r="W240" s="3"/>
     </row>
     <row r="241" spans="23:23">
-      <c r="W241" s="2"/>
+      <c r="W241" s="3"/>
     </row>
     <row r="242" spans="23:23">
-      <c r="W242" s="2"/>
+      <c r="W242" s="3"/>
     </row>
     <row r="243" spans="23:23">
-      <c r="W243" s="2"/>
+      <c r="W243" s="3"/>
     </row>
     <row r="244" spans="23:23">
-      <c r="W244" s="2"/>
+      <c r="W244" s="3"/>
     </row>
     <row r="245" spans="23:23">
-      <c r="W245" s="2"/>
+      <c r="W245" s="3"/>
     </row>
     <row r="246" spans="23:23">
-      <c r="W246" s="2"/>
+      <c r="W246" s="3"/>
     </row>
     <row r="247" spans="23:23">
-      <c r="W247" s="2"/>
+      <c r="W247" s="3"/>
     </row>
     <row r="248" spans="23:23">
-      <c r="W248" s="2"/>
+      <c r="W248" s="3"/>
     </row>
     <row r="249" spans="23:23">
-      <c r="W249" s="2"/>
+      <c r="W249" s="3"/>
     </row>
     <row r="250" spans="23:23">
-      <c r="W250" s="2"/>
+      <c r="W250" s="3"/>
     </row>
     <row r="251" spans="23:23">
-      <c r="W251" s="2"/>
+      <c r="W251" s="3"/>
     </row>
     <row r="252" spans="23:23">
-      <c r="W252" s="2"/>
+      <c r="W252" s="3"/>
     </row>
     <row r="253" spans="23:23">
-      <c r="W253" s="2"/>
+      <c r="W253" s="3"/>
     </row>
     <row r="254" spans="23:23">
-      <c r="W254" s="2"/>
+      <c r="W254" s="3"/>
     </row>
     <row r="255" spans="23:23">
-      <c r="W255" s="2"/>
+      <c r="W255" s="3"/>
     </row>
     <row r="256" spans="23:23">
-      <c r="W256" s="2"/>
+      <c r="W256" s="3"/>
     </row>
     <row r="257" spans="23:23">
-      <c r="W257" s="2"/>
+      <c r="W257" s="3"/>
     </row>
     <row r="258" spans="23:23">
-      <c r="W258" s="2"/>
+      <c r="W258" s="3"/>
     </row>
     <row r="259" spans="23:23">
-      <c r="W259" s="2"/>
+      <c r="W259" s="3"/>
     </row>
     <row r="260" spans="23:23">
-      <c r="W260" s="2"/>
+      <c r="W260" s="3"/>
     </row>
     <row r="261" spans="23:23">
-      <c r="W261" s="2"/>
+      <c r="W261" s="3"/>
     </row>
     <row r="262" spans="23:23">
-      <c r="W262" s="2"/>
+      <c r="W262" s="3"/>
     </row>
     <row r="263" spans="23:23">
-      <c r="W263" s="2"/>
+      <c r="W263" s="3"/>
     </row>
     <row r="264" spans="23:23">
-      <c r="W264" s="2"/>
+      <c r="W264" s="3"/>
     </row>
     <row r="265" spans="23:23">
-      <c r="W265" s="2"/>
+      <c r="W265" s="3"/>
     </row>
     <row r="266" spans="23:23">
-      <c r="W266" s="2"/>
+      <c r="W266" s="3"/>
     </row>
     <row r="267" spans="23:23">
-      <c r="W267" s="2"/>
+      <c r="W267" s="3"/>
     </row>
     <row r="268" spans="23:23">
-      <c r="W268" s="2"/>
+      <c r="W268" s="3"/>
     </row>
     <row r="269" spans="23:23">
-      <c r="W269" s="2"/>
+      <c r="W269" s="3"/>
     </row>
     <row r="270" spans="23:23">
-      <c r="W270" s="2"/>
+      <c r="W270" s="3"/>
     </row>
     <row r="271" spans="23:23">
-      <c r="W271" s="2"/>
+      <c r="W271" s="3"/>
     </row>
     <row r="272" spans="23:23">
-      <c r="W272" s="2"/>
+      <c r="W272" s="3"/>
     </row>
     <row r="273" spans="23:23">
-      <c r="W273" s="2"/>
+      <c r="W273" s="3"/>
     </row>
     <row r="274" spans="23:23">
-      <c r="W274" s="2"/>
+      <c r="W274" s="3"/>
     </row>
     <row r="275" spans="23:23">
-      <c r="W275" s="2"/>
+      <c r="W275" s="3"/>
     </row>
     <row r="276" spans="23:23">
-      <c r="W276" s="2"/>
+      <c r="W276" s="3"/>
     </row>
     <row r="277" spans="23:23">
-      <c r="W277" s="2"/>
+      <c r="W277" s="3"/>
     </row>
     <row r="278" spans="23:23">
-      <c r="W278" s="2"/>
+      <c r="W278" s="3"/>
     </row>
     <row r="279" spans="23:23">
-      <c r="W279" s="2"/>
+      <c r="W279" s="3"/>
     </row>
     <row r="280" spans="23:23">
-      <c r="W280" s="2"/>
+      <c r="W280" s="3"/>
     </row>
     <row r="281" spans="23:23">
-      <c r="W281" s="2"/>
+      <c r="W281" s="3"/>
     </row>
     <row r="282" spans="23:23">
-      <c r="W282" s="2"/>
+      <c r="W282" s="3"/>
     </row>
     <row r="283" spans="23:23">
-      <c r="W283" s="2"/>
+      <c r="W283" s="3"/>
     </row>
     <row r="284" spans="23:23">
-      <c r="W284" s="2"/>
+      <c r="W284" s="3"/>
     </row>
     <row r="285" spans="23:23">
-      <c r="W285" s="2"/>
+      <c r="W285" s="3"/>
     </row>
     <row r="286" spans="23:23">
-      <c r="W286" s="2"/>
+      <c r="W286" s="3"/>
     </row>
     <row r="287" spans="23:23">
-      <c r="W287" s="2"/>
+      <c r="W287" s="3"/>
     </row>
     <row r="288" spans="23:23">
-      <c r="W288" s="2"/>
+      <c r="W288" s="3"/>
     </row>
     <row r="289" spans="23:23">
-      <c r="W289" s="2"/>
+      <c r="W289" s="3"/>
     </row>
     <row r="290" spans="23:23">
-      <c r="W290" s="2"/>
+      <c r="W290" s="3"/>
     </row>
     <row r="291" spans="23:23">
-      <c r="W291" s="2"/>
+      <c r="W291" s="3"/>
     </row>
     <row r="292" spans="23:23">
-      <c r="W292" s="2"/>
+      <c r="W292" s="3"/>
     </row>
     <row r="293" spans="23:23">
-      <c r="W293" s="2"/>
+      <c r="W293" s="3"/>
     </row>
     <row r="294" spans="23:23">
-      <c r="W294" s="2"/>
+      <c r="W294" s="3"/>
     </row>
     <row r="295" spans="23:23">
-      <c r="W295" s="2"/>
+      <c r="W295" s="3"/>
     </row>
     <row r="296" spans="23:23">
-      <c r="W296" s="2"/>
+      <c r="W296" s="3"/>
     </row>
     <row r="297" spans="23:23">
-      <c r="W297" s="2"/>
+      <c r="W297" s="3"/>
     </row>
     <row r="298" spans="23:23">
-      <c r="W298" s="2"/>
+      <c r="W298" s="3"/>
     </row>
     <row r="299" spans="23:23">
-      <c r="W299" s="2"/>
+      <c r="W299" s="3"/>
     </row>
     <row r="300" spans="23:23">
-      <c r="W300" s="2"/>
+      <c r="W300" s="3"/>
     </row>
     <row r="301" spans="23:23">
-      <c r="W301" s="2"/>
+      <c r="W301" s="3"/>
     </row>
     <row r="302" spans="23:23">
-      <c r="W302" s="2"/>
+      <c r="W302" s="3"/>
     </row>
     <row r="303" spans="23:23">
-      <c r="W303" s="2"/>
+      <c r="W303" s="3"/>
     </row>
     <row r="304" spans="23:23">
-      <c r="W304" s="2"/>
+      <c r="W304" s="3"/>
     </row>
     <row r="305" spans="23:23">
-      <c r="W305" s="2"/>
+      <c r="W305" s="3"/>
     </row>
     <row r="306" spans="23:23">
-      <c r="W306" s="2"/>
+      <c r="W306" s="3"/>
     </row>
     <row r="307" spans="23:23">
-      <c r="W307" s="2"/>
+      <c r="W307" s="3"/>
     </row>
     <row r="308" spans="23:23">
-      <c r="W308" s="2"/>
+      <c r="W308" s="3"/>
     </row>
     <row r="309" spans="23:23">
-      <c r="W309" s="2"/>
+      <c r="W309" s="3"/>
     </row>
     <row r="310" spans="23:23">
-      <c r="W310" s="2"/>
+      <c r="W310" s="3"/>
     </row>
     <row r="311" spans="23:23">
-      <c r="W311" s="2"/>
+      <c r="W311" s="3"/>
     </row>
     <row r="312" spans="23:23">
-      <c r="W312" s="2"/>
+      <c r="W312" s="3"/>
     </row>
     <row r="313" spans="23:23">
-      <c r="W313" s="2"/>
+      <c r="W313" s="3"/>
     </row>
     <row r="314" spans="23:23">
-      <c r="W314" s="2"/>
+      <c r="W314" s="3"/>
     </row>
     <row r="315" spans="23:23">
-      <c r="W315" s="2"/>
+      <c r="W315" s="3"/>
     </row>
     <row r="316" spans="23:23">
-      <c r="W316" s="2"/>
+      <c r="W316" s="3"/>
     </row>
     <row r="317" spans="23:23">
-      <c r="W317" s="2"/>
+      <c r="W317" s="3"/>
     </row>
     <row r="318" spans="23:23">
-      <c r="W318" s="2"/>
+      <c r="W318" s="3"/>
     </row>
     <row r="319" spans="23:23">
-      <c r="W319" s="2"/>
+      <c r="W319" s="3"/>
     </row>
     <row r="320" spans="23:23">
-      <c r="W320" s="2"/>
+      <c r="W320" s="3"/>
     </row>
     <row r="321" spans="23:23">
-      <c r="W321" s="2"/>
+      <c r="W321" s="3"/>
     </row>
     <row r="322" spans="23:23">
-      <c r="W322" s="2"/>
+      <c r="W322" s="3"/>
     </row>
     <row r="323" spans="23:23">
-      <c r="W323" s="2"/>
+      <c r="W323" s="3"/>
     </row>
     <row r="324" spans="23:23">
-      <c r="W324" s="2"/>
+      <c r="W324" s="3"/>
     </row>
     <row r="325" spans="23:23">
-      <c r="W325" s="2"/>
+      <c r="W325" s="3"/>
     </row>
     <row r="326" spans="23:23">
-      <c r="W326" s="2"/>
+      <c r="W326" s="3"/>
     </row>
     <row r="327" spans="23:23">
-      <c r="W327" s="2"/>
+      <c r="W327" s="3"/>
     </row>
     <row r="328" spans="23:23">
-      <c r="W328" s="2"/>
+      <c r="W328" s="3"/>
     </row>
     <row r="329" spans="23:23">
-      <c r="W329" s="2"/>
+      <c r="W329" s="3"/>
     </row>
     <row r="330" spans="23:23">
-      <c r="W330" s="2"/>
+      <c r="W330" s="3"/>
     </row>
     <row r="331" spans="23:23">
-      <c r="W331" s="2"/>
+      <c r="W331" s="3"/>
     </row>
     <row r="332" spans="23:23">
-      <c r="W332" s="2"/>
+      <c r="W332" s="3"/>
     </row>
     <row r="333" spans="23:23">
-      <c r="W333" s="2"/>
+      <c r="W333" s="3"/>
     </row>
     <row r="334" spans="23:23">
-      <c r="W334" s="2"/>
+      <c r="W334" s="3"/>
     </row>
     <row r="335" spans="23:23">
-      <c r="W335" s="2"/>
+      <c r="W335" s="3"/>
     </row>
     <row r="336" spans="23:23">
-      <c r="W336" s="2"/>
+      <c r="W336" s="3"/>
     </row>
     <row r="337" spans="23:23">
-      <c r="W337" s="2"/>
+      <c r="W337" s="3"/>
     </row>
     <row r="338" spans="23:23">
-      <c r="W338" s="2"/>
+      <c r="W338" s="3"/>
     </row>
     <row r="339" spans="23:23">
-      <c r="W339" s="2"/>
+      <c r="W339" s="3"/>
     </row>
     <row r="340" spans="23:23">
-      <c r="W340" s="2"/>
+      <c r="W340" s="3"/>
     </row>
     <row r="341" spans="23:23">
-      <c r="W341" s="2"/>
+      <c r="W341" s="3"/>
     </row>
     <row r="342" spans="23:23">
-      <c r="W342" s="2"/>
+      <c r="W342" s="3"/>
     </row>
     <row r="343" spans="23:23">
-      <c r="W343" s="2"/>
+      <c r="W343" s="3"/>
     </row>
     <row r="344" spans="23:23">
-      <c r="W344" s="2"/>
+      <c r="W344" s="3"/>
     </row>
     <row r="345" spans="23:23">
-      <c r="W345" s="2"/>
+      <c r="W345" s="3"/>
     </row>
     <row r="346" spans="23:23">
-      <c r="W346" s="2"/>
+      <c r="W346" s="3"/>
     </row>
     <row r="347" spans="23:23">
-      <c r="W347" s="2"/>
+      <c r="W347" s="3"/>
     </row>
     <row r="348" spans="23:23">
-      <c r="W348" s="2"/>
+      <c r="W348" s="3"/>
     </row>
     <row r="349" spans="23:23">
-      <c r="W349" s="2"/>
+      <c r="W349" s="3"/>
     </row>
     <row r="350" spans="23:23">
-      <c r="W350" s="2"/>
+      <c r="W350" s="3"/>
     </row>
     <row r="351" spans="23:23">
-      <c r="W351" s="2"/>
+      <c r="W351" s="3"/>
     </row>
     <row r="352" spans="23:23">
-      <c r="W352" s="2"/>
+      <c r="W352" s="3"/>
     </row>
     <row r="353" spans="23:23">
-      <c r="W353" s="2"/>
+      <c r="W353" s="3"/>
     </row>
     <row r="354" spans="23:23">
-      <c r="W354" s="2"/>
+      <c r="W354" s="3"/>
     </row>
     <row r="355" spans="23:23">
-      <c r="W355" s="2"/>
+      <c r="W355" s="3"/>
     </row>
     <row r="356" spans="23:23">
-      <c r="W356" s="2"/>
+      <c r="W356" s="3"/>
     </row>
     <row r="357" spans="23:23">
-      <c r="W357" s="2"/>
+      <c r="W357" s="3"/>
     </row>
     <row r="358" spans="23:23">
-      <c r="W358" s="2"/>
+      <c r="W358" s="3"/>
     </row>
     <row r="359" spans="23:23">
-      <c r="W359" s="2"/>
+      <c r="W359" s="3"/>
     </row>
     <row r="360" spans="23:23">
-      <c r="W360" s="2"/>
+      <c r="W360" s="3"/>
     </row>
     <row r="361" spans="23:23">
-      <c r="W361" s="2"/>
+      <c r="W361" s="3"/>
     </row>
     <row r="362" spans="23:23">
-      <c r="W362" s="2"/>
+      <c r="W362" s="3"/>
     </row>
     <row r="363" spans="23:23">
-      <c r="W363" s="2"/>
+      <c r="W363" s="3"/>
     </row>
     <row r="364" spans="23:23">
-      <c r="W364" s="2"/>
+      <c r="W364" s="3"/>
     </row>
     <row r="365" spans="23:23">
-      <c r="W365" s="2"/>
+      <c r="W365" s="3"/>
     </row>
     <row r="366" spans="23:23">
-      <c r="W366" s="2"/>
+      <c r="W366" s="3"/>
     </row>
     <row r="367" spans="23:23">
-      <c r="W367" s="2"/>
+      <c r="W367" s="3"/>
     </row>
     <row r="368" spans="23:23">
-      <c r="W368" s="2"/>
+      <c r="W368" s="3"/>
     </row>
     <row r="369" spans="23:23">
-      <c r="W369" s="2"/>
+      <c r="W369" s="3"/>
     </row>
     <row r="370" spans="23:23">
-      <c r="W370" s="2"/>
+      <c r="W370" s="3"/>
     </row>
     <row r="371" spans="23:23">
-      <c r="W371" s="2"/>
+      <c r="W371" s="3"/>
     </row>
     <row r="372" spans="23:23">
-      <c r="W372" s="2"/>
+      <c r="W372" s="3"/>
     </row>
     <row r="373" spans="23:23">
-      <c r="W373" s="2"/>
+      <c r="W373" s="3"/>
     </row>
     <row r="374" spans="23:23">
-      <c r="W374" s="2"/>
+      <c r="W374" s="3"/>
     </row>
     <row r="375" spans="23:23">
-      <c r="W375" s="2"/>
+      <c r="W375" s="3"/>
     </row>
     <row r="376" spans="23:23">
-      <c r="W376" s="2"/>
+      <c r="W376" s="3"/>
     </row>
     <row r="377" spans="23:23">
-      <c r="W377" s="2"/>
+      <c r="W377" s="3"/>
     </row>
     <row r="378" spans="23:23">
-      <c r="W378" s="2"/>
+      <c r="W378" s="3"/>
     </row>
     <row r="379" spans="23:23">
-      <c r="W379" s="2"/>
+      <c r="W379" s="3"/>
     </row>
     <row r="380" spans="23:23">
-      <c r="W380" s="2"/>
+      <c r="W380" s="3"/>
     </row>
     <row r="381" spans="23:23">
-      <c r="W381" s="2"/>
+      <c r="W381" s="3"/>
     </row>
     <row r="382" spans="23:23">
-      <c r="W382" s="2"/>
+      <c r="W382" s="3"/>
     </row>
     <row r="383" spans="23:23">
-      <c r="W383" s="2"/>
+      <c r="W383" s="3"/>
     </row>
     <row r="384" spans="23:23">
-      <c r="W384" s="2"/>
+      <c r="W384" s="3"/>
     </row>
     <row r="385" spans="23:23">
-      <c r="W385" s="2"/>
+      <c r="W385" s="3"/>
     </row>
     <row r="386" spans="23:23">
-      <c r="W386" s="2"/>
+      <c r="W386" s="3"/>
     </row>
     <row r="387" spans="23:23">
-      <c r="W387" s="2"/>
+      <c r="W387" s="3"/>
     </row>
     <row r="388" spans="23:23">
-      <c r="W388" s="2"/>
+      <c r="W388" s="3"/>
     </row>
     <row r="389" spans="23:23">
-      <c r="W389" s="2"/>
+      <c r="W389" s="3"/>
     </row>
     <row r="390" spans="23:23">
-      <c r="W390" s="2"/>
+      <c r="W390" s="3"/>
     </row>
     <row r="391" spans="23:23">
-      <c r="W391" s="2"/>
+      <c r="W391" s="3"/>
     </row>
     <row r="392" spans="23:23">
-      <c r="W392" s="2"/>
+      <c r="W392" s="3"/>
     </row>
     <row r="393" spans="23:23">
-      <c r="W393" s="2"/>
+      <c r="W393" s="3"/>
     </row>
     <row r="394" spans="23:23">
-      <c r="W394" s="2"/>
+      <c r="W394" s="3"/>
     </row>
     <row r="395" spans="23:23">
-      <c r="W395" s="2"/>
+      <c r="W395" s="3"/>
     </row>
     <row r="396" spans="23:23">
-      <c r="W396" s="2"/>
+      <c r="W396" s="3"/>
     </row>
     <row r="397" spans="23:23">
-      <c r="W397" s="2"/>
+      <c r="W397" s="3"/>
     </row>
     <row r="398" spans="23:23">
-      <c r="W398" s="2"/>
+      <c r="W398" s="3"/>
     </row>
     <row r="399" spans="23:23">
-      <c r="W399" s="2"/>
+      <c r="W399" s="3"/>
     </row>
     <row r="400" spans="23:23">
-      <c r="W400" s="2"/>
+      <c r="W400" s="3"/>
     </row>
     <row r="401" spans="23:23">
-      <c r="W401" s="2"/>
+      <c r="W401" s="3"/>
     </row>
     <row r="402" spans="23:23">
-      <c r="W402" s="2"/>
+      <c r="W402" s="3"/>
     </row>
     <row r="403" spans="23:23">
-      <c r="W403" s="2"/>
+      <c r="W403" s="3"/>
     </row>
     <row r="404" spans="23:23">
-      <c r="W404" s="2"/>
+      <c r="W404" s="3"/>
     </row>
     <row r="405" spans="23:23">
-      <c r="W405" s="2"/>
+      <c r="W405" s="3"/>
     </row>
     <row r="406" spans="23:23">
-      <c r="W406" s="2"/>
+      <c r="W406" s="3"/>
     </row>
     <row r="407" spans="23:23">
-      <c r="W407" s="2"/>
+      <c r="W407" s="3"/>
     </row>
     <row r="408" spans="23:23">
-      <c r="W408" s="2"/>
+      <c r="W408" s="3"/>
     </row>
     <row r="409" spans="23:23">
-      <c r="W409" s="2"/>
+      <c r="W409" s="3"/>
     </row>
     <row r="410" spans="23:23">
-      <c r="W410" s="2"/>
+      <c r="W410" s="3"/>
     </row>
     <row r="411" spans="23:23">
-      <c r="W411" s="2"/>
+      <c r="W411" s="3"/>
     </row>
     <row r="412" spans="23:23">
-      <c r="W412" s="2"/>
+      <c r="W412" s="3"/>
     </row>
     <row r="413" spans="23:23">
-      <c r="W413" s="2"/>
+      <c r="W413" s="3"/>
     </row>
     <row r="414" spans="23:23">
-      <c r="W414" s="2"/>
+      <c r="W414" s="3"/>
     </row>
     <row r="415" spans="23:23">
-      <c r="W415" s="2"/>
+      <c r="W415" s="3"/>
     </row>
     <row r="416" spans="23:23">
-      <c r="W416" s="2"/>
+      <c r="W416" s="3"/>
     </row>
     <row r="417" spans="23:23">
-      <c r="W417" s="2"/>
+      <c r="W417" s="3"/>
     </row>
     <row r="418" spans="23:23">
-      <c r="W418" s="2"/>
+      <c r="W418" s="3"/>
     </row>
     <row r="419" spans="23:23">
-      <c r="W419" s="2"/>
+      <c r="W419" s="3"/>
     </row>
     <row r="420" spans="23:23">
-      <c r="W420" s="2"/>
+      <c r="W420" s="3"/>
     </row>
     <row r="421" spans="23:23">
-      <c r="W421" s="2"/>
+      <c r="W421" s="3"/>
     </row>
     <row r="422" spans="23:23">
-      <c r="W422" s="2"/>
+      <c r="W422" s="3"/>
     </row>
     <row r="423" spans="23:23">
-      <c r="W423" s="2"/>
+      <c r="W423" s="3"/>
     </row>
     <row r="424" spans="23:23">
-      <c r="W424" s="2"/>
+      <c r="W424" s="3"/>
     </row>
     <row r="425" spans="23:23">
-      <c r="W425" s="2"/>
+      <c r="W425" s="3"/>
     </row>
     <row r="426" spans="23:23">
-      <c r="W426" s="2"/>
+      <c r="W426" s="3"/>
     </row>
     <row r="427" spans="23:23">
-      <c r="W427" s="2"/>
+      <c r="W427" s="3"/>
     </row>
     <row r="428" spans="23:23">
-      <c r="W428" s="2"/>
+      <c r="W428" s="3"/>
     </row>
     <row r="429" spans="23:23">
-      <c r="W429" s="2"/>
+      <c r="W429" s="3"/>
     </row>
     <row r="430" spans="23:23">
-      <c r="W430" s="2"/>
+      <c r="W430" s="3"/>
     </row>
     <row r="431" spans="23:23">
-      <c r="W431" s="2"/>
+      <c r="W431" s="3"/>
     </row>
     <row r="432" spans="23:23">
-      <c r="W432" s="2"/>
+      <c r="W432" s="3"/>
     </row>
     <row r="433" spans="23:23">
-      <c r="W433" s="2"/>
+      <c r="W433" s="3"/>
     </row>
     <row r="434" spans="23:23">
-      <c r="W434" s="2"/>
+      <c r="W434" s="3"/>
     </row>
     <row r="435" spans="23:23">
-      <c r="W435" s="2"/>
+      <c r="W435" s="3"/>
     </row>
     <row r="436" spans="23:23">
-      <c r="W436" s="2"/>
+      <c r="W436" s="3"/>
     </row>
     <row r="437" spans="23:23">
-      <c r="W437" s="2"/>
+      <c r="W437" s="3"/>
     </row>
     <row r="438" spans="23:23">
-      <c r="W438" s="2"/>
+      <c r="W438" s="3"/>
     </row>
     <row r="439" spans="23:23">
-      <c r="W439" s="2"/>
+      <c r="W439" s="3"/>
     </row>
     <row r="440" spans="23:23">
-      <c r="W440" s="2"/>
+      <c r="W440" s="3"/>
     </row>
     <row r="441" spans="23:23">
-      <c r="W441" s="2"/>
+      <c r="W441" s="3"/>
     </row>
     <row r="442" spans="23:23">
-      <c r="W442" s="2"/>
+      <c r="W442" s="3"/>
     </row>
     <row r="443" spans="23:23">
-      <c r="W443" s="2"/>
+      <c r="W443" s="3"/>
     </row>
     <row r="444" spans="23:23">
-      <c r="W444" s="2"/>
+      <c r="W444" s="3"/>
     </row>
     <row r="445" spans="23:23">
-      <c r="W445" s="2"/>
+      <c r="W445" s="3"/>
     </row>
     <row r="446" spans="23:23">
-      <c r="W446" s="2"/>
+      <c r="W446" s="3"/>
     </row>
     <row r="447" spans="23:23">
-      <c r="W447" s="2"/>
+      <c r="W447" s="3"/>
     </row>
     <row r="448" spans="23:23">
-      <c r="W448" s="2"/>
+      <c r="W448" s="3"/>
     </row>
     <row r="449" spans="23:23">
-      <c r="W449" s="2"/>
+      <c r="W449" s="3"/>
     </row>
     <row r="450" spans="23:23">
-      <c r="W450" s="2"/>
+      <c r="W450" s="3"/>
     </row>
     <row r="451" spans="23:23">
-      <c r="W451" s="2"/>
+      <c r="W451" s="3"/>
     </row>
     <row r="452" spans="23:23">
-      <c r="W452" s="2"/>
+      <c r="W452" s="3"/>
     </row>
     <row r="453" spans="23:23">
-      <c r="W453" s="2"/>
+      <c r="W453" s="3"/>
     </row>
     <row r="454" spans="23:23">
-      <c r="W454" s="2"/>
+      <c r="W454" s="3"/>
     </row>
     <row r="455" spans="23:23">
-      <c r="W455" s="2"/>
+      <c r="W455" s="3"/>
     </row>
     <row r="456" spans="23:23">
-      <c r="W456" s="2"/>
+      <c r="W456" s="3"/>
     </row>
     <row r="457" spans="23:23">
-      <c r="W457" s="2"/>
+      <c r="W457" s="3"/>
     </row>
     <row r="458" spans="23:23">
-      <c r="W458" s="2"/>
+      <c r="W458" s="3"/>
     </row>
     <row r="459" spans="23:23">
-      <c r="W459" s="2"/>
+      <c r="W459" s="3"/>
     </row>
     <row r="460" spans="23:23">
-      <c r="W460" s="2"/>
+      <c r="W460" s="3"/>
     </row>
     <row r="461" spans="23:23">
-      <c r="W461" s="2"/>
+      <c r="W461" s="3"/>
     </row>
     <row r="462" spans="23:23">
-      <c r="W462" s="2"/>
+      <c r="W462" s="3"/>
     </row>
     <row r="463" spans="23:23">
-      <c r="W463" s="2"/>
+      <c r="W463" s="3"/>
     </row>
     <row r="464" spans="23:23">
-      <c r="W464" s="2"/>
+      <c r="W464" s="3"/>
     </row>
     <row r="465" spans="23:23">
-      <c r="W465" s="2"/>
+      <c r="W465" s="3"/>
     </row>
     <row r="466" spans="23:23">
-      <c r="W466" s="2"/>
+      <c r="W466" s="3"/>
     </row>
     <row r="467" spans="23:23">
-      <c r="W467" s="2"/>
+      <c r="W467" s="3"/>
     </row>
     <row r="468" spans="23:23">
-      <c r="W468" s="2"/>
+      <c r="W468" s="3"/>
     </row>
     <row r="469" spans="23:23">
-      <c r="W469" s="2"/>
+      <c r="W469" s="3"/>
     </row>
     <row r="470" spans="23:23">
-      <c r="W470" s="2"/>
+      <c r="W470" s="3"/>
     </row>
     <row r="471" spans="23:23">
-      <c r="W471" s="2"/>
+      <c r="W471" s="3"/>
     </row>
     <row r="472" spans="23:23">
-      <c r="W472" s="2"/>
+      <c r="W472" s="3"/>
     </row>
     <row r="473" spans="23:23">
-      <c r="W473" s="2"/>
+      <c r="W473" s="3"/>
     </row>
     <row r="474" spans="23:23">
-      <c r="W474" s="2"/>
+      <c r="W474" s="3"/>
     </row>
     <row r="475" spans="23:23">
-      <c r="W475" s="2"/>
+      <c r="W475" s="3"/>
     </row>
     <row r="476" spans="23:23">
-      <c r="W476" s="2"/>
+      <c r="W476" s="3"/>
     </row>
     <row r="477" spans="23:23">
-      <c r="W477" s="2"/>
+      <c r="W477" s="3"/>
     </row>
     <row r="478" spans="23:23">
-      <c r="W478" s="2"/>
+      <c r="W478" s="3"/>
     </row>
     <row r="479" spans="23:23">
-      <c r="W479" s="2"/>
+      <c r="W479" s="3"/>
     </row>
     <row r="480" spans="23:23">
-      <c r="W480" s="2"/>
+      <c r="W480" s="3"/>
     </row>
     <row r="481" spans="23:23">
-      <c r="W481" s="2"/>
+      <c r="W481" s="3"/>
     </row>
     <row r="482" spans="23:23">
-      <c r="W482" s="2"/>
+      <c r="W482" s="3"/>
     </row>
     <row r="483" spans="23:23">
-      <c r="W483" s="2"/>
+      <c r="W483" s="3"/>
     </row>
     <row r="484" spans="23:23">
-      <c r="W484" s="2"/>
+      <c r="W484" s="3"/>
     </row>
     <row r="485" spans="23:23">
-      <c r="W485" s="2"/>
+      <c r="W485" s="3"/>
     </row>
     <row r="486" spans="23:23">
-      <c r="W486" s="2"/>
+      <c r="W486" s="3"/>
     </row>
     <row r="487" spans="23:23">
-      <c r="W487" s="2"/>
+      <c r="W487" s="3"/>
     </row>
     <row r="488" spans="23:23">
-      <c r="W488" s="2"/>
+      <c r="W488" s="3"/>
     </row>
     <row r="489" spans="23:23">
-      <c r="W489" s="2"/>
+      <c r="W489" s="3"/>
     </row>
     <row r="490" spans="23:23">
-      <c r="W490" s="2"/>
+      <c r="W490" s="3"/>
     </row>
     <row r="491" spans="23:23">
-      <c r="W491" s="2"/>
+      <c r="W491" s="3"/>
     </row>
     <row r="492" spans="23:23">
-      <c r="W492" s="2"/>
+      <c r="W492" s="3"/>
     </row>
     <row r="493" spans="23:23">
-      <c r="W493" s="2"/>
+      <c r="W493" s="3"/>
     </row>
     <row r="494" spans="23:23">
-      <c r="W494" s="2"/>
+      <c r="W494" s="3"/>
     </row>
     <row r="495" spans="23:23">
-      <c r="W495" s="2"/>
+      <c r="W495" s="3"/>
     </row>
     <row r="496" spans="23:23">
-      <c r="W496" s="2"/>
+      <c r="W496" s="3"/>
     </row>
     <row r="497" spans="23:23">
-      <c r="W497" s="2"/>
+      <c r="W497" s="3"/>
     </row>
     <row r="498" spans="23:23">
-      <c r="W498" s="2"/>
+      <c r="W498" s="3"/>
     </row>
     <row r="499" spans="23:23">
-      <c r="W499" s="2"/>
+      <c r="W499" s="3"/>
     </row>
     <row r="500" spans="23:23">
-      <c r="W500" s="2"/>
+      <c r="W500" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W500">
+      <formula1>bank!$B$1:$B$216</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
       <formula1>"煤炭及制品,石油、天然气及制品,金属矿石,钢铁,矿建材料,水泥,木材,非金属矿石,化肥及农药,盐,粮食,机械、设备、电器,轻工原料及制品,有色金属,轻工医药产品,鲜活农产品,冷藏冷冻货物,商品汽车,其他"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3A676D6D-D6A0-4827-852B-B038BB3C66C5}">
-          <x14:formula1>
-            <xm:f>bank!$B$1:$B$216</xm:f>
-          </x14:formula1>
-          <xm:sqref>W2:W500</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7ED3945-2314-46B8-8AB3-CDCCCFBAF14C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:B216"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="58.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.2518518518519" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="12" t="s">
-        <v>48</v>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="12" t="s">
-        <v>49</v>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="12" t="s">
-        <v>50</v>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="12" t="s">
-        <v>51</v>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="12" t="s">
-        <v>52</v>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="12" t="s">
-        <v>53</v>
+      <c r="B6" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="12" t="s">
-        <v>54</v>
+      <c r="B7" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="12" t="s">
-        <v>55</v>
+      <c r="B8" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="12" t="s">
-        <v>56</v>
+      <c r="B9" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="12" t="s">
-        <v>57</v>
+      <c r="B10" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="12" t="s">
-        <v>58</v>
+      <c r="B11" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="12" t="s">
-        <v>59</v>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="12" t="s">
+      <c r="B100" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="103" spans="2:2">
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="104" spans="2:2">
-      <c r="B104" s="12" t="s">
+      <c r="B104" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="105" spans="2:2">
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="12" t="s">
+      <c r="B106" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="1" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="12" t="s">
+      <c r="B108" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="109" spans="2:2">
-      <c r="B109" s="12" t="s">
+      <c r="B109" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="110" spans="2:2">
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="111" spans="2:2">
-      <c r="B111" s="12" t="s">
+      <c r="B111" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="112" spans="2:2">
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="1" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="115" spans="2:2">
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="116" spans="2:2">
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="117" spans="2:2">
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="118" spans="2:2">
-      <c r="B118" s="12" t="s">
+      <c r="B118" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="119" spans="2:2">
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="120" spans="2:2">
-      <c r="B120" s="12" t="s">
+      <c r="B120" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="12" t="s">
+      <c r="B121" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="12" t="s">
+      <c r="B122" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="123" spans="2:2">
-      <c r="B123" s="12" t="s">
+      <c r="B123" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="124" spans="2:2">
-      <c r="B124" s="12" t="s">
+      <c r="B124" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125" s="12" t="s">
+      <c r="B125" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="12" t="s">
+      <c r="B126" s="1" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" s="12" t="s">
+      <c r="B127" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="128" spans="2:2">
-      <c r="B128" s="12" t="s">
+      <c r="B128" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="129" spans="2:2">
-      <c r="B129" s="12" t="s">
+      <c r="B129" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="12" t="s">
+      <c r="B130" s="1" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="12" t="s">
+      <c r="B131" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="12" t="s">
+      <c r="B132" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="12" t="s">
+      <c r="B133" s="1" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="12" t="s">
+      <c r="B134" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="135" spans="2:2">
-      <c r="B135" s="12" t="s">
+      <c r="B135" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="136" spans="2:2">
-      <c r="B136" s="12" t="s">
+      <c r="B136" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="137" spans="2:2">
-      <c r="B137" s="12" t="s">
+      <c r="B137" s="1" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="138" spans="2:2">
-      <c r="B138" s="12" t="s">
+      <c r="B138" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="139" spans="2:2">
-      <c r="B139" s="12" t="s">
+      <c r="B139" s="1" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="140" spans="2:2">
-      <c r="B140" s="12" t="s">
+      <c r="B140" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="141" spans="2:2">
-      <c r="B141" s="12" t="s">
+      <c r="B141" s="1" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="142" spans="2:2">
-      <c r="B142" s="12" t="s">
+      <c r="B142" s="1" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="143" spans="2:2">
-      <c r="B143" s="12" t="s">
+      <c r="B143" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="144" spans="2:2">
-      <c r="B144" s="12" t="s">
+      <c r="B144" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="145" spans="2:2">
-      <c r="B145" s="12" t="s">
+      <c r="B145" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="146" spans="2:2">
-      <c r="B146" s="12" t="s">
+      <c r="B146" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="147" spans="2:2">
-      <c r="B147" s="12" t="s">
+      <c r="B147" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="148" spans="2:2">
-      <c r="B148" s="12" t="s">
+      <c r="B148" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="149" spans="2:2">
-      <c r="B149" s="12" t="s">
+      <c r="B149" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="150" spans="2:2">
-      <c r="B150" s="12" t="s">
+      <c r="B150" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="151" spans="2:2">
-      <c r="B151" s="12" t="s">
+      <c r="B151" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="152" spans="2:2">
-      <c r="B152" s="12" t="s">
+      <c r="B152" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="153" spans="2:2">
-      <c r="B153" s="12" t="s">
+      <c r="B153" s="1" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="154" spans="2:2">
-      <c r="B154" s="12" t="s">
+      <c r="B154" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="155" spans="2:2">
-      <c r="B155" s="12" t="s">
+      <c r="B155" s="1" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="156" spans="2:2">
-      <c r="B156" s="12" t="s">
+      <c r="B156" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="157" spans="2:2">
-      <c r="B157" s="12" t="s">
+      <c r="B157" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="158" spans="2:2">
-      <c r="B158" s="12" t="s">
+      <c r="B158" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="159" spans="2:2">
-      <c r="B159" s="12" t="s">
+      <c r="B159" s="1" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="160" spans="2:2">
-      <c r="B160" s="12" t="s">
+      <c r="B160" s="1" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="161" spans="2:2">
-      <c r="B161" s="12" t="s">
+      <c r="B161" s="1" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="162" spans="2:2">
-      <c r="B162" s="12" t="s">
+      <c r="B162" s="1" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="163" spans="2:2">
-      <c r="B163" s="12" t="s">
+      <c r="B163" s="1" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="164" spans="2:2">
-      <c r="B164" s="12" t="s">
+      <c r="B164" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="165" spans="2:2">
-      <c r="B165" s="12" t="s">
+      <c r="B165" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="166" spans="2:2">
-      <c r="B166" s="12" t="s">
+      <c r="B166" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="167" spans="2:2">
-      <c r="B167" s="12" t="s">
+      <c r="B167" s="1" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="168" spans="2:2">
-      <c r="B168" s="12" t="s">
+      <c r="B168" s="1" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="169" spans="2:2">
-      <c r="B169" s="12" t="s">
+      <c r="B169" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="170" spans="2:2">
-      <c r="B170" s="12" t="s">
+      <c r="B170" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="171" spans="2:2">
-      <c r="B171" s="12" t="s">
+      <c r="B171" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="172" spans="2:2">
-      <c r="B172" s="12" t="s">
+      <c r="B172" s="1" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="173" spans="2:2">
-      <c r="B173" s="12" t="s">
+      <c r="B173" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="174" spans="2:2">
-      <c r="B174" s="12" t="s">
+      <c r="B174" s="1" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="175" spans="2:2">
-      <c r="B175" s="12" t="s">
+      <c r="B175" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="176" spans="2:2">
-      <c r="B176" s="12" t="s">
+      <c r="B176" s="1" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="177" spans="2:2">
-      <c r="B177" s="12" t="s">
+      <c r="B177" s="1" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="178" spans="2:2">
-      <c r="B178" s="12" t="s">
+      <c r="B178" s="1" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="179" spans="2:2">
-      <c r="B179" s="12" t="s">
+      <c r="B179" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="180" spans="2:2">
-      <c r="B180" s="12" t="s">
+      <c r="B180" s="1" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="181" spans="2:2">
-      <c r="B181" s="12" t="s">
+      <c r="B181" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="182" spans="2:2">
-      <c r="B182" s="12" t="s">
+      <c r="B182" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="183" spans="2:2">
-      <c r="B183" s="12" t="s">
+      <c r="B183" s="1" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="184" spans="2:2">
-      <c r="B184" s="12" t="s">
+      <c r="B184" s="1" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="185" spans="2:2">
-      <c r="B185" s="12" t="s">
+      <c r="B185" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="186" spans="2:2">
-      <c r="B186" s="12" t="s">
+      <c r="B186" s="1" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="187" spans="2:2">
-      <c r="B187" s="12" t="s">
+      <c r="B187" s="1" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="188" spans="2:2">
-      <c r="B188" s="12" t="s">
+      <c r="B188" s="1" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="189" spans="2:2">
-      <c r="B189" s="12" t="s">
+      <c r="B189" s="1" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="190" spans="2:2">
-      <c r="B190" s="12" t="s">
+      <c r="B190" s="1" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="191" spans="2:2">
-      <c r="B191" s="12" t="s">
+      <c r="B191" s="1" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="192" spans="2:2">
-      <c r="B192" s="12" t="s">
+      <c r="B192" s="1" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="193" spans="2:2">
-      <c r="B193" s="12" t="s">
+      <c r="B193" s="1" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="194" spans="2:2">
-      <c r="B194" s="12" t="s">
+      <c r="B194" s="1" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="195" spans="2:2">
-      <c r="B195" s="12" t="s">
+      <c r="B195" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="196" spans="2:2">
-      <c r="B196" s="12" t="s">
+      <c r="B196" s="1" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="197" spans="2:2">
-      <c r="B197" s="12" t="s">
+      <c r="B197" s="1" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="198" spans="2:2">
-      <c r="B198" s="12" t="s">
+      <c r="B198" s="1" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="199" spans="2:2">
-      <c r="B199" s="12" t="s">
+      <c r="B199" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="200" spans="2:2">
-      <c r="B200" s="12" t="s">
+      <c r="B200" s="1" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="201" spans="2:2">
-      <c r="B201" s="12" t="s">
+      <c r="B201" s="1" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="202" spans="2:2">
-      <c r="B202" s="12" t="s">
+      <c r="B202" s="1" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="203" spans="2:2">
-      <c r="B203" s="12" t="s">
+      <c r="B203" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="204" spans="2:2">
-      <c r="B204" s="12" t="s">
+      <c r="B204" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="205" spans="2:2">
-      <c r="B205" s="12" t="s">
+      <c r="B205" s="1" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="206" spans="2:2">
-      <c r="B206" s="12" t="s">
+      <c r="B206" s="1" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="207" spans="2:2">
-      <c r="B207" s="12" t="s">
+      <c r="B207" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="208" spans="2:2">
-      <c r="B208" s="12" t="s">
+      <c r="B208" s="1" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="209" spans="2:2">
-      <c r="B209" s="12" t="s">
+      <c r="B209" s="1" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="210" spans="2:2">
-      <c r="B210" s="12" t="s">
+      <c r="B210" s="1" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="211" spans="2:2">
-      <c r="B211" s="12" t="s">
+      <c r="B211" s="1" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="212" spans="2:2">
-      <c r="B212" s="12" t="s">
+      <c r="B212" s="1" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="213" spans="2:2">
-      <c r="B213" s="12" t="s">
+      <c r="B213" s="1" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="214" spans="2:2">
-      <c r="B214" s="12" t="s">
+      <c r="B214" s="1" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="215" spans="2:2">
-      <c r="B215" s="12" t="s">
+      <c r="B215" s="1" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="216" spans="2:2">
-      <c r="B216" s="12" t="s">
+      <c r="B216" s="1" t="s">
         <v>263</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/routers/upload/派单模板.xlsx
+++ b/routers/upload/派单模板.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="265">
   <si>
     <t>项目</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>导入测试</t>
+  </si>
+  <si>
+    <t>A00002</t>
   </si>
   <si>
     <t>中国工商银行(工行)</t>
@@ -820,10 +823,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -861,6 +864,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -874,15 +900,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -902,71 +938,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -989,16 +963,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1010,6 +998,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -1038,187 +1041,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1229,36 +1232,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1280,17 +1253,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1316,164 +1310,173 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1838,13 +1841,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y500"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12592592592593" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.12592592592593" defaultRowHeight="16.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="16.8740740740741" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.6222222222222" style="3" customWidth="1"/>
@@ -2031,7 +2034,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>27</v>
@@ -2103,1504 +2106,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="23:23">
-      <c r="W4" s="3"/>
-    </row>
-    <row r="5" spans="23:23">
-      <c r="W5" s="3"/>
-    </row>
-    <row r="6" spans="23:23">
-      <c r="W6" s="3"/>
-    </row>
-    <row r="7" spans="23:23">
-      <c r="W7" s="3"/>
-    </row>
-    <row r="8" spans="23:23">
-      <c r="W8" s="3"/>
-    </row>
-    <row r="9" spans="23:23">
-      <c r="W9" s="3"/>
-    </row>
-    <row r="10" spans="23:23">
-      <c r="W10" s="3"/>
-    </row>
-    <row r="11" spans="23:23">
-      <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="23:23">
-      <c r="W12" s="3"/>
-    </row>
-    <row r="13" spans="23:23">
-      <c r="W13" s="3"/>
-    </row>
-    <row r="14" spans="23:23">
-      <c r="W14" s="3"/>
-    </row>
-    <row r="15" spans="23:23">
-      <c r="W15" s="3"/>
-    </row>
-    <row r="16" spans="23:23">
-      <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="23:23">
-      <c r="W17" s="3"/>
-    </row>
-    <row r="18" spans="23:23">
-      <c r="W18" s="3"/>
-    </row>
-    <row r="19" spans="23:23">
-      <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="23:23">
-      <c r="W20" s="3"/>
-    </row>
-    <row r="21" spans="23:23">
-      <c r="W21" s="3"/>
-    </row>
-    <row r="22" spans="23:23">
-      <c r="W22" s="3"/>
-    </row>
-    <row r="23" spans="23:23">
-      <c r="W23" s="3"/>
-    </row>
-    <row r="24" spans="23:23">
-      <c r="W24" s="3"/>
-    </row>
-    <row r="25" spans="23:23">
-      <c r="W25" s="3"/>
-    </row>
-    <row r="26" spans="23:23">
-      <c r="W26" s="3"/>
-    </row>
-    <row r="27" spans="23:23">
-      <c r="W27" s="3"/>
-    </row>
-    <row r="28" spans="23:23">
-      <c r="W28" s="3"/>
-    </row>
-    <row r="29" spans="23:23">
-      <c r="W29" s="3"/>
-    </row>
-    <row r="30" spans="23:23">
-      <c r="W30" s="3"/>
-    </row>
-    <row r="31" spans="23:23">
-      <c r="W31" s="3"/>
-    </row>
-    <row r="32" spans="23:23">
-      <c r="W32" s="3"/>
-    </row>
-    <row r="33" spans="23:23">
-      <c r="W33" s="3"/>
-    </row>
-    <row r="34" spans="23:23">
-      <c r="W34" s="3"/>
-    </row>
-    <row r="35" spans="23:23">
-      <c r="W35" s="3"/>
-    </row>
-    <row r="36" spans="23:23">
-      <c r="W36" s="3"/>
-    </row>
-    <row r="37" spans="23:23">
-      <c r="W37" s="3"/>
-    </row>
-    <row r="38" spans="23:23">
-      <c r="W38" s="3"/>
-    </row>
-    <row r="39" spans="23:23">
-      <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="23:23">
-      <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="23:23">
-      <c r="W41" s="3"/>
-    </row>
-    <row r="42" spans="23:23">
-      <c r="W42" s="3"/>
-    </row>
-    <row r="43" spans="23:23">
-      <c r="W43" s="3"/>
-    </row>
-    <row r="44" spans="23:23">
-      <c r="W44" s="3"/>
-    </row>
-    <row r="45" spans="23:23">
-      <c r="W45" s="3"/>
-    </row>
-    <row r="46" spans="23:23">
-      <c r="W46" s="3"/>
-    </row>
-    <row r="47" spans="23:23">
-      <c r="W47" s="3"/>
-    </row>
-    <row r="48" spans="23:23">
-      <c r="W48" s="3"/>
-    </row>
-    <row r="49" spans="23:23">
-      <c r="W49" s="3"/>
-    </row>
-    <row r="50" spans="23:23">
-      <c r="W50" s="3"/>
-    </row>
-    <row r="51" spans="23:23">
-      <c r="W51" s="3"/>
-    </row>
-    <row r="52" spans="23:23">
-      <c r="W52" s="3"/>
-    </row>
-    <row r="53" spans="23:23">
-      <c r="W53" s="3"/>
-    </row>
-    <row r="54" spans="23:23">
-      <c r="W54" s="3"/>
-    </row>
-    <row r="55" spans="23:23">
-      <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="23:23">
-      <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="23:23">
-      <c r="W57" s="3"/>
-    </row>
-    <row r="58" spans="23:23">
-      <c r="W58" s="3"/>
-    </row>
-    <row r="59" spans="23:23">
-      <c r="W59" s="3"/>
-    </row>
-    <row r="60" spans="23:23">
-      <c r="W60" s="3"/>
-    </row>
-    <row r="61" spans="23:23">
-      <c r="W61" s="3"/>
-    </row>
-    <row r="62" spans="23:23">
-      <c r="W62" s="3"/>
-    </row>
-    <row r="63" spans="23:23">
-      <c r="W63" s="3"/>
-    </row>
-    <row r="64" spans="23:23">
-      <c r="W64" s="3"/>
-    </row>
-    <row r="65" spans="23:23">
-      <c r="W65" s="3"/>
-    </row>
-    <row r="66" spans="23:23">
-      <c r="W66" s="3"/>
-    </row>
-    <row r="67" spans="23:23">
-      <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="23:23">
-      <c r="W68" s="3"/>
-    </row>
-    <row r="69" spans="23:23">
-      <c r="W69" s="3"/>
-    </row>
-    <row r="70" spans="23:23">
-      <c r="W70" s="3"/>
-    </row>
-    <row r="71" spans="23:23">
-      <c r="W71" s="3"/>
-    </row>
-    <row r="72" spans="23:23">
-      <c r="W72" s="3"/>
-    </row>
-    <row r="73" spans="23:23">
-      <c r="W73" s="3"/>
-    </row>
-    <row r="74" spans="23:23">
-      <c r="W74" s="3"/>
-    </row>
-    <row r="75" spans="23:23">
-      <c r="W75" s="3"/>
-    </row>
-    <row r="76" spans="23:23">
-      <c r="W76" s="3"/>
-    </row>
-    <row r="77" spans="23:23">
-      <c r="W77" s="3"/>
-    </row>
-    <row r="78" spans="23:23">
-      <c r="W78" s="3"/>
-    </row>
-    <row r="79" spans="23:23">
-      <c r="W79" s="3"/>
-    </row>
-    <row r="80" spans="23:23">
-      <c r="W80" s="3"/>
-    </row>
-    <row r="81" spans="23:23">
-      <c r="W81" s="3"/>
-    </row>
-    <row r="82" spans="23:23">
-      <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="23:23">
-      <c r="W83" s="3"/>
-    </row>
-    <row r="84" spans="23:23">
-      <c r="W84" s="3"/>
-    </row>
-    <row r="85" spans="23:23">
-      <c r="W85" s="3"/>
-    </row>
-    <row r="86" spans="23:23">
-      <c r="W86" s="3"/>
-    </row>
-    <row r="87" spans="23:23">
-      <c r="W87" s="3"/>
-    </row>
-    <row r="88" spans="23:23">
-      <c r="W88" s="3"/>
-    </row>
-    <row r="89" spans="23:23">
-      <c r="W89" s="3"/>
-    </row>
-    <row r="90" spans="23:23">
-      <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="23:23">
-      <c r="W91" s="3"/>
-    </row>
-    <row r="92" spans="23:23">
-      <c r="W92" s="3"/>
-    </row>
-    <row r="93" spans="23:23">
-      <c r="W93" s="3"/>
-    </row>
-    <row r="94" spans="23:23">
-      <c r="W94" s="3"/>
-    </row>
-    <row r="95" spans="23:23">
-      <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="23:23">
-      <c r="W96" s="3"/>
-    </row>
-    <row r="97" spans="23:23">
-      <c r="W97" s="3"/>
-    </row>
-    <row r="98" spans="23:23">
-      <c r="W98" s="3"/>
-    </row>
-    <row r="99" spans="23:23">
-      <c r="W99" s="3"/>
-    </row>
-    <row r="100" spans="23:23">
-      <c r="W100" s="3"/>
-    </row>
-    <row r="101" spans="23:23">
-      <c r="W101" s="3"/>
-    </row>
-    <row r="102" spans="23:23">
-      <c r="W102" s="3"/>
-    </row>
-    <row r="103" spans="23:23">
-      <c r="W103" s="3"/>
-    </row>
-    <row r="104" spans="23:23">
-      <c r="W104" s="3"/>
-    </row>
-    <row r="105" spans="23:23">
-      <c r="W105" s="3"/>
-    </row>
-    <row r="106" spans="23:23">
-      <c r="W106" s="3"/>
-    </row>
-    <row r="107" spans="23:23">
-      <c r="W107" s="3"/>
-    </row>
-    <row r="108" spans="23:23">
-      <c r="W108" s="3"/>
-    </row>
-    <row r="109" spans="23:23">
-      <c r="W109" s="3"/>
-    </row>
-    <row r="110" spans="23:23">
-      <c r="W110" s="3"/>
-    </row>
-    <row r="111" spans="23:23">
-      <c r="W111" s="3"/>
-    </row>
-    <row r="112" spans="23:23">
-      <c r="W112" s="3"/>
-    </row>
-    <row r="113" spans="23:23">
-      <c r="W113" s="3"/>
-    </row>
-    <row r="114" spans="23:23">
-      <c r="W114" s="3"/>
-    </row>
-    <row r="115" spans="23:23">
-      <c r="W115" s="3"/>
-    </row>
-    <row r="116" spans="23:23">
-      <c r="W116" s="3"/>
-    </row>
-    <row r="117" spans="23:23">
-      <c r="W117" s="3"/>
-    </row>
-    <row r="118" spans="23:23">
-      <c r="W118" s="3"/>
-    </row>
-    <row r="119" spans="23:23">
-      <c r="W119" s="3"/>
-    </row>
-    <row r="120" spans="23:23">
-      <c r="W120" s="3"/>
-    </row>
-    <row r="121" spans="23:23">
-      <c r="W121" s="3"/>
-    </row>
-    <row r="122" spans="23:23">
-      <c r="W122" s="3"/>
-    </row>
-    <row r="123" spans="23:23">
-      <c r="W123" s="3"/>
-    </row>
-    <row r="124" spans="23:23">
-      <c r="W124" s="3"/>
-    </row>
-    <row r="125" spans="23:23">
-      <c r="W125" s="3"/>
-    </row>
-    <row r="126" spans="23:23">
-      <c r="W126" s="3"/>
-    </row>
-    <row r="127" spans="23:23">
-      <c r="W127" s="3"/>
-    </row>
-    <row r="128" spans="23:23">
-      <c r="W128" s="3"/>
-    </row>
-    <row r="129" spans="23:23">
-      <c r="W129" s="3"/>
-    </row>
-    <row r="130" spans="23:23">
-      <c r="W130" s="3"/>
-    </row>
-    <row r="131" spans="23:23">
-      <c r="W131" s="3"/>
-    </row>
-    <row r="132" spans="23:23">
-      <c r="W132" s="3"/>
-    </row>
-    <row r="133" spans="23:23">
-      <c r="W133" s="3"/>
-    </row>
-    <row r="134" spans="23:23">
-      <c r="W134" s="3"/>
-    </row>
-    <row r="135" spans="23:23">
-      <c r="W135" s="3"/>
-    </row>
-    <row r="136" spans="23:23">
-      <c r="W136" s="3"/>
-    </row>
-    <row r="137" spans="23:23">
-      <c r="W137" s="3"/>
-    </row>
-    <row r="138" spans="23:23">
-      <c r="W138" s="3"/>
-    </row>
-    <row r="139" spans="23:23">
-      <c r="W139" s="3"/>
-    </row>
-    <row r="140" spans="23:23">
-      <c r="W140" s="3"/>
-    </row>
-    <row r="141" spans="23:23">
-      <c r="W141" s="3"/>
-    </row>
-    <row r="142" spans="23:23">
-      <c r="W142" s="3"/>
-    </row>
-    <row r="143" spans="23:23">
-      <c r="W143" s="3"/>
-    </row>
-    <row r="144" spans="23:23">
-      <c r="W144" s="3"/>
-    </row>
-    <row r="145" spans="23:23">
-      <c r="W145" s="3"/>
-    </row>
-    <row r="146" spans="23:23">
-      <c r="W146" s="3"/>
-    </row>
-    <row r="147" spans="23:23">
-      <c r="W147" s="3"/>
-    </row>
-    <row r="148" spans="23:23">
-      <c r="W148" s="3"/>
-    </row>
-    <row r="149" spans="23:23">
-      <c r="W149" s="3"/>
-    </row>
-    <row r="150" spans="23:23">
-      <c r="W150" s="3"/>
-    </row>
-    <row r="151" spans="23:23">
-      <c r="W151" s="3"/>
-    </row>
-    <row r="152" spans="23:23">
-      <c r="W152" s="3"/>
-    </row>
-    <row r="153" spans="23:23">
-      <c r="W153" s="3"/>
-    </row>
-    <row r="154" spans="23:23">
-      <c r="W154" s="3"/>
-    </row>
-    <row r="155" spans="23:23">
-      <c r="W155" s="3"/>
-    </row>
-    <row r="156" spans="23:23">
-      <c r="W156" s="3"/>
-    </row>
-    <row r="157" spans="23:23">
-      <c r="W157" s="3"/>
-    </row>
-    <row r="158" spans="23:23">
-      <c r="W158" s="3"/>
-    </row>
-    <row r="159" spans="23:23">
-      <c r="W159" s="3"/>
-    </row>
-    <row r="160" spans="23:23">
-      <c r="W160" s="3"/>
-    </row>
-    <row r="161" spans="23:23">
-      <c r="W161" s="3"/>
-    </row>
-    <row r="162" spans="23:23">
-      <c r="W162" s="3"/>
-    </row>
-    <row r="163" spans="23:23">
-      <c r="W163" s="3"/>
-    </row>
-    <row r="164" spans="23:23">
-      <c r="W164" s="3"/>
-    </row>
-    <row r="165" spans="23:23">
-      <c r="W165" s="3"/>
-    </row>
-    <row r="166" spans="23:23">
-      <c r="W166" s="3"/>
-    </row>
-    <row r="167" spans="23:23">
-      <c r="W167" s="3"/>
-    </row>
-    <row r="168" spans="23:23">
-      <c r="W168" s="3"/>
-    </row>
-    <row r="169" spans="23:23">
-      <c r="W169" s="3"/>
-    </row>
-    <row r="170" spans="23:23">
-      <c r="W170" s="3"/>
-    </row>
-    <row r="171" spans="23:23">
-      <c r="W171" s="3"/>
-    </row>
-    <row r="172" spans="23:23">
-      <c r="W172" s="3"/>
-    </row>
-    <row r="173" spans="23:23">
-      <c r="W173" s="3"/>
-    </row>
-    <row r="174" spans="23:23">
-      <c r="W174" s="3"/>
-    </row>
-    <row r="175" spans="23:23">
-      <c r="W175" s="3"/>
-    </row>
-    <row r="176" spans="23:23">
-      <c r="W176" s="3"/>
-    </row>
-    <row r="177" spans="23:23">
-      <c r="W177" s="3"/>
-    </row>
-    <row r="178" spans="23:23">
-      <c r="W178" s="3"/>
-    </row>
-    <row r="179" spans="23:23">
-      <c r="W179" s="3"/>
-    </row>
-    <row r="180" spans="23:23">
-      <c r="W180" s="3"/>
-    </row>
-    <row r="181" spans="23:23">
-      <c r="W181" s="3"/>
-    </row>
-    <row r="182" spans="23:23">
-      <c r="W182" s="3"/>
-    </row>
-    <row r="183" spans="23:23">
-      <c r="W183" s="3"/>
-    </row>
-    <row r="184" spans="23:23">
-      <c r="W184" s="3"/>
-    </row>
-    <row r="185" spans="23:23">
-      <c r="W185" s="3"/>
-    </row>
-    <row r="186" spans="23:23">
-      <c r="W186" s="3"/>
-    </row>
-    <row r="187" spans="23:23">
-      <c r="W187" s="3"/>
-    </row>
-    <row r="188" spans="23:23">
-      <c r="W188" s="3"/>
-    </row>
-    <row r="189" spans="23:23">
-      <c r="W189" s="3"/>
-    </row>
-    <row r="190" spans="23:23">
-      <c r="W190" s="3"/>
-    </row>
-    <row r="191" spans="23:23">
-      <c r="W191" s="3"/>
-    </row>
-    <row r="192" spans="23:23">
-      <c r="W192" s="3"/>
-    </row>
-    <row r="193" spans="23:23">
-      <c r="W193" s="3"/>
-    </row>
-    <row r="194" spans="23:23">
-      <c r="W194" s="3"/>
-    </row>
-    <row r="195" spans="23:23">
-      <c r="W195" s="3"/>
-    </row>
-    <row r="196" spans="23:23">
-      <c r="W196" s="3"/>
-    </row>
-    <row r="197" spans="23:23">
-      <c r="W197" s="3"/>
-    </row>
-    <row r="198" spans="23:23">
-      <c r="W198" s="3"/>
-    </row>
-    <row r="199" spans="23:23">
-      <c r="W199" s="3"/>
-    </row>
-    <row r="200" spans="23:23">
-      <c r="W200" s="3"/>
-    </row>
-    <row r="201" spans="23:23">
-      <c r="W201" s="3"/>
-    </row>
-    <row r="202" spans="23:23">
-      <c r="W202" s="3"/>
-    </row>
-    <row r="203" spans="23:23">
-      <c r="W203" s="3"/>
-    </row>
-    <row r="204" spans="23:23">
-      <c r="W204" s="3"/>
-    </row>
-    <row r="205" spans="23:23">
-      <c r="W205" s="3"/>
-    </row>
-    <row r="206" spans="23:23">
-      <c r="W206" s="3"/>
-    </row>
-    <row r="207" spans="23:23">
-      <c r="W207" s="3"/>
-    </row>
-    <row r="208" spans="23:23">
-      <c r="W208" s="3"/>
-    </row>
-    <row r="209" spans="23:23">
-      <c r="W209" s="3"/>
-    </row>
-    <row r="210" spans="23:23">
-      <c r="W210" s="3"/>
-    </row>
-    <row r="211" spans="23:23">
-      <c r="W211" s="3"/>
-    </row>
-    <row r="212" spans="23:23">
-      <c r="W212" s="3"/>
-    </row>
-    <row r="213" spans="23:23">
-      <c r="W213" s="3"/>
-    </row>
-    <row r="214" spans="23:23">
-      <c r="W214" s="3"/>
-    </row>
-    <row r="215" spans="23:23">
-      <c r="W215" s="3"/>
-    </row>
-    <row r="216" spans="23:23">
-      <c r="W216" s="3"/>
-    </row>
-    <row r="217" spans="23:23">
-      <c r="W217" s="3"/>
-    </row>
-    <row r="218" spans="23:23">
-      <c r="W218" s="3"/>
-    </row>
-    <row r="219" spans="23:23">
-      <c r="W219" s="3"/>
-    </row>
-    <row r="220" spans="23:23">
-      <c r="W220" s="3"/>
-    </row>
-    <row r="221" spans="23:23">
-      <c r="W221" s="3"/>
-    </row>
-    <row r="222" spans="23:23">
-      <c r="W222" s="3"/>
-    </row>
-    <row r="223" spans="23:23">
-      <c r="W223" s="3"/>
-    </row>
-    <row r="224" spans="23:23">
-      <c r="W224" s="3"/>
-    </row>
-    <row r="225" spans="23:23">
-      <c r="W225" s="3"/>
-    </row>
-    <row r="226" spans="23:23">
-      <c r="W226" s="3"/>
-    </row>
-    <row r="227" spans="23:23">
-      <c r="W227" s="3"/>
-    </row>
-    <row r="228" spans="23:23">
-      <c r="W228" s="3"/>
-    </row>
-    <row r="229" spans="23:23">
-      <c r="W229" s="3"/>
-    </row>
-    <row r="230" spans="23:23">
-      <c r="W230" s="3"/>
-    </row>
-    <row r="231" spans="23:23">
-      <c r="W231" s="3"/>
-    </row>
-    <row r="232" spans="23:23">
-      <c r="W232" s="3"/>
-    </row>
-    <row r="233" spans="23:23">
-      <c r="W233" s="3"/>
-    </row>
-    <row r="234" spans="23:23">
-      <c r="W234" s="3"/>
-    </row>
-    <row r="235" spans="23:23">
-      <c r="W235" s="3"/>
-    </row>
-    <row r="236" spans="23:23">
-      <c r="W236" s="3"/>
-    </row>
-    <row r="237" spans="23:23">
-      <c r="W237" s="3"/>
-    </row>
-    <row r="238" spans="23:23">
-      <c r="W238" s="3"/>
-    </row>
-    <row r="239" spans="23:23">
-      <c r="W239" s="3"/>
-    </row>
-    <row r="240" spans="23:23">
-      <c r="W240" s="3"/>
-    </row>
-    <row r="241" spans="23:23">
-      <c r="W241" s="3"/>
-    </row>
-    <row r="242" spans="23:23">
-      <c r="W242" s="3"/>
-    </row>
-    <row r="243" spans="23:23">
-      <c r="W243" s="3"/>
-    </row>
-    <row r="244" spans="23:23">
-      <c r="W244" s="3"/>
-    </row>
-    <row r="245" spans="23:23">
-      <c r="W245" s="3"/>
-    </row>
-    <row r="246" spans="23:23">
-      <c r="W246" s="3"/>
-    </row>
-    <row r="247" spans="23:23">
-      <c r="W247" s="3"/>
-    </row>
-    <row r="248" spans="23:23">
-      <c r="W248" s="3"/>
-    </row>
-    <row r="249" spans="23:23">
-      <c r="W249" s="3"/>
-    </row>
-    <row r="250" spans="23:23">
-      <c r="W250" s="3"/>
-    </row>
-    <row r="251" spans="23:23">
-      <c r="W251" s="3"/>
-    </row>
-    <row r="252" spans="23:23">
-      <c r="W252" s="3"/>
-    </row>
-    <row r="253" spans="23:23">
-      <c r="W253" s="3"/>
-    </row>
-    <row r="254" spans="23:23">
-      <c r="W254" s="3"/>
-    </row>
-    <row r="255" spans="23:23">
-      <c r="W255" s="3"/>
-    </row>
-    <row r="256" spans="23:23">
-      <c r="W256" s="3"/>
-    </row>
-    <row r="257" spans="23:23">
-      <c r="W257" s="3"/>
-    </row>
-    <row r="258" spans="23:23">
-      <c r="W258" s="3"/>
-    </row>
-    <row r="259" spans="23:23">
-      <c r="W259" s="3"/>
-    </row>
-    <row r="260" spans="23:23">
-      <c r="W260" s="3"/>
-    </row>
-    <row r="261" spans="23:23">
-      <c r="W261" s="3"/>
-    </row>
-    <row r="262" spans="23:23">
-      <c r="W262" s="3"/>
-    </row>
-    <row r="263" spans="23:23">
-      <c r="W263" s="3"/>
-    </row>
-    <row r="264" spans="23:23">
-      <c r="W264" s="3"/>
-    </row>
-    <row r="265" spans="23:23">
-      <c r="W265" s="3"/>
-    </row>
-    <row r="266" spans="23:23">
-      <c r="W266" s="3"/>
-    </row>
-    <row r="267" spans="23:23">
-      <c r="W267" s="3"/>
-    </row>
-    <row r="268" spans="23:23">
-      <c r="W268" s="3"/>
-    </row>
-    <row r="269" spans="23:23">
-      <c r="W269" s="3"/>
-    </row>
-    <row r="270" spans="23:23">
-      <c r="W270" s="3"/>
-    </row>
-    <row r="271" spans="23:23">
-      <c r="W271" s="3"/>
-    </row>
-    <row r="272" spans="23:23">
-      <c r="W272" s="3"/>
-    </row>
-    <row r="273" spans="23:23">
-      <c r="W273" s="3"/>
-    </row>
-    <row r="274" spans="23:23">
-      <c r="W274" s="3"/>
-    </row>
-    <row r="275" spans="23:23">
-      <c r="W275" s="3"/>
-    </row>
-    <row r="276" spans="23:23">
-      <c r="W276" s="3"/>
-    </row>
-    <row r="277" spans="23:23">
-      <c r="W277" s="3"/>
-    </row>
-    <row r="278" spans="23:23">
-      <c r="W278" s="3"/>
-    </row>
-    <row r="279" spans="23:23">
-      <c r="W279" s="3"/>
-    </row>
-    <row r="280" spans="23:23">
-      <c r="W280" s="3"/>
-    </row>
-    <row r="281" spans="23:23">
-      <c r="W281" s="3"/>
-    </row>
-    <row r="282" spans="23:23">
-      <c r="W282" s="3"/>
-    </row>
-    <row r="283" spans="23:23">
-      <c r="W283" s="3"/>
-    </row>
-    <row r="284" spans="23:23">
-      <c r="W284" s="3"/>
-    </row>
-    <row r="285" spans="23:23">
-      <c r="W285" s="3"/>
-    </row>
-    <row r="286" spans="23:23">
-      <c r="W286" s="3"/>
-    </row>
-    <row r="287" spans="23:23">
-      <c r="W287" s="3"/>
-    </row>
-    <row r="288" spans="23:23">
-      <c r="W288" s="3"/>
-    </row>
-    <row r="289" spans="23:23">
-      <c r="W289" s="3"/>
-    </row>
-    <row r="290" spans="23:23">
-      <c r="W290" s="3"/>
-    </row>
-    <row r="291" spans="23:23">
-      <c r="W291" s="3"/>
-    </row>
-    <row r="292" spans="23:23">
-      <c r="W292" s="3"/>
-    </row>
-    <row r="293" spans="23:23">
-      <c r="W293" s="3"/>
-    </row>
-    <row r="294" spans="23:23">
-      <c r="W294" s="3"/>
-    </row>
-    <row r="295" spans="23:23">
-      <c r="W295" s="3"/>
-    </row>
-    <row r="296" spans="23:23">
-      <c r="W296" s="3"/>
-    </row>
-    <row r="297" spans="23:23">
-      <c r="W297" s="3"/>
-    </row>
-    <row r="298" spans="23:23">
-      <c r="W298" s="3"/>
-    </row>
-    <row r="299" spans="23:23">
-      <c r="W299" s="3"/>
-    </row>
-    <row r="300" spans="23:23">
-      <c r="W300" s="3"/>
-    </row>
-    <row r="301" spans="23:23">
-      <c r="W301" s="3"/>
-    </row>
-    <row r="302" spans="23:23">
-      <c r="W302" s="3"/>
-    </row>
-    <row r="303" spans="23:23">
-      <c r="W303" s="3"/>
-    </row>
-    <row r="304" spans="23:23">
-      <c r="W304" s="3"/>
-    </row>
-    <row r="305" spans="23:23">
-      <c r="W305" s="3"/>
-    </row>
-    <row r="306" spans="23:23">
-      <c r="W306" s="3"/>
-    </row>
-    <row r="307" spans="23:23">
-      <c r="W307" s="3"/>
-    </row>
-    <row r="308" spans="23:23">
-      <c r="W308" s="3"/>
-    </row>
-    <row r="309" spans="23:23">
-      <c r="W309" s="3"/>
-    </row>
-    <row r="310" spans="23:23">
-      <c r="W310" s="3"/>
-    </row>
-    <row r="311" spans="23:23">
-      <c r="W311" s="3"/>
-    </row>
-    <row r="312" spans="23:23">
-      <c r="W312" s="3"/>
-    </row>
-    <row r="313" spans="23:23">
-      <c r="W313" s="3"/>
-    </row>
-    <row r="314" spans="23:23">
-      <c r="W314" s="3"/>
-    </row>
-    <row r="315" spans="23:23">
-      <c r="W315" s="3"/>
-    </row>
-    <row r="316" spans="23:23">
-      <c r="W316" s="3"/>
-    </row>
-    <row r="317" spans="23:23">
-      <c r="W317" s="3"/>
-    </row>
-    <row r="318" spans="23:23">
-      <c r="W318" s="3"/>
-    </row>
-    <row r="319" spans="23:23">
-      <c r="W319" s="3"/>
-    </row>
-    <row r="320" spans="23:23">
-      <c r="W320" s="3"/>
-    </row>
-    <row r="321" spans="23:23">
-      <c r="W321" s="3"/>
-    </row>
-    <row r="322" spans="23:23">
-      <c r="W322" s="3"/>
-    </row>
-    <row r="323" spans="23:23">
-      <c r="W323" s="3"/>
-    </row>
-    <row r="324" spans="23:23">
-      <c r="W324" s="3"/>
-    </row>
-    <row r="325" spans="23:23">
-      <c r="W325" s="3"/>
-    </row>
-    <row r="326" spans="23:23">
-      <c r="W326" s="3"/>
-    </row>
-    <row r="327" spans="23:23">
-      <c r="W327" s="3"/>
-    </row>
-    <row r="328" spans="23:23">
-      <c r="W328" s="3"/>
-    </row>
-    <row r="329" spans="23:23">
-      <c r="W329" s="3"/>
-    </row>
-    <row r="330" spans="23:23">
-      <c r="W330" s="3"/>
-    </row>
-    <row r="331" spans="23:23">
-      <c r="W331" s="3"/>
-    </row>
-    <row r="332" spans="23:23">
-      <c r="W332" s="3"/>
-    </row>
-    <row r="333" spans="23:23">
-      <c r="W333" s="3"/>
-    </row>
-    <row r="334" spans="23:23">
-      <c r="W334" s="3"/>
-    </row>
-    <row r="335" spans="23:23">
-      <c r="W335" s="3"/>
-    </row>
-    <row r="336" spans="23:23">
-      <c r="W336" s="3"/>
-    </row>
-    <row r="337" spans="23:23">
-      <c r="W337" s="3"/>
-    </row>
-    <row r="338" spans="23:23">
-      <c r="W338" s="3"/>
-    </row>
-    <row r="339" spans="23:23">
-      <c r="W339" s="3"/>
-    </row>
-    <row r="340" spans="23:23">
-      <c r="W340" s="3"/>
-    </row>
-    <row r="341" spans="23:23">
-      <c r="W341" s="3"/>
-    </row>
-    <row r="342" spans="23:23">
-      <c r="W342" s="3"/>
-    </row>
-    <row r="343" spans="23:23">
-      <c r="W343" s="3"/>
-    </row>
-    <row r="344" spans="23:23">
-      <c r="W344" s="3"/>
-    </row>
-    <row r="345" spans="23:23">
-      <c r="W345" s="3"/>
-    </row>
-    <row r="346" spans="23:23">
-      <c r="W346" s="3"/>
-    </row>
-    <row r="347" spans="23:23">
-      <c r="W347" s="3"/>
-    </row>
-    <row r="348" spans="23:23">
-      <c r="W348" s="3"/>
-    </row>
-    <row r="349" spans="23:23">
-      <c r="W349" s="3"/>
-    </row>
-    <row r="350" spans="23:23">
-      <c r="W350" s="3"/>
-    </row>
-    <row r="351" spans="23:23">
-      <c r="W351" s="3"/>
-    </row>
-    <row r="352" spans="23:23">
-      <c r="W352" s="3"/>
-    </row>
-    <row r="353" spans="23:23">
-      <c r="W353" s="3"/>
-    </row>
-    <row r="354" spans="23:23">
-      <c r="W354" s="3"/>
-    </row>
-    <row r="355" spans="23:23">
-      <c r="W355" s="3"/>
-    </row>
-    <row r="356" spans="23:23">
-      <c r="W356" s="3"/>
-    </row>
-    <row r="357" spans="23:23">
-      <c r="W357" s="3"/>
-    </row>
-    <row r="358" spans="23:23">
-      <c r="W358" s="3"/>
-    </row>
-    <row r="359" spans="23:23">
-      <c r="W359" s="3"/>
-    </row>
-    <row r="360" spans="23:23">
-      <c r="W360" s="3"/>
-    </row>
-    <row r="361" spans="23:23">
-      <c r="W361" s="3"/>
-    </row>
-    <row r="362" spans="23:23">
-      <c r="W362" s="3"/>
-    </row>
-    <row r="363" spans="23:23">
-      <c r="W363" s="3"/>
-    </row>
-    <row r="364" spans="23:23">
-      <c r="W364" s="3"/>
-    </row>
-    <row r="365" spans="23:23">
-      <c r="W365" s="3"/>
-    </row>
-    <row r="366" spans="23:23">
-      <c r="W366" s="3"/>
-    </row>
-    <row r="367" spans="23:23">
-      <c r="W367" s="3"/>
-    </row>
-    <row r="368" spans="23:23">
-      <c r="W368" s="3"/>
-    </row>
-    <row r="369" spans="23:23">
-      <c r="W369" s="3"/>
-    </row>
-    <row r="370" spans="23:23">
-      <c r="W370" s="3"/>
-    </row>
-    <row r="371" spans="23:23">
-      <c r="W371" s="3"/>
-    </row>
-    <row r="372" spans="23:23">
-      <c r="W372" s="3"/>
-    </row>
-    <row r="373" spans="23:23">
-      <c r="W373" s="3"/>
-    </row>
-    <row r="374" spans="23:23">
-      <c r="W374" s="3"/>
-    </row>
-    <row r="375" spans="23:23">
-      <c r="W375" s="3"/>
-    </row>
-    <row r="376" spans="23:23">
-      <c r="W376" s="3"/>
-    </row>
-    <row r="377" spans="23:23">
-      <c r="W377" s="3"/>
-    </row>
-    <row r="378" spans="23:23">
-      <c r="W378" s="3"/>
-    </row>
-    <row r="379" spans="23:23">
-      <c r="W379" s="3"/>
-    </row>
-    <row r="380" spans="23:23">
-      <c r="W380" s="3"/>
-    </row>
-    <row r="381" spans="23:23">
-      <c r="W381" s="3"/>
-    </row>
-    <row r="382" spans="23:23">
-      <c r="W382" s="3"/>
-    </row>
-    <row r="383" spans="23:23">
-      <c r="W383" s="3"/>
-    </row>
-    <row r="384" spans="23:23">
-      <c r="W384" s="3"/>
-    </row>
-    <row r="385" spans="23:23">
-      <c r="W385" s="3"/>
-    </row>
-    <row r="386" spans="23:23">
-      <c r="W386" s="3"/>
-    </row>
-    <row r="387" spans="23:23">
-      <c r="W387" s="3"/>
-    </row>
-    <row r="388" spans="23:23">
-      <c r="W388" s="3"/>
-    </row>
-    <row r="389" spans="23:23">
-      <c r="W389" s="3"/>
-    </row>
-    <row r="390" spans="23:23">
-      <c r="W390" s="3"/>
-    </row>
-    <row r="391" spans="23:23">
-      <c r="W391" s="3"/>
-    </row>
-    <row r="392" spans="23:23">
-      <c r="W392" s="3"/>
-    </row>
-    <row r="393" spans="23:23">
-      <c r="W393" s="3"/>
-    </row>
-    <row r="394" spans="23:23">
-      <c r="W394" s="3"/>
-    </row>
-    <row r="395" spans="23:23">
-      <c r="W395" s="3"/>
-    </row>
-    <row r="396" spans="23:23">
-      <c r="W396" s="3"/>
-    </row>
-    <row r="397" spans="23:23">
-      <c r="W397" s="3"/>
-    </row>
-    <row r="398" spans="23:23">
-      <c r="W398" s="3"/>
-    </row>
-    <row r="399" spans="23:23">
-      <c r="W399" s="3"/>
-    </row>
-    <row r="400" spans="23:23">
-      <c r="W400" s="3"/>
-    </row>
-    <row r="401" spans="23:23">
-      <c r="W401" s="3"/>
-    </row>
-    <row r="402" spans="23:23">
-      <c r="W402" s="3"/>
-    </row>
-    <row r="403" spans="23:23">
-      <c r="W403" s="3"/>
-    </row>
-    <row r="404" spans="23:23">
-      <c r="W404" s="3"/>
-    </row>
-    <row r="405" spans="23:23">
-      <c r="W405" s="3"/>
-    </row>
-    <row r="406" spans="23:23">
-      <c r="W406" s="3"/>
-    </row>
-    <row r="407" spans="23:23">
-      <c r="W407" s="3"/>
-    </row>
-    <row r="408" spans="23:23">
-      <c r="W408" s="3"/>
-    </row>
-    <row r="409" spans="23:23">
-      <c r="W409" s="3"/>
-    </row>
-    <row r="410" spans="23:23">
-      <c r="W410" s="3"/>
-    </row>
-    <row r="411" spans="23:23">
-      <c r="W411" s="3"/>
-    </row>
-    <row r="412" spans="23:23">
-      <c r="W412" s="3"/>
-    </row>
-    <row r="413" spans="23:23">
-      <c r="W413" s="3"/>
-    </row>
-    <row r="414" spans="23:23">
-      <c r="W414" s="3"/>
-    </row>
-    <row r="415" spans="23:23">
-      <c r="W415" s="3"/>
-    </row>
-    <row r="416" spans="23:23">
-      <c r="W416" s="3"/>
-    </row>
-    <row r="417" spans="23:23">
-      <c r="W417" s="3"/>
-    </row>
-    <row r="418" spans="23:23">
-      <c r="W418" s="3"/>
-    </row>
-    <row r="419" spans="23:23">
-      <c r="W419" s="3"/>
-    </row>
-    <row r="420" spans="23:23">
-      <c r="W420" s="3"/>
-    </row>
-    <row r="421" spans="23:23">
-      <c r="W421" s="3"/>
-    </row>
-    <row r="422" spans="23:23">
-      <c r="W422" s="3"/>
-    </row>
-    <row r="423" spans="23:23">
-      <c r="W423" s="3"/>
-    </row>
-    <row r="424" spans="23:23">
-      <c r="W424" s="3"/>
-    </row>
-    <row r="425" spans="23:23">
-      <c r="W425" s="3"/>
-    </row>
-    <row r="426" spans="23:23">
-      <c r="W426" s="3"/>
-    </row>
-    <row r="427" spans="23:23">
-      <c r="W427" s="3"/>
-    </row>
-    <row r="428" spans="23:23">
-      <c r="W428" s="3"/>
-    </row>
-    <row r="429" spans="23:23">
-      <c r="W429" s="3"/>
-    </row>
-    <row r="430" spans="23:23">
-      <c r="W430" s="3"/>
-    </row>
-    <row r="431" spans="23:23">
-      <c r="W431" s="3"/>
-    </row>
-    <row r="432" spans="23:23">
-      <c r="W432" s="3"/>
-    </row>
-    <row r="433" spans="23:23">
-      <c r="W433" s="3"/>
-    </row>
-    <row r="434" spans="23:23">
-      <c r="W434" s="3"/>
-    </row>
-    <row r="435" spans="23:23">
-      <c r="W435" s="3"/>
-    </row>
-    <row r="436" spans="23:23">
-      <c r="W436" s="3"/>
-    </row>
-    <row r="437" spans="23:23">
-      <c r="W437" s="3"/>
-    </row>
-    <row r="438" spans="23:23">
-      <c r="W438" s="3"/>
-    </row>
-    <row r="439" spans="23:23">
-      <c r="W439" s="3"/>
-    </row>
-    <row r="440" spans="23:23">
-      <c r="W440" s="3"/>
-    </row>
-    <row r="441" spans="23:23">
-      <c r="W441" s="3"/>
-    </row>
-    <row r="442" spans="23:23">
-      <c r="W442" s="3"/>
-    </row>
-    <row r="443" spans="23:23">
-      <c r="W443" s="3"/>
-    </row>
-    <row r="444" spans="23:23">
-      <c r="W444" s="3"/>
-    </row>
-    <row r="445" spans="23:23">
-      <c r="W445" s="3"/>
-    </row>
-    <row r="446" spans="23:23">
-      <c r="W446" s="3"/>
-    </row>
-    <row r="447" spans="23:23">
-      <c r="W447" s="3"/>
-    </row>
-    <row r="448" spans="23:23">
-      <c r="W448" s="3"/>
-    </row>
-    <row r="449" spans="23:23">
-      <c r="W449" s="3"/>
-    </row>
-    <row r="450" spans="23:23">
-      <c r="W450" s="3"/>
-    </row>
-    <row r="451" spans="23:23">
-      <c r="W451" s="3"/>
-    </row>
-    <row r="452" spans="23:23">
-      <c r="W452" s="3"/>
-    </row>
-    <row r="453" spans="23:23">
-      <c r="W453" s="3"/>
-    </row>
-    <row r="454" spans="23:23">
-      <c r="W454" s="3"/>
-    </row>
-    <row r="455" spans="23:23">
-      <c r="W455" s="3"/>
-    </row>
-    <row r="456" spans="23:23">
-      <c r="W456" s="3"/>
-    </row>
-    <row r="457" spans="23:23">
-      <c r="W457" s="3"/>
-    </row>
-    <row r="458" spans="23:23">
-      <c r="W458" s="3"/>
-    </row>
-    <row r="459" spans="23:23">
-      <c r="W459" s="3"/>
-    </row>
-    <row r="460" spans="23:23">
-      <c r="W460" s="3"/>
-    </row>
-    <row r="461" spans="23:23">
-      <c r="W461" s="3"/>
-    </row>
-    <row r="462" spans="23:23">
-      <c r="W462" s="3"/>
-    </row>
-    <row r="463" spans="23:23">
-      <c r="W463" s="3"/>
-    </row>
-    <row r="464" spans="23:23">
-      <c r="W464" s="3"/>
-    </row>
-    <row r="465" spans="23:23">
-      <c r="W465" s="3"/>
-    </row>
-    <row r="466" spans="23:23">
-      <c r="W466" s="3"/>
-    </row>
-    <row r="467" spans="23:23">
-      <c r="W467" s="3"/>
-    </row>
-    <row r="468" spans="23:23">
-      <c r="W468" s="3"/>
-    </row>
-    <row r="469" spans="23:23">
-      <c r="W469" s="3"/>
-    </row>
-    <row r="470" spans="23:23">
-      <c r="W470" s="3"/>
-    </row>
-    <row r="471" spans="23:23">
-      <c r="W471" s="3"/>
-    </row>
-    <row r="472" spans="23:23">
-      <c r="W472" s="3"/>
-    </row>
-    <row r="473" spans="23:23">
-      <c r="W473" s="3"/>
-    </row>
-    <row r="474" spans="23:23">
-      <c r="W474" s="3"/>
-    </row>
-    <row r="475" spans="23:23">
-      <c r="W475" s="3"/>
-    </row>
-    <row r="476" spans="23:23">
-      <c r="W476" s="3"/>
-    </row>
-    <row r="477" spans="23:23">
-      <c r="W477" s="3"/>
-    </row>
-    <row r="478" spans="23:23">
-      <c r="W478" s="3"/>
-    </row>
-    <row r="479" spans="23:23">
-      <c r="W479" s="3"/>
-    </row>
-    <row r="480" spans="23:23">
-      <c r="W480" s="3"/>
-    </row>
-    <row r="481" spans="23:23">
-      <c r="W481" s="3"/>
-    </row>
-    <row r="482" spans="23:23">
-      <c r="W482" s="3"/>
-    </row>
-    <row r="483" spans="23:23">
-      <c r="W483" s="3"/>
-    </row>
-    <row r="484" spans="23:23">
-      <c r="W484" s="3"/>
-    </row>
-    <row r="485" spans="23:23">
-      <c r="W485" s="3"/>
-    </row>
-    <row r="486" spans="23:23">
-      <c r="W486" s="3"/>
-    </row>
-    <row r="487" spans="23:23">
-      <c r="W487" s="3"/>
-    </row>
-    <row r="488" spans="23:23">
-      <c r="W488" s="3"/>
-    </row>
-    <row r="489" spans="23:23">
-      <c r="W489" s="3"/>
-    </row>
-    <row r="490" spans="23:23">
-      <c r="W490" s="3"/>
-    </row>
-    <row r="491" spans="23:23">
-      <c r="W491" s="3"/>
-    </row>
-    <row r="492" spans="23:23">
-      <c r="W492" s="3"/>
-    </row>
-    <row r="493" spans="23:23">
-      <c r="W493" s="3"/>
-    </row>
-    <row r="494" spans="23:23">
-      <c r="W494" s="3"/>
-    </row>
-    <row r="495" spans="23:23">
-      <c r="W495" s="3"/>
-    </row>
-    <row r="496" spans="23:23">
-      <c r="W496" s="3"/>
-    </row>
-    <row r="497" spans="23:23">
-      <c r="W497" s="3"/>
-    </row>
-    <row r="498" spans="23:23">
-      <c r="W498" s="3"/>
-    </row>
-    <row r="499" spans="23:23">
-      <c r="W499" s="3"/>
-    </row>
-    <row r="500" spans="23:23">
-      <c r="W500" s="3"/>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W500">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J3">
+      <formula1>"煤炭及制品,石油、天然气及制品,金属矿石,钢铁,矿建材料,水泥,木材,非金属矿石,化肥及农药,盐,粮食,机械、设备、电器,轻工原料及制品,有色金属,轻工医药产品,鲜活农产品,冷藏冷冻货物,商品汽车,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W3">
       <formula1>bank!$B$1:$B$216</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
-      <formula1>"煤炭及制品,石油、天然气及制品,金属矿石,钢铁,矿建材料,水泥,木材,非金属矿石,化肥及农药,盐,粮食,机械、设备、电器,轻工原料及制品,有色金属,轻工医药产品,鲜活农产品,冷藏冷冻货物,商品汽车,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3625,57 +2137,57 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:2">
@@ -3685,1022 +2197,1022 @@
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="206" spans="2:2">
       <c r="B206" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="207" spans="2:2">
       <c r="B207" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="210" spans="2:2">
       <c r="B210" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="211" spans="2:2">
       <c r="B211" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="212" spans="2:2">
       <c r="B212" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="213" spans="2:2">
       <c r="B213" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="214" spans="2:2">
       <c r="B214" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="215" spans="2:2">
       <c r="B215" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/routers/upload/派单模板.xlsx
+++ b/routers/upload/派单模板.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharm\ntocc_web\routers\upload\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9315A74B-1BFD-42AC-8275-9F23A3FCB997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20325" windowHeight="11670" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="运单导入-标准版" sheetId="1" r:id="rId1"/>
@@ -821,14 +827,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -863,158 +863,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1023,210 +878,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79985961485641"/>
+        <fgColor theme="4" tint="0.79982909634693444"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799798577837458"/>
+        <fgColor theme="4" tint="0.79976805932798245"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799829096346934"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79979857783745845"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1234,251 +903,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1510,68 +937,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -1835,47 +1218,45 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12592592592593" defaultRowHeight="16.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="16.8740740740741" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.6222222222222" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="18" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.5037037037037" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.3777777777778" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.5037037037037" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.6222222222222" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.62222222222222" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.8740740740741" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="4" customWidth="1"/>
     <col min="10" max="10" width="14" style="4" customWidth="1"/>
     <col min="11" max="11" width="10" style="3" customWidth="1"/>
-    <col min="12" max="12" width="16.5037037037037" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.8740740740741" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.1259259259259" style="3" customWidth="1"/>
-    <col min="15" max="15" width="9.37777777777778" style="3" customWidth="1"/>
-    <col min="16" max="16" width="21.1259259259259" style="3" customWidth="1"/>
-    <col min="17" max="17" width="16.2518518518519" style="3" customWidth="1"/>
-    <col min="18" max="18" width="9.87407407407407" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16.5" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="14.125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9.375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="21.125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="16.25" style="3" customWidth="1"/>
+    <col min="18" max="18" width="9.875" style="3" customWidth="1"/>
     <col min="19" max="20" width="16" style="3" customWidth="1"/>
-    <col min="21" max="21" width="11.2518518518519" style="5" customWidth="1"/>
-    <col min="22" max="22" width="15.7481481481481" style="5" customWidth="1"/>
-    <col min="23" max="23" width="35.8740740740741" style="5" customWidth="1"/>
-    <col min="24" max="24" width="20.7481481481481" style="5" customWidth="1"/>
-    <col min="25" max="16384" width="9.12592592592593" style="5"/>
+    <col min="21" max="21" width="11.25" style="5" customWidth="1"/>
+    <col min="22" max="22" width="15.75" style="5" customWidth="1"/>
+    <col min="23" max="23" width="35.875" style="5" customWidth="1"/>
+    <col min="24" max="24" width="20.75" style="5" customWidth="1"/>
+    <col min="25" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:25">
+    <row r="1" spans="1:25" ht="15.75">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2107,32 +1488,38 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J3">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"煤炭及制品,石油、天然气及制品,金属矿石,钢铁,矿建材料,水泥,木材,非金属矿石,化肥及农药,盐,粮食,机械、设备、电器,轻工原料及制品,有色金属,轻工医药产品,鲜活农产品,冷藏冷冻货物,商品汽车,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W3">
-      <formula1>bank!$B$1:$B$216</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>bank!$B$1:$B$216</xm:f>
+          </x14:formula1>
+          <xm:sqref>W2:W3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:B216"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="58.2518518518519" style="1" customWidth="1"/>
+    <col min="2" max="2" width="58.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
@@ -3216,7 +2603,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>